--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7BCE42-4EA4-451B-9083-A646CE9EA9A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A40F74-3502-4997-ACFC-F495C7A15712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="21435" windowHeight="16680" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="21435" windowHeight="16680" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -280,6 +280,207 @@
   </si>
   <si>
     <t>Add TabView</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Add Status Bar</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>Add Status Bar contents and bind to ShellViewModel</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Bluebeam</t>
+  </si>
+  <si>
+    <t>Ask G</t>
+  </si>
+  <si>
+    <t>G: What is this?  Need direction on this.</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Add Facility View and ViewModel</t>
+  </si>
+  <si>
+    <t>Add 'Identity' items</t>
+  </si>
+  <si>
+    <t>Add 'Faility Comment' TextBox</t>
+  </si>
+  <si>
+    <t>Add 'Photos thumbnails' Listbox</t>
+  </si>
+  <si>
+    <t>Add 'Address' items</t>
+  </si>
+  <si>
+    <t>Add 'Point of contact' items</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Add left justified Label style</t>
+  </si>
+  <si>
+    <t>Add center justified Label style</t>
+  </si>
+  <si>
+    <t>Add right justified Label style</t>
+  </si>
+  <si>
+    <t>Add bold Label stytle</t>
+  </si>
+  <si>
+    <t>Add gray BG black bounded Label style</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Add Inventory View and ViewModel</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>IS1</t>
+  </si>
+  <si>
+    <t>I-Section</t>
+  </si>
+  <si>
+    <t>Add InventorySection View and ViewModel</t>
+  </si>
+  <si>
+    <t>Add Section Name list control</t>
+  </si>
+  <si>
+    <t>Add Section ComboBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Equipment Category caption and bind to VM which changes </t>
+  </si>
+  <si>
+    <t>IS2</t>
+  </si>
+  <si>
+    <t>IS3</t>
+  </si>
+  <si>
+    <t>IS4</t>
+  </si>
+  <si>
+    <t>IS4.Q1</t>
+  </si>
+  <si>
+    <t>G: What are the rules for Category caption change?</t>
+  </si>
+  <si>
+    <t>Add Category ComboBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add Component Type Label and ComboBox</t>
+  </si>
+  <si>
+    <t>Add Quantity</t>
+  </si>
+  <si>
+    <t>Add year Installed</t>
+  </si>
+  <si>
+    <t>Add Functional Area</t>
+  </si>
+  <si>
+    <t>Add Not Energy</t>
+  </si>
+  <si>
+    <t>Add Painted</t>
+  </si>
+  <si>
+    <t>Add Section Comment</t>
+  </si>
+  <si>
+    <t>Add Remember</t>
+  </si>
+  <si>
+    <t>Add Photos</t>
+  </si>
+  <si>
+    <t>Add Photos List</t>
+  </si>
+  <si>
+    <t>Add current inspector date</t>
+  </si>
+  <si>
+    <t>Add Cancel button</t>
+  </si>
+  <si>
+    <t>Add Delete Section button</t>
+  </si>
+  <si>
+    <t>Add 'Add Section' button</t>
+  </si>
+  <si>
+    <t>IS5</t>
+  </si>
+  <si>
+    <t>IS6</t>
+  </si>
+  <si>
+    <t>IS7</t>
+  </si>
+  <si>
+    <t>IS8</t>
+  </si>
+  <si>
+    <t>IS9</t>
+  </si>
+  <si>
+    <t>IS10</t>
+  </si>
+  <si>
+    <t>IS11</t>
+  </si>
+  <si>
+    <t>IS12</t>
+  </si>
+  <si>
+    <t>IS13</t>
+  </si>
+  <si>
+    <t>IS14</t>
+  </si>
+  <si>
+    <t>IS15</t>
+  </si>
+  <si>
+    <t>IS16</t>
+  </si>
+  <si>
+    <t>IS17</t>
+  </si>
+  <si>
+    <t>IS18</t>
+  </si>
+  <si>
+    <t>IS19</t>
   </si>
 </sst>
 </file>
@@ -631,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,328 +857,603 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C47" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C50" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A40F74-3502-4997-ACFC-F495C7A15712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48631DA-36DD-4AD7-9343-3AF00341083E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="600" windowWidth="21435" windowHeight="16680" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="-26175" yWindow="2040" windowWidth="25725" windowHeight="12150" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -481,14 +481,59 @@
   </si>
   <si>
     <t>IS19</t>
+  </si>
+  <si>
+    <t>Need to save/retrieve path</t>
+  </si>
+  <si>
+    <t>Should we serialize the information for context restore?</t>
+  </si>
+  <si>
+    <t>Is the configuration content stored in a file?</t>
+  </si>
+  <si>
+    <t>Is this file based or will we be connecting to a server?</t>
+  </si>
+  <si>
+    <t>What does "More" do?</t>
+  </si>
+  <si>
+    <t>L1.Q1</t>
+  </si>
+  <si>
+    <t>L5.Q1</t>
+  </si>
+  <si>
+    <t>L12.S1</t>
+  </si>
+  <si>
+    <t>L17.Q1</t>
+  </si>
+  <si>
+    <t>L21.Q1</t>
+  </si>
+  <si>
+    <t>S3.A1</t>
+  </si>
+  <si>
+    <t>I believe this is the BRED file selected on the Login page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -516,8 +561,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,18 +878,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -868,27 +914,27 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -902,561 +948,695 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C42" t="s">
         <v>58</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>65</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>69</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>71</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>73</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>75</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>77</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>79</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>83</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C56" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>85</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C57" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>87</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C58" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>89</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B60" t="s">
         <v>90</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C60" t="s">
         <v>92</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>93</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B62" t="s">
         <v>94</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C62" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>110</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B69" t="s">
         <v>108</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>111</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B71" t="s">
         <v>112</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C71" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>117</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>118</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C73" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>119</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C74" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>120</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C75" t="s">
         <v>121</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D75" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>137</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>138</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C77" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>139</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C78" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>140</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C79" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>141</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C80" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>142</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C81" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>143</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C82" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>144</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C83" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>145</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C84" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>146</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C85" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>147</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>148</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C87" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>149</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C88" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>150</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C89" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>151</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C90" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48631DA-36DD-4AD7-9343-3AF00341083E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93435C92-DF9A-4476-A1BD-892F7F5027F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26175" yWindow="2040" windowWidth="25725" windowHeight="12150" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>I believe this is the BRED file selected on the Login page.</t>
+  </si>
+  <si>
+    <t>S3.Q2</t>
+  </si>
+  <si>
+    <t>What data is stored in the BRED file?</t>
+  </si>
+  <si>
+    <t>S3.Q3</t>
+  </si>
+  <si>
+    <t>What data is stored in the config file?</t>
   </si>
 </sst>
 </file>
@@ -878,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,33 +1303,29 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
+      <c r="A47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
+      <c r="A48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1325,10 +1333,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1336,302 +1344,324 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>87</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>88</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>89</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>90</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>92</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>93</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>94</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C64" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>151</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>136</v>
       </c>
     </row>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93435C92-DF9A-4476-A1BD-892F7F5027F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB4D6B7-6E56-40FC-93DB-4F8ED85BCD6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26175" yWindow="2040" windowWidth="25725" windowHeight="12150" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="-25950" yWindow="2850" windowWidth="25725" windowHeight="12150" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -529,6 +529,84 @@
   </si>
   <si>
     <t>What data is stored in the config file?</t>
+  </si>
+  <si>
+    <t>S15.Q1</t>
+  </si>
+  <si>
+    <t>Should the staus bar remain on the viewable page and the scroll only affect the interior (e.g. Inventory details)?</t>
+  </si>
+  <si>
+    <t>S10.Q1</t>
+  </si>
+  <si>
+    <t>Need better definition of tree items / filters.</t>
+  </si>
+  <si>
+    <t>Done ?</t>
+  </si>
+  <si>
+    <t>Tear-off sidebar?</t>
+  </si>
+  <si>
+    <t>S16.Q1</t>
+  </si>
+  <si>
+    <t>S12.Q1</t>
+  </si>
+  <si>
+    <t>Is this done? What else is required?</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6.Q1</t>
+  </si>
+  <si>
+    <t>Can they provide an example Access database for development?</t>
+  </si>
+  <si>
+    <t>A7.Q1</t>
+  </si>
+  <si>
+    <t>Are pictures stored as Access data or as local files?</t>
+  </si>
+  <si>
+    <t>A8.Q1</t>
+  </si>
+  <si>
+    <t>Will the database be server based?</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>Picture carousel?</t>
+  </si>
+  <si>
+    <t>F4.Q1</t>
   </si>
 </sst>
 </file>
@@ -573,9 +651,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,778 +979,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="53.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>107</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>163</v>
+        <v>61</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C60" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="D61" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C69" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D69" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B71" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C71" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C65" t="s">
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C67" t="s">
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C68" t="s">
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C69" t="s">
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C79" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C81" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C82" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C83" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="84" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C84" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D85" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C86" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C87" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C88" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C89" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C90" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C91" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C92" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C93" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C94" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C95" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C96" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C97" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C98" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C99" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C100" s="2" t="s">
         <v>136</v>
       </c>
     </row>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB4D6B7-6E56-40FC-93DB-4F8ED85BCD6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC1FC54-FF22-450A-B60E-C4F445D249D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25950" yWindow="2850" windowWidth="25725" windowHeight="12150" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="4065" yWindow="14700" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Add Build Config TextBox and bind to VM</t>
   </si>
   <si>
-    <t>Save/Retrieve Build Config contents to user resources</t>
-  </si>
-  <si>
     <t>Add Build Config Select button</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
     <t>Need to save/retrieve path</t>
   </si>
   <si>
-    <t>Should we serialize the information for context restore?</t>
-  </si>
-  <si>
     <t>Is the configuration content stored in a file?</t>
   </si>
   <si>
@@ -504,9 +498,6 @@
     <t>L5.Q1</t>
   </si>
   <si>
-    <t>L12.S1</t>
-  </si>
-  <si>
     <t>L17.Q1</t>
   </si>
   <si>
@@ -607,13 +598,249 @@
   </si>
   <si>
     <t>F4.Q1</t>
+  </si>
+  <si>
+    <t>L26</t>
+  </si>
+  <si>
+    <t>Add Cancel button to terminate application</t>
+  </si>
+  <si>
+    <r>
+      <t>G: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line: Builder needs to be all cap: BUILDER Data Collecto</t>
+    </r>
+  </si>
+  <si>
+    <t>G: Logo edges look bad. In email I have attached 3 alternatives to try. Be sure to maintain aspect ratio.</t>
+  </si>
+  <si>
+    <t>G: • Can we drop all the wasted space on top and bottom, have the soft gray background and (Cardno) dark blue border</t>
+  </si>
+  <si>
+    <t>G: • The icons in front of the three text boxes are too small to look good; Either get them bigger or remove.</t>
+  </si>
+  <si>
+    <t>G: • The text in the text boxes is too small as well as the 'Inspector is required' message, larger font please.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G: o To note: It is possible that the BRED file to use line can get long; That text box should be auto wrap and expand to two lines of height as needed </t>
+  </si>
+  <si>
+    <t>L27.FB</t>
+  </si>
+  <si>
+    <t>L28.FB</t>
+  </si>
+  <si>
+    <t>L29.FB</t>
+  </si>
+  <si>
+    <t>L30.FB</t>
+  </si>
+  <si>
+    <t>L31.FB</t>
+  </si>
+  <si>
+    <t>L32.FB</t>
+  </si>
+  <si>
+    <t>S17.FB</t>
+  </si>
+  <si>
+    <t>G: Misunderstanding. Those are sub menu items, not another toolbar. Remove from Shell.</t>
+  </si>
+  <si>
+    <t>F7.FB</t>
+  </si>
+  <si>
+    <t>G: Need more space between Alt ID and Facility comment section</t>
+  </si>
+  <si>
+    <t>G: Need more space between Facility comment and Photo carousel.</t>
+  </si>
+  <si>
+    <t>S18.FB</t>
+  </si>
+  <si>
+    <t>S19.FB</t>
+  </si>
+  <si>
+    <t>G: Make menu text bigger</t>
+  </si>
+  <si>
+    <t>S20.FB</t>
+  </si>
+  <si>
+    <t>G: Make toolbar taller with more space between menu and below.</t>
+  </si>
+  <si>
+    <t>G: Make title bar font bigger by approx 20%</t>
+  </si>
+  <si>
+    <t>S21.FB</t>
+  </si>
+  <si>
+    <t>G: Build (aka Inventory) and Inspection icons should both be present with some means of indicating what mode currently in, Inventory or Inspect.</t>
+  </si>
+  <si>
+    <t>S22.FB</t>
+  </si>
+  <si>
+    <t>G: Add system and Delete system icons. As we need to distinguish adding system from adding component from adding Section, I have created three simplistic placeholder PNG files to use as toolbar images. Same thing for delete.</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>G1.FB</t>
+  </si>
+  <si>
+    <t>G: • Text boxes in general:  Too much space above and below the text, uses up a lot of valuable vertical space.</t>
+  </si>
+  <si>
+    <t>F8.FB</t>
+  </si>
+  <si>
+    <t>G: • The text box for Quantity is too small: should accommodate 888,888.88   You can adjust Building ID, Year built and Alternate ID to be the same, as shown in the wire frame.</t>
+  </si>
+  <si>
+    <t>F9.FB</t>
+  </si>
+  <si>
+    <t>F10.FB</t>
+  </si>
+  <si>
+    <t>G: • Address section:  No need for 2nd address line, please remove</t>
+  </si>
+  <si>
+    <t>IS20.FB</t>
+  </si>
+  <si>
+    <t>G: • Supplied you with Add Component and Add Section icons to replace the (identical) placeholders you have used.</t>
+  </si>
+  <si>
+    <t>IS21.FB</t>
+  </si>
+  <si>
+    <t>G: • I will work on place holder icons for Copy Section and Copy Inventory.</t>
+  </si>
+  <si>
+    <t>IS22.FB</t>
+  </si>
+  <si>
+    <t>G: • Section Name, Equip Cat and Component Type only need a single line - rlh: From the notes it looks like these values cannot be directory edited by the user. Instead, the user selects a member for a list of possibilities. Accordingly, DropDown ComboBox's are being used for these items, not Labels or TextBoxes.</t>
+  </si>
+  <si>
+    <t>Possible misunderstanding. Need to ask G.</t>
+  </si>
+  <si>
+    <t>IS23.FB</t>
+  </si>
+  <si>
+    <t>G: • The value for DCR Rating are, in order from top to bottom: G+, G G-, Y+, Y, Y-, R+, R, R-  (nine possible ratings. Same for P/C ratings.</t>
+  </si>
+  <si>
+    <t>IS24.FB</t>
+  </si>
+  <si>
+    <t>G: Make photo carousel taller in all Views.</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>Need to get rid of main window flash prior to Login display.</t>
+  </si>
+  <si>
+    <t>Should we serialize the information for context restore? Rlh - I was thinking of just shoving it into user setting strings.</t>
+  </si>
+  <si>
+    <t>L1.Q1.1</t>
+  </si>
+  <si>
+    <t>Add application user strings to contain last configuration and BRED file. Save on Log In click. Restore when Log In displays. See L5.</t>
+  </si>
+  <si>
+    <t>L5.Q1.1</t>
+  </si>
+  <si>
+    <t>rlh - no. Save to user setting string.</t>
+  </si>
+  <si>
+    <t>L12.Q1.1</t>
+  </si>
+  <si>
+    <t>L12.Q1</t>
+  </si>
+  <si>
+    <t>rlh - See L5. Save to user setting string.</t>
+  </si>
+  <si>
+    <t>Save/Retrieve Build Config contents to user sesttings string resources</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Ask G.</t>
+  </si>
+  <si>
+    <t>L31.FB.R1</t>
+  </si>
+  <si>
+    <t>rlh - Increased the text box and combo box font size. However, the validation error string will be a little more difficult. It can be done, just not a trvial change. Will do this later.</t>
+  </si>
+  <si>
+    <t>Partially addressed</t>
+  </si>
+  <si>
+    <t>L32.FB.R1</t>
+  </si>
+  <si>
+    <t>rlh - Changed the TextBox from to allow wrapping. When a wrap occurs then the box gets taller to accommodate the text.</t>
+  </si>
+  <si>
+    <t>Addressed</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>L28.FB.1</t>
+  </si>
+  <si>
+    <t>rlh - Replaced the existing logo with a new one. New image is *much* nicer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +851,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -651,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -665,6 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,20 +1215,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="53.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="84.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,86 +1239,89 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1091,808 +1331,1147 @@
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="D41" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="2" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="C99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="D100" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="2" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D112" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>136</v>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC1FC54-FF22-450A-B60E-C4F445D249D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C1F3A-86C8-4D98-AD03-4F44820F926F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="14700" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="3045" yWindow="15075" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t>Need better definition of tree items / filters.</t>
-  </si>
-  <si>
-    <t>Done ?</t>
   </si>
   <si>
     <t>Tear-off sidebar?</t>
@@ -785,18 +782,12 @@
     <t>L5.Q1.1</t>
   </si>
   <si>
-    <t>rlh - no. Save to user setting string.</t>
-  </si>
-  <si>
     <t>L12.Q1.1</t>
   </si>
   <si>
     <t>L12.Q1</t>
   </si>
   <si>
-    <t>rlh - See L5. Save to user setting string.</t>
-  </si>
-  <si>
     <t>Save/Retrieve Build Config contents to user sesttings string resources</t>
   </si>
   <si>
@@ -812,18 +803,12 @@
     <t>L31.FB.R1</t>
   </si>
   <si>
-    <t>rlh - Increased the text box and combo box font size. However, the validation error string will be a little more difficult. It can be done, just not a trvial change. Will do this later.</t>
-  </si>
-  <si>
     <t>Partially addressed</t>
   </si>
   <si>
     <t>L32.FB.R1</t>
   </si>
   <si>
-    <t>rlh - Changed the TextBox from to allow wrapping. When a wrap occurs then the box gets taller to accommodate the text.</t>
-  </si>
-  <si>
     <t>Addressed</t>
   </si>
   <si>
@@ -834,6 +819,57 @@
   </si>
   <si>
     <t>rlh - Replaced the existing logo with a new one. New image is *much* nicer.</t>
+  </si>
+  <si>
+    <t>S15.Q1.1</t>
+  </si>
+  <si>
+    <t>rlh - yes</t>
+  </si>
+  <si>
+    <t>S17.FB.1</t>
+  </si>
+  <si>
+    <t>S21.FB.1</t>
+  </si>
+  <si>
+    <t>Added the toolbar buttons but 'currently selected' indication is not yet implemented</t>
+  </si>
+  <si>
+    <t>Removed the spurious Toolbar and updated the remaining one.</t>
+  </si>
+  <si>
+    <t>no. Save to user setting string.</t>
+  </si>
+  <si>
+    <t>See L5. Save to user setting string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Increased the text box and combo box font size. However, the validation error string will be a little more difficult. It can be done, just not a trvial change. Will do this later.</t>
+  </si>
+  <si>
+    <t>Changed the TextBox from to allow wrapping. When a wrap occurs then the box gets taller to accommodate the text.</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>S18.FB.1</t>
+  </si>
+  <si>
+    <t>This is possible but not trivial. Will delay implementation until after more functional things have been completed.</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>In process</t>
+  </si>
+  <si>
+    <t>S22.FB.1</t>
+  </si>
+  <si>
+    <t>The 'add system and delete system icon' thing is a little confusing. Can you elaborate on that?</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,7 +1295,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>103</v>
@@ -1267,7 +1303,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>104</v>
@@ -1275,7 +1311,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>105</v>
@@ -1283,7 +1319,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>106</v>
@@ -1291,29 +1327,29 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,7 +1377,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -1349,10 +1385,10 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -1396,7 +1432,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -1411,18 +1447,18 @@
         <v>152</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,7 +1537,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
@@ -1510,10 +1546,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,7 +1616,7 @@
         <v>153</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1633,7 +1669,7 @@
         <v>154</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,10 +1718,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>7</v>
@@ -1693,10 +1729,10 @@
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>7</v>
@@ -1707,13 +1743,13 @@
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E48" s="5">
         <v>43554</v>
@@ -1721,10 +1757,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1735,10 +1771,10 @@
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>7</v>
@@ -1749,10 +1785,10 @@
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -1763,13 +1799,13 @@
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E52" s="5">
         <v>43554</v>
@@ -1777,10 +1813,10 @@
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E53" s="5">
         <v>43554</v>
@@ -1788,13 +1824,13 @@
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E54" s="5">
         <v>43554</v>
@@ -1802,10 +1838,10 @@
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
@@ -1816,10 +1852,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -1861,6 +1897,9 @@
       <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
@@ -1870,6 +1909,9 @@
       <c r="C62" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -1879,6 +1921,9 @@
       <c r="C63" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -1991,6 +2036,9 @@
       <c r="C74" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -1999,19 +2047,21 @@
       <c r="C75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>169</v>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2054,154 +2104,207 @@
       <c r="C80" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>171</v>
+      <c r="D80" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B81" s="3"/>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D89" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E90" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="2" t="s">
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="97" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4" t="s">
-        <v>189</v>
+      <c r="D98" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>7</v>
@@ -2209,10 +2312,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>7</v>
@@ -2220,254 +2323,296 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>208</v>
+        <v>97</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>224</v>
+        <v>98</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>227</v>
+        <v>99</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>108</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C129" s="2" t="s">
+    </row>
+    <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D130" s="2" t="s">
+    </row>
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C131" s="2" t="s">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1C1F3A-86C8-4D98-AD03-4F44820F926F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B764C-4E6E-4A28-B193-113D91C3BC1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="15075" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="2100" yWindow="1155" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="288">
   <si>
     <t>ID</t>
   </si>
@@ -870,6 +870,48 @@
   </si>
   <si>
     <t>The 'add system and delete system icon' thing is a little confusing. Can you elaborate on that?</t>
+  </si>
+  <si>
+    <t>Toolbar</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Add buttons that show and hide depending upon the currently active tab control</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Ask G for an image for Copy Inventory button</t>
+  </si>
+  <si>
+    <t>Ask G for an image for Copy Inspection button</t>
+  </si>
+  <si>
+    <t>Ask G for an image for Copy Sections button</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Modify the Tab item style to be fat finger compatible and more colorful on selection.</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>Remember and reassert window placement between sessions</t>
   </si>
 </sst>
 </file>
@@ -1251,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2285,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>272</v>
       </c>
@@ -2257,65 +2299,64 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="98" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="99" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>184</v>
+        <v>92</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>7</v>
@@ -2323,296 +2364,364 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="4" t="s">
-        <v>188</v>
+      <c r="A102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
+      <c r="A104" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>207</v>
+        <v>98</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9B764C-4E6E-4A28-B193-113D91C3BC1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9F301-19B7-438B-A157-BC678EABBB6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1155" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="3045" yWindow="15075" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="290">
   <si>
     <t>ID</t>
   </si>
@@ -912,6 +912,12 @@
   </si>
   <si>
     <t>Remember and reassert window placement between sessions</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>Bug: Before Login shows, the Shell briefly flashes. It should not.</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,52 +2328,55 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="95" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="100" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>7</v>
@@ -2375,10 +2384,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>7</v>
@@ -2386,41 +2395,41 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="4" t="s">
+      <c r="B105" s="3"/>
+      <c r="C105" s="4" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>7</v>
@@ -2428,299 +2437,310 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>207</v>
+        <v>99</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="5">
-        <v>43554</v>
+        <v>275</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="5">
+        <v>43554</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>283</v>
       </c>
     </row>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9F301-19B7-438B-A157-BC678EABBB6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C9282-6401-4471-928D-37C3D1779F4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="15075" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="289">
   <si>
     <t>ID</t>
   </si>
@@ -749,9 +749,6 @@
     <t>G: • Section Name, Equip Cat and Component Type only need a single line - rlh: From the notes it looks like these values cannot be directory edited by the user. Instead, the user selects a member for a list of possibilities. Accordingly, DropDown ComboBox's are being used for these items, not Labels or TextBoxes.</t>
   </si>
   <si>
-    <t>Possible misunderstanding. Need to ask G.</t>
-  </si>
-  <si>
     <t>IS23.FB</t>
   </si>
   <si>
@@ -890,9 +887,6 @@
     <t>T4</t>
   </si>
   <si>
-    <t>T5</t>
-  </si>
-  <si>
     <t>Ask G for an image for Copy Inventory button</t>
   </si>
   <si>
@@ -918,6 +912,9 @@
   </si>
   <si>
     <t>Bug: Before Login shows, the Shell briefly flashes. It should not.</t>
+  </si>
+  <si>
+    <t>Possible misunderstanding. Need to ask G. Waiting for response</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,7 +1422,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -1433,10 +1430,10 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -1480,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -1495,18 +1492,18 @@
         <v>152</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1582,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
@@ -1594,10 +1591,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,7 +1661,7 @@
         <v>153</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1717,7 +1714,7 @@
         <v>154</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1797,7 +1794,7 @@
         <v>193</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E48" s="5">
         <v>43554</v>
@@ -1805,10 +1802,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
@@ -1853,7 +1850,7 @@
         <v>196</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E52" s="5">
         <v>43554</v>
@@ -1861,10 +1858,10 @@
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E53" s="5">
         <v>43554</v>
@@ -1878,7 +1875,7 @@
         <v>197</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" s="5">
         <v>43554</v>
@@ -1886,10 +1883,10 @@
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
@@ -1900,10 +1897,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E56" s="5"/>
     </row>
@@ -1958,7 +1955,7 @@
         <v>63</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,7 +1967,7 @@
         <v>160</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,7 +2105,7 @@
         <v>172</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,19 +2150,19 @@
         <v>166</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,10 +2190,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>7</v>
@@ -2213,7 +2210,7 @@
         <v>214</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E85" s="5">
         <v>43554</v>
@@ -2221,13 +2218,13 @@
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2266,18 +2263,18 @@
         <v>216</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E90" s="5">
         <v>43554</v>
@@ -2293,13 +2290,13 @@
     </row>
     <row r="92" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E92" s="5">
         <v>43554</v>
@@ -2307,19 +2304,19 @@
     </row>
     <row r="93" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>7</v>
@@ -2330,10 +2327,10 @@
     </row>
     <row r="95" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>7</v>
@@ -2342,7 +2339,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>220</v>
       </c>
@@ -2353,7 +2350,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2366,9 +2363,12 @@
       <c r="D99" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>183</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>184</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>185</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>189</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>186</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>187</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>206</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>225</v>
       </c>
@@ -2662,6 +2662,12 @@
       <c r="C135" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -2679,39 +2685,39 @@
         <v>232</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>233</v>
+        <v>288</v>
+      </c>
+      <c r="E137" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B141" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>7</v>
@@ -2722,26 +2728,44 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E143" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E144" s="5">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E145" s="5">
+        <v>43537</v>
       </c>
     </row>
   </sheetData>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C9282-6401-4471-928D-37C3D1779F4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54662C88-4965-4E6E-995D-2BE97761CAB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="15075" windowWidth="18945" windowHeight="16560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="1245" yWindow="17310" windowWidth="21840" windowHeight="13770" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="378">
   <si>
     <t>ID</t>
   </si>
@@ -915,6 +915,273 @@
   </si>
   <si>
     <t>Possible misunderstanding. Need to ask G. Waiting for response</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>Add View and ViewModel class skeletons</t>
+  </si>
+  <si>
+    <t>CM2</t>
+  </si>
+  <si>
+    <t>Add toolbar and connect images to each button</t>
+  </si>
+  <si>
+    <t>CM3</t>
+  </si>
+  <si>
+    <t>Get more info on what data and controls are in the View from G.</t>
+  </si>
+  <si>
+    <t>Comment Popup</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Comment on Inspection</t>
+  </si>
+  <si>
+    <t>CI1</t>
+  </si>
+  <si>
+    <t>Add View and ViewModel class skeletons.</t>
+  </si>
+  <si>
+    <t>Add radio buttons</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>Create a style for radio buttons so that they match the spec</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Copy Commentary</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>Add Related to current row</t>
+  </si>
+  <si>
+    <t>Add Source row</t>
+  </si>
+  <si>
+    <t>CC4</t>
+  </si>
+  <si>
+    <t>Add Rated as row</t>
+  </si>
+  <si>
+    <t>CC5</t>
+  </si>
+  <si>
+    <t>Add Search term row</t>
+  </si>
+  <si>
+    <t>CC6</t>
+  </si>
+  <si>
+    <t>Add Facility code DCR Comment data grid</t>
+  </si>
+  <si>
+    <t>CC7</t>
+  </si>
+  <si>
+    <t>Add bottom button row</t>
+  </si>
+  <si>
+    <t>Copy Inventory</t>
+  </si>
+  <si>
+    <t>CI2</t>
+  </si>
+  <si>
+    <t>CI3</t>
+  </si>
+  <si>
+    <t>CI4</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>Add Source Facility row</t>
+  </si>
+  <si>
+    <t>CN3</t>
+  </si>
+  <si>
+    <t>Add Target Facility row</t>
+  </si>
+  <si>
+    <t>CN4</t>
+  </si>
+  <si>
+    <t>Add Section Name row</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>Add Systems to copy rows</t>
+  </si>
+  <si>
+    <t>CN6</t>
+  </si>
+  <si>
+    <t>Add Options cluster</t>
+  </si>
+  <si>
+    <t>CN7</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Photo Managerment</t>
+  </si>
+  <si>
+    <t>PM1</t>
+  </si>
+  <si>
+    <t>PM2</t>
+  </si>
+  <si>
+    <t>Add Pending cluster</t>
+  </si>
+  <si>
+    <t>PM3</t>
+  </si>
+  <si>
+    <t>Add Existing cluster</t>
+  </si>
+  <si>
+    <t>PM4</t>
+  </si>
+  <si>
+    <t>Add Details cluster</t>
+  </si>
+  <si>
+    <t>PM5</t>
+  </si>
+  <si>
+    <t>Add Title and Description data collection elements</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Camera UI/Capture Photo</t>
+  </si>
+  <si>
+    <t>CP1</t>
+  </si>
+  <si>
+    <t>CP2</t>
+  </si>
+  <si>
+    <t>Add toolbar and buttons</t>
+  </si>
+  <si>
+    <t>CP3</t>
+  </si>
+  <si>
+    <t>Add Image area</t>
+  </si>
+  <si>
+    <t>CP4</t>
+  </si>
+  <si>
+    <t>Connect Cancel and OK buttons</t>
+  </si>
+  <si>
+    <t>CP5</t>
+  </si>
+  <si>
+    <t>Customize toolbar button appearance</t>
+  </si>
+  <si>
+    <t>Add System</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AS1</t>
+  </si>
+  <si>
+    <t>AS2</t>
+  </si>
+  <si>
+    <t>Add label, combo and buttons to View</t>
+  </si>
+  <si>
+    <t>AS3</t>
+  </si>
+  <si>
+    <t>Connect OK and Cancel buttons to ViewModel</t>
+  </si>
+  <si>
+    <t>AS4</t>
+  </si>
+  <si>
+    <t>Connect Shell buttons to show the View</t>
+  </si>
+  <si>
+    <t>CP6</t>
+  </si>
+  <si>
+    <t>PM6</t>
+  </si>
+  <si>
+    <t>CN8</t>
+  </si>
+  <si>
+    <t>CC8</t>
+  </si>
+  <si>
+    <t>CI5</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Add New Component</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>AC2</t>
+  </si>
+  <si>
+    <t>AC3</t>
+  </si>
+  <si>
+    <t>AC4</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,6 +3035,514 @@
         <v>43537</v>
       </c>
     </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54662C88-4965-4E6E-995D-2BE97761CAB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DFBBD-791D-4F3F-8E2B-2038774A0BBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="17310" windowWidth="21840" windowHeight="13770" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="24675" yWindow="4680" windowWidth="23205" windowHeight="23535" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="381">
   <si>
     <t>ID</t>
   </si>
@@ -965,9 +965,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Copy Commentary</t>
-  </si>
-  <si>
     <t>CC1</t>
   </si>
   <si>
@@ -1182,6 +1179,18 @@
   </si>
   <si>
     <t>AC4</t>
+  </si>
+  <si>
+    <t>Copy Comment</t>
+  </si>
+  <si>
+    <t>CM5</t>
+  </si>
+  <si>
+    <t>Ask G to clarify, what launches the Comment Popup?</t>
+  </si>
+  <si>
+    <t>Connect Inspection's 'Inspection Comment' button to launch  popup.</t>
   </si>
 </sst>
 </file>
@@ -1563,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,37 +3093,34 @@
         <v>302</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>7</v>
@@ -3125,61 +3131,67 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="5">
-        <v>43555</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>309</v>
@@ -3187,212 +3199,206 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>324</v>
+      <c r="B172" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="5">
-        <v>43555</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>326</v>
+        <v>300</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>340</v>
+        <v>300</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>7</v>
@@ -3403,10 +3409,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>7</v>
@@ -3417,56 +3423,56 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C198" s="2" t="s">
+      <c r="C197" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="C199" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="5">
-        <v>43555</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>7</v>
@@ -3477,48 +3483,48 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>7</v>
@@ -3529,18 +3535,32 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DFBBD-791D-4F3F-8E2B-2038774A0BBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730C7D1-86C3-4C2D-8F61-B96F8FD73B45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24675" yWindow="4680" windowWidth="23205" windowHeight="23535" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="33840" yWindow="4140" windowWidth="23205" windowHeight="23535" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="504">
   <si>
     <t>ID</t>
   </si>
@@ -213,12 +213,6 @@
     <t>S3</t>
   </si>
   <si>
-    <t>S3.Q1</t>
-  </si>
-  <si>
-    <t>G: What file?</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>Add Status Bar contents and bind to ShellViewModel</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Bluebeam</t>
   </si>
   <si>
@@ -483,69 +474,21 @@
     <t>Need to save/retrieve path</t>
   </si>
   <si>
-    <t>Is the configuration content stored in a file?</t>
-  </si>
-  <si>
-    <t>Is this file based or will we be connecting to a server?</t>
-  </si>
-  <si>
     <t>What does "More" do?</t>
   </si>
   <si>
-    <t>L1.Q1</t>
-  </si>
-  <si>
-    <t>L5.Q1</t>
-  </si>
-  <si>
-    <t>L17.Q1</t>
-  </si>
-  <si>
     <t>L21.Q1</t>
   </si>
   <si>
-    <t>S3.A1</t>
-  </si>
-  <si>
-    <t>I believe this is the BRED file selected on the Login page.</t>
-  </si>
-  <si>
     <t>S3.Q2</t>
   </si>
   <si>
-    <t>What data is stored in the BRED file?</t>
-  </si>
-  <si>
     <t>S3.Q3</t>
   </si>
   <si>
-    <t>What data is stored in the config file?</t>
-  </si>
-  <si>
-    <t>S15.Q1</t>
-  </si>
-  <si>
-    <t>Should the staus bar remain on the viewable page and the scroll only affect the interior (e.g. Inventory details)?</t>
-  </si>
-  <si>
     <t>S10.Q1</t>
   </si>
   <si>
-    <t>Need better definition of tree items / filters.</t>
-  </si>
-  <si>
-    <t>Tear-off sidebar?</t>
-  </si>
-  <si>
-    <t>S16.Q1</t>
-  </si>
-  <si>
-    <t>S12.Q1</t>
-  </si>
-  <si>
-    <t>Is this done? What else is required?</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -558,24 +501,6 @@
     <t>A5</t>
   </si>
   <si>
-    <t>A6.Q1</t>
-  </si>
-  <si>
-    <t>Can they provide an example Access database for development?</t>
-  </si>
-  <si>
-    <t>A7.Q1</t>
-  </si>
-  <si>
-    <t>Are pictures stored as Access data or as local files?</t>
-  </si>
-  <si>
-    <t>A8.Q1</t>
-  </si>
-  <si>
-    <t>Will the database be server based?</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
@@ -589,9 +514,6 @@
   </si>
   <si>
     <t>F6</t>
-  </si>
-  <si>
-    <t>Picture carousel?</t>
   </si>
   <si>
     <t>F4.Q1</t>
@@ -665,48 +587,24 @@
     <t>S17.FB</t>
   </si>
   <si>
-    <t>G: Misunderstanding. Those are sub menu items, not another toolbar. Remove from Shell.</t>
-  </si>
-  <si>
     <t>F7.FB</t>
   </si>
   <si>
-    <t>G: Need more space between Alt ID and Facility comment section</t>
-  </si>
-  <si>
-    <t>G: Need more space between Facility comment and Photo carousel.</t>
-  </si>
-  <si>
     <t>S18.FB</t>
   </si>
   <si>
     <t>S19.FB</t>
   </si>
   <si>
-    <t>G: Make menu text bigger</t>
-  </si>
-  <si>
     <t>S20.FB</t>
   </si>
   <si>
-    <t>G: Make toolbar taller with more space between menu and below.</t>
-  </si>
-  <si>
-    <t>G: Make title bar font bigger by approx 20%</t>
-  </si>
-  <si>
     <t>S21.FB</t>
   </si>
   <si>
-    <t>G: Build (aka Inventory) and Inspection icons should both be present with some means of indicating what mode currently in, Inventory or Inspect.</t>
-  </si>
-  <si>
     <t>S22.FB</t>
   </si>
   <si>
-    <t>G: Add system and Delete system icons. As we need to distinguish adding system from adding component from adding Section, I have created three simplistic placeholder PNG files to use as toolbar images. Same thing for delete.</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -719,18 +617,12 @@
     <t>F8.FB</t>
   </si>
   <si>
-    <t>G: • The text box for Quantity is too small: should accommodate 888,888.88   You can adjust Building ID, Year built and Alternate ID to be the same, as shown in the wire frame.</t>
-  </si>
-  <si>
     <t>F9.FB</t>
   </si>
   <si>
     <t>F10.FB</t>
   </si>
   <si>
-    <t>G: • Address section:  No need for 2nd address line, please remove</t>
-  </si>
-  <si>
     <t>IS20.FB</t>
   </si>
   <si>
@@ -767,18 +659,12 @@
     <t>Need to get rid of main window flash prior to Login display.</t>
   </si>
   <si>
-    <t>Should we serialize the information for context restore? Rlh - I was thinking of just shoving it into user setting strings.</t>
-  </si>
-  <si>
     <t>L1.Q1.1</t>
   </si>
   <si>
     <t>Add application user strings to contain last configuration and BRED file. Save on Log In click. Restore when Log In displays. See L5.</t>
   </si>
   <si>
-    <t>L5.Q1.1</t>
-  </si>
-  <si>
     <t>L12.Q1.1</t>
   </si>
   <si>
@@ -788,12 +674,6 @@
     <t>Save/Retrieve Build Config contents to user sesttings string resources</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Ask G.</t>
   </si>
   <si>
@@ -818,12 +698,6 @@
     <t>rlh - Replaced the existing logo with a new one. New image is *much* nicer.</t>
   </si>
   <si>
-    <t>S15.Q1.1</t>
-  </si>
-  <si>
-    <t>rlh - yes</t>
-  </si>
-  <si>
     <t>S17.FB.1</t>
   </si>
   <si>
@@ -836,9 +710,6 @@
     <t>Removed the spurious Toolbar and updated the remaining one.</t>
   </si>
   <si>
-    <t>no. Save to user setting string.</t>
-  </si>
-  <si>
     <t>See L5. Save to user setting string.</t>
   </si>
   <si>
@@ -848,9 +719,6 @@
     <t>Changed the TextBox from to allow wrapping. When a wrap occurs then the box gets taller to accommodate the text.</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
     <t>S18.FB.1</t>
   </si>
   <si>
@@ -866,9 +734,6 @@
     <t>S22.FB.1</t>
   </si>
   <si>
-    <t>The 'add system and delete system icon' thing is a little confusing. Can you elaborate on that?</t>
-  </si>
-  <si>
     <t>Toolbar</t>
   </si>
   <si>
@@ -1191,13 +1056,566 @@
   </si>
   <si>
     <t>Connect Inspection's 'Inspection Comment' button to launch  popup.</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>The Shell is the main window itself which contains the various tabs, trees and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section is concerned with tasks that relate to general </t>
+  </si>
+  <si>
+    <t>Ask G: The 'add system and delete system icon' thing is a little confusing. Can you elaborate on that?</t>
+  </si>
+  <si>
+    <t>Ask G: Need better definition of tree items / filters.</t>
+  </si>
+  <si>
+    <t>Picture carousel is a hard coded script, not a true carousel.</t>
+  </si>
+  <si>
+    <t>Comment with light yellow background rather than orange please, BDC’s standard for text that can be edited but not where displayed.</t>
+  </si>
+  <si>
+    <t>F11.FB</t>
+  </si>
+  <si>
+    <r>
+      <t>In this 3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> iteration, somehow cells that were light gray background are showing up as white again. </t>
+    </r>
+  </si>
+  <si>
+    <t>F12.FB</t>
+  </si>
+  <si>
+    <t>Only ones that should have white background are ones the user can edit: Width, Depth and Floor Height</t>
+  </si>
+  <si>
+    <t>F13.FB</t>
+  </si>
+  <si>
+    <t>F13.FB.1</t>
+  </si>
+  <si>
+    <t>Ask G: What about Quantity? Where does its data come from?</t>
+  </si>
+  <si>
+    <t>Need more space between Alt ID and Facility comment section</t>
+  </si>
+  <si>
+    <t>Need more space between Facility comment and Photo carousel.</t>
+  </si>
+  <si>
+    <t>The text box for Quantity is too small: should accommodate 888,888.88   You can adjust Building ID, Year built and Alternate ID to be the same, as shown in the wire frame.</t>
+  </si>
+  <si>
+    <t>Address section:  No need for 2nd address line, please remove</t>
+  </si>
+  <si>
+    <t>Ask G: What data is stored in the BRED file?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G: What data is stored in the config file?Ask </t>
+  </si>
+  <si>
+    <t>Misunderstanding. Those are sub menu items, not another toolbar. Remove from Shell.</t>
+  </si>
+  <si>
+    <t>Make title bar font bigger by approx 20%</t>
+  </si>
+  <si>
+    <t>Make menu text bigger</t>
+  </si>
+  <si>
+    <t>Make toolbar taller with more space between menu and below.</t>
+  </si>
+  <si>
+    <t>Build (aka Inventory) and Inspection icons should both be present with some means of indicating what mode currently in, Inventory or Inspect.</t>
+  </si>
+  <si>
+    <t>Add system and Delete system icons. As we need to distinguish adding system from adding component from adding Section, I have created three simplistic placeholder PNG files to use as toolbar images. Same thing for delete.</t>
+  </si>
+  <si>
+    <t>S23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add space between Tabs</t>
+  </si>
+  <si>
+    <t>S23.2</t>
+  </si>
+  <si>
+    <t>Make selected tab colorful</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>Add Tab control</t>
+  </si>
+  <si>
+    <t>I-Detail</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>Add InventoryDetails View and ViewModel</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>Add Current Section label and a read only data label</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>Add Detail Selector caption and dropdown list combobox</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>Add green BG to Current Section and Detail Selector caption labels</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>ID7</t>
+  </si>
+  <si>
+    <t>ID8</t>
+  </si>
+  <si>
+    <t>Add Detail ID and Location label and data TextBox</t>
+  </si>
+  <si>
+    <t>Add Model and Serial Number label and data TextBox</t>
+  </si>
+  <si>
+    <t>Add Manufacturer label and data ComboBox</t>
+  </si>
+  <si>
+    <t>ID7.Q.1</t>
+  </si>
+  <si>
+    <t>Ask G: Pick list or can user type in a value?</t>
+  </si>
+  <si>
+    <t>Add Capacity label and data TextBox</t>
+  </si>
+  <si>
+    <t>ID9</t>
+  </si>
+  <si>
+    <t>Add Equipment Type label and data TextBox</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>Add Equip. Make and ComboBox</t>
+  </si>
+  <si>
+    <t>ID10.Q.1</t>
+  </si>
+  <si>
+    <t>ID11</t>
+  </si>
+  <si>
+    <t>Add Date Manufactured label and DatePicker</t>
+  </si>
+  <si>
+    <t>ID12</t>
+  </si>
+  <si>
+    <t>Add Year Installed and data TextBox</t>
+  </si>
+  <si>
+    <t>ID13</t>
+  </si>
+  <si>
+    <t>Add Control Type/Make label and data TextBox</t>
+  </si>
+  <si>
+    <t>ID14</t>
+  </si>
+  <si>
+    <t>Add Warranty Date label and DatePicker</t>
+  </si>
+  <si>
+    <t>ID15</t>
+  </si>
+  <si>
+    <t>Add Warranty Company and data TextBox</t>
+  </si>
+  <si>
+    <t>ID16</t>
+  </si>
+  <si>
+    <t>Add Warranty Date 2 label and DatePicker</t>
+  </si>
+  <si>
+    <t>ID17</t>
+  </si>
+  <si>
+    <t>Add Warranty Company 2 label and data TextBox</t>
+  </si>
+  <si>
+    <t>ID18</t>
+  </si>
+  <si>
+    <t>Add Detail Command image, blue background label and Comment field which is edited elsewhere</t>
+  </si>
+  <si>
+    <t>ID19</t>
+  </si>
+  <si>
+    <t>Add mocked Detail Photos image carousel</t>
+  </si>
+  <si>
+    <t>ID20</t>
+  </si>
+  <si>
+    <t>Add Cancel Edit, Delete Detail, Add Detail and Copy Detail image buttons</t>
+  </si>
+  <si>
+    <t>ID21</t>
+  </si>
+  <si>
+    <t>Relocate ID20's buttons so that all are on the same row</t>
+  </si>
+  <si>
+    <t>Inventory Details</t>
+  </si>
+  <si>
+    <t>ID22</t>
+  </si>
+  <si>
+    <t>Current Selection should be soft yellow, not gray</t>
+  </si>
+  <si>
+    <t>Inventory Section</t>
+  </si>
+  <si>
+    <t>IS25.FB</t>
+  </si>
+  <si>
+    <t>G: Green arrow next to Detail Selector is missing. Add it.</t>
+  </si>
+  <si>
+    <t>IS26.FB</t>
+  </si>
+  <si>
+    <t>G: The barcode image is actually a command button</t>
+  </si>
+  <si>
+    <t>IS26.FB.2</t>
+  </si>
+  <si>
+    <t>Ask G: what does the barcode button do?</t>
+  </si>
+  <si>
+    <t>IS27.FB</t>
+  </si>
+  <si>
+    <t>Comment section should be soft yellow</t>
+  </si>
+  <si>
+    <t>IS28.FB</t>
+  </si>
+  <si>
+    <t>Calendar DatePicker is too small. Can it be made larger?</t>
+  </si>
+  <si>
+    <t>IS29.FB</t>
+  </si>
+  <si>
+    <t>Put bottom four buttons all on a single row instead of two rows.</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>IN1</t>
+  </si>
+  <si>
+    <t>Add Inspection View and ViewModel</t>
+  </si>
+  <si>
+    <t>IN2</t>
+  </si>
+  <si>
+    <t>Add Component/Section label and remote edit data label</t>
+  </si>
+  <si>
+    <t>IN3</t>
+  </si>
+  <si>
+    <t>Add Equip Mat. Cat. Label and remote edit data label</t>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>Add Component Type label and remote edit data label</t>
+  </si>
+  <si>
+    <t>IN5</t>
+  </si>
+  <si>
+    <t>Add Section Quantity label, remote edit data label and MBH units label</t>
+  </si>
+  <si>
+    <t>IN6</t>
+  </si>
+  <si>
+    <t>Add Inspection Date label and DatePicker</t>
+  </si>
+  <si>
+    <t>IN7</t>
+  </si>
+  <si>
+    <t>IN7.1</t>
+  </si>
+  <si>
+    <t>Direct rating is default. Distress Survey is disabled</t>
+  </si>
+  <si>
+    <t>Add Inspection Type label and radio buttons Direct Rating and Distress Survey</t>
+  </si>
+  <si>
+    <t>IN8</t>
+  </si>
+  <si>
+    <t>Add Painted/Coded label and checkbox</t>
+  </si>
+  <si>
+    <t>IN9</t>
+  </si>
+  <si>
+    <t>Add Direct Condition Rating and button grid</t>
+  </si>
+  <si>
+    <t>IN10</t>
+  </si>
+  <si>
+    <t>Add Paint/Coating Condition Rating label and button grid over blue background</t>
+  </si>
+  <si>
+    <t>IN11</t>
+  </si>
+  <si>
+    <t>Add Note: Inspection etc label</t>
+  </si>
+  <si>
+    <t>IN12</t>
+  </si>
+  <si>
+    <t>Add Inspection Comment caption/image over blue BG and multiline editable TextBox</t>
+  </si>
+  <si>
+    <t>IN13</t>
+  </si>
+  <si>
+    <t>Add Remember checkbox/image over blue background</t>
+  </si>
+  <si>
+    <t>IN14</t>
+  </si>
+  <si>
+    <t>Add Inspection Photos/image/Qty over blue background plus mock image carousel</t>
+  </si>
+  <si>
+    <t>IN15</t>
+  </si>
+  <si>
+    <t>Add Cancel Edit and Delete Inspection image buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First four rows of text boxes </t>
+  </si>
+  <si>
+    <t>IN16.FB</t>
+  </si>
+  <si>
+    <t>soft yellow bg</t>
+  </si>
+  <si>
+    <t>some spacing like you have done on say Facility tab</t>
+  </si>
+  <si>
+    <t>IN16.FB.2</t>
+  </si>
+  <si>
+    <t>IN16.FB.3</t>
+  </si>
+  <si>
+    <t>IN17.FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection type:  disable Distress Survey radio button </t>
+  </si>
+  <si>
+    <t>IN18.FB</t>
+  </si>
+  <si>
+    <t>Change text on grid buttons to agree with their captions</t>
+  </si>
+  <si>
+    <t>IN19.FB</t>
+  </si>
+  <si>
+    <t>Once one of the grid buttons has been selected, make its FG black, BG named color and change all other buttons to White over blue</t>
+  </si>
+  <si>
+    <t>QA Inspection</t>
+  </si>
+  <si>
+    <t>Add QA View and ViewModel classes</t>
+  </si>
+  <si>
+    <t>Add buttons</t>
+  </si>
+  <si>
+    <t>Add data grid</t>
+  </si>
+  <si>
+    <t>Change QC-Inspection to QA-Inspection</t>
+  </si>
+  <si>
+    <t>QI</t>
+  </si>
+  <si>
+    <t>QI1</t>
+  </si>
+  <si>
+    <t>QI2</t>
+  </si>
+  <si>
+    <t>QI3</t>
+  </si>
+  <si>
+    <t>QI4.FB</t>
+  </si>
+  <si>
+    <t>QV</t>
+  </si>
+  <si>
+    <t>QA Inventory</t>
+  </si>
+  <si>
+    <t>QV1</t>
+  </si>
+  <si>
+    <t>QV2</t>
+  </si>
+  <si>
+    <t>QV3</t>
+  </si>
+  <si>
+    <t>Add QA Inventory View and ViewModel classes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GD: 
+Filtering will exist, but is outside of Mockup scope (because it requires reading project configuration data)
+Treeview nodes display depends on the mode the user is in: 
+     Inventory (tree) Mode (default) or 
+     Inspection (tree) Mode    (these are the two left-most icons on toolbar)
+For details see spreadsheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BDC Treeview details_S10.Q1.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>S18.FB.2</t>
+  </si>
+  <si>
+    <t>G: Let's move the BRED file name to the Status bar on the bottom instead. Make status bar two rows? Increase the font size of the status bar for both rows.</t>
+  </si>
+  <si>
+    <t>S22.FB.2</t>
+  </si>
+  <si>
+    <t>G: Clicking the Sys+ button is to bring up what yo see on the Sys+ tab in the wireframe. For Sys-, simpley create function place holder and display placeholder dialog: "Do you want to delete the currently selected System for Facility ####?"</t>
+  </si>
+  <si>
+    <t>B1.Q</t>
+  </si>
+  <si>
+    <t>B1.Q2</t>
+  </si>
+  <si>
+    <t>GD: Trigger a File Open dialog. File type: XLSX, Caption: "Select Bluebeam Excel file (placeholder)" OK/Cancel buttons. Nothing is expected to happen in the mockup regardless what spreadsheet the user may/may not select. FYI only: In prototype stage, we will read data in spreadsheet and present as text in the window that you can see in the wireframe, Main tab, Cells M8- S27.</t>
+  </si>
+  <si>
+    <t>IS4.Q1.1</t>
+  </si>
+  <si>
+    <t>GD: If current selected node in treeview has System starting with D or E then 'Equiment Category', all others 'Material Category'.</t>
+  </si>
+  <si>
+    <t>IS22.FB.2</t>
+  </si>
+  <si>
+    <t>GD: If there is more than a single section (named N/A) then the user will be able to pick which section to view/edit. NO functionality in Mockup expected. That is for Prototype stage. So for Section, the CAN select from already-existing section names for the current facility OR type in a new Section anme. ComboBox needed. Please do note the Gree Arrow that is a button that the user can tap for quickly cycling through existing sections. In prototype we will suppres that arrow if tehere is only 1 section. The Ma/Equip category is a picklist only. No ability to type in text. FYI: Will present options given the current cComponent type. The Component Tye is also a pickly only. FYI: will present options given the mat/equp category selection in picklist aboce.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,6 +1640,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1231,7 +1681,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1239,11 +1689,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1258,6 +1734,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:E210"/>
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,1417 +2095,1207 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>255</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>316</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>331</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>180</v>
+      <c r="B9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>182</v>
+      <c r="A10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>247</v>
+      <c r="B36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>255</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E38" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
+      <c r="A41" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>52</v>
+      <c r="B43" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E44" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E45" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" t="s">
-        <v>192</v>
+        <v>257</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E48" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E54" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="5">
-        <v>43554</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="5"/>
+      <c r="A57" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>7</v>
+      <c r="A58" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
+      <c r="B61" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4" t="s">
-        <v>63</v>
+      <c r="A62" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>246</v>
+        <v>7</v>
+      </c>
+      <c r="E62" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4" t="s">
+      <c r="C72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="C73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4" t="s">
+      <c r="C75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>85</v>
+        <v>351</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>87</v>
+        <v>352</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4" t="s">
-        <v>166</v>
+      <c r="E79" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E80" s="5">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="2" t="s">
-        <v>257</v>
+        <v>343</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
+      </c>
+      <c r="E81" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C82" t="s">
+        <v>344</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="5">
+        <v>43557</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>205</v>
+        <v>347</v>
+      </c>
+      <c r="C83" t="s">
+        <v>346</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="5">
-        <v>43554</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>261</v>
+        <v>348</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="E84" s="5">
-        <v>43554</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E85" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>267</v>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>269</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E90" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E92" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>282</v>
+        <v>367</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>89</v>
+        <v>378</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>185</v>
+        <v>389</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>108</v>
+        <v>406</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>112</v>
+        <v>410</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>113</v>
+        <v>412</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>114</v>
+        <v>415</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="C118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="C119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="C120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>137</v>
+      <c r="B121" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>122</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>128</v>
+        <v>500</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E135" s="5">
-        <v>43555</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E137" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>236</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>273</v>
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>269</v>
+        <v>7</v>
       </c>
       <c r="E143" s="5">
         <v>43555</v>
@@ -3018,123 +3303,113 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E144" s="5">
-        <v>43537</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="E145" s="5">
-        <v>43537</v>
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
-        <v>289</v>
+      <c r="A148" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="5">
-        <v>43555</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E150" s="5">
-        <v>43555</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>295</v>
+        <v>422</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>269</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>298</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>299</v>
+      <c r="B156" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="5">
-        <v>43555</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>319</v>
+        <v>432</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>293</v>
+        <v>433</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>7</v>
@@ -3145,42 +3420,80 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>320</v>
+        <v>434</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>301</v>
+        <v>435</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>321</v>
+        <v>436</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>303</v>
+        <v>437</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>380</v>
+        <v>439</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="1" t="s">
-        <v>304</v>
+      <c r="A162" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>377</v>
+        <v>443</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>305</v>
+        <v>444</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>7</v>
@@ -3191,379 +3504,1297 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>309</v>
+        <v>446</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>307</v>
+        <v>448</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>308</v>
+        <v>449</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>311</v>
+        <v>451</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>312</v>
+        <v>452</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>313</v>
+        <v>453</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>315</v>
+        <v>455</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>316</v>
+        <v>456</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>317</v>
+        <v>457</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>365</v>
+        <v>459</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>322</v>
+      <c r="A172" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>318</v>
+        <v>463</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>323</v>
+        <v>465</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="5">
-        <v>43555</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>324</v>
+        <v>468</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>325</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="C176" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>330</v>
+        <v>472</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>332</v>
+        <v>474</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>368</v>
+        <v>6</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B204" s="3"/>
+      <c r="C204" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C210" t="s">
+        <v>166</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E211" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E215" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E216" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E217" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C226" s="7"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C227" s="7"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C232" s="7"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C233" s="7"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D257" s="12"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E265" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E271" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E273" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E274" s="5"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E276" s="5"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="5">
+      <c r="E277" s="5"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" s="5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E284" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>365</v>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E285" s="5">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E286" s="5">
+        <v>43537</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C257:D257"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730C7D1-86C3-4C2D-8F61-B96F8FD73B45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C5256-8B31-46B2-A3BE-8EBA26B8289B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33840" yWindow="4140" windowWidth="23205" windowHeight="23535" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="31635" yWindow="15810" windowWidth="23205" windowHeight="16020" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="509">
   <si>
     <t>ID</t>
   </si>
@@ -1309,21 +1309,12 @@
     <t>Add Cancel Edit, Delete Detail, Add Detail and Copy Detail image buttons</t>
   </si>
   <si>
-    <t>ID21</t>
-  </si>
-  <si>
     <t>Relocate ID20's buttons so that all are on the same row</t>
   </si>
   <si>
     <t>Inventory Details</t>
   </si>
   <si>
-    <t>ID22</t>
-  </si>
-  <si>
-    <t>Current Selection should be soft yellow, not gray</t>
-  </si>
-  <si>
     <t>Inventory Section</t>
   </si>
   <si>
@@ -1358,9 +1349,6 @@
   </si>
   <si>
     <t>IS29.FB</t>
-  </si>
-  <si>
-    <t>Put bottom four buttons all on a single row instead of two rows.</t>
   </si>
   <si>
     <t>IN</t>
@@ -1610,12 +1598,51 @@
   <si>
     <t>GD: If there is more than a single section (named N/A) then the user will be able to pick which section to view/edit. NO functionality in Mockup expected. That is for Prototype stage. So for Section, the CAN select from already-existing section names for the current facility OR type in a new Section anme. ComboBox needed. Please do note the Gree Arrow that is a button that the user can tap for quickly cycling through existing sections. In prototype we will suppres that arrow if tehere is only 1 section. The Ma/Equip category is a picklist only. No ability to type in text. FYI: Will present options given the current cComponent type. The Component Tye is also a pickly only. FYI: will present options given the mat/equp category selection in picklist aboce.</t>
   </si>
+  <si>
+    <t>IS30</t>
+  </si>
+  <si>
+    <t>Ask G: Need an image for 'down button'.</t>
+  </si>
+  <si>
+    <t>DOne</t>
+  </si>
+  <si>
+    <t>ID20.FB</t>
+  </si>
+  <si>
+    <t>Section Comment should be soft yellow, not gray</t>
+  </si>
+  <si>
+    <t>Detail Comment should be soft yellow, not gray</t>
+  </si>
+  <si>
+    <t>ID21.FB</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <r>
+      <t>Bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Width, Depth and Floor Height should be editable but are not.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,6 +1699,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1719,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1737,9 +1771,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1753,6 +1784,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2067,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2299,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>88</v>
@@ -2278,10 +2313,10 @@
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2801,7 +2836,7 @@
       <c r="A81" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>342</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -2843,312 +2878,397 @@
       <c r="A84" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>349</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E84" s="5">
-        <v>43557</v>
-      </c>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="8"/>
+      <c r="A85" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="D97" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="D98" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="D100" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="D101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C102" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C107" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C108" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C109" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C110" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C111" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C112" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C113" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C114" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="D114" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C115" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="D115" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C116" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="5">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>116</v>
       </c>
@@ -3159,20 +3279,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>118</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3182,6 +3305,9 @@
       <c r="C129" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -3190,6 +3316,9 @@
       <c r="C130" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -3198,6 +3327,9 @@
       <c r="C131" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3206,6 +3338,9 @@
       <c r="C132" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -3214,6 +3349,9 @@
       <c r="C133" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -3222,6 +3360,9 @@
       <c r="C134" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -3230,6 +3371,9 @@
       <c r="C135" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -3238,6 +3382,9 @@
       <c r="C136" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -3246,6 +3393,9 @@
       <c r="C137" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="D137" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -3254,6 +3404,9 @@
       <c r="C138" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="D138" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -3262,6 +3415,9 @@
       <c r="C139" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -3270,6 +3426,9 @@
       <c r="C140" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -3278,6 +3437,9 @@
       <c r="C141" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -3286,6 +3448,9 @@
       <c r="C142" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -3325,10 +3490,10 @@
     </row>
     <row r="146" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E146" s="5"/>
     </row>
@@ -3350,80 +3515,92 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="5">
+        <v>43558</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="5">
+        <v>43558</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>431</v>
+        <v>504</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>432</v>
+      <c r="B157" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="5">
-        <v>43555</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>7</v>
@@ -3434,10 +3611,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>7</v>
@@ -3448,10 +3625,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>7</v>
@@ -3462,10 +3639,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>7</v>
@@ -3476,10 +3653,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>7</v>
@@ -3490,10 +3667,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>7</v>
@@ -3504,10 +3681,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>7</v>
@@ -3518,10 +3695,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>7</v>
@@ -3532,10 +3709,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>7</v>
@@ -3546,10 +3723,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>7</v>
@@ -3560,10 +3737,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>7</v>
@@ -3574,10 +3751,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>7</v>
@@ -3588,10 +3765,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>7</v>
@@ -3602,10 +3779,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>7</v>
@@ -3616,10 +3793,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>7</v>
@@ -3630,83 +3807,86 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C176" t="s">
-        <v>471</v>
+        <v>465</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="C177" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="D181" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>7</v>
@@ -3714,10 +3894,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>7</v>
@@ -3725,10 +3905,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>7</v>
@@ -3736,10 +3916,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>7</v>
@@ -3747,10 +3927,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>7</v>
@@ -3758,10 +3938,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>7</v>
@@ -3769,10 +3949,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>7</v>
@@ -3780,10 +3960,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>7</v>
@@ -3791,10 +3971,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>7</v>
@@ -3802,10 +3982,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>7</v>
@@ -3813,46 +3993,46 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="4" t="s">
+      <c r="B194" s="3"/>
+      <c r="C194" s="4" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>7</v>
@@ -3860,10 +4040,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>7</v>
@@ -3871,10 +4051,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>7</v>
@@ -3882,10 +4062,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>7</v>
@@ -3893,29 +4073,29 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>7</v>
@@ -3923,44 +4103,44 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="D204" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="4" t="s">
+      <c r="B205" s="3"/>
+      <c r="C205" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D205" s="2" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>7</v>
@@ -3968,10 +4148,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>7</v>
@@ -3979,10 +4159,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>7</v>
@@ -3990,63 +4170,60 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="D210" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>166</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D211" s="2" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E211" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E212" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>7</v>
@@ -4057,10 +4234,10 @@
     </row>
     <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>7</v>
@@ -4071,13 +4248,13 @@
     </row>
     <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="E215" s="5">
         <v>43554</v>
@@ -4085,10 +4262,13 @@
     </row>
     <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>221</v>
+        <v>170</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E216" s="5">
         <v>43554</v>
@@ -4096,13 +4276,10 @@
     </row>
     <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E217" s="5">
         <v>43554</v>
@@ -4110,58 +4287,58 @@
     </row>
     <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E218" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>476</v>
-      </c>
+      <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C222" s="7" t="s">
+      <c r="B222" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E222" s="5">
-        <v>43555</v>
+      <c r="C222" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C223" s="7" t="s">
         <v>478</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>7</v>
@@ -4172,10 +4349,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C224" s="7" t="s">
         <v>479</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>7</v>
@@ -4186,46 +4363,40 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C225" s="7" t="s">
         <v>480</v>
       </c>
+      <c r="C225" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C226" s="7"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C227" s="7"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>487</v>
+      <c r="A226" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E229" s="5">
-        <v>43555</v>
+      <c r="B229" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>7</v>
@@ -4236,10 +4407,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>7</v>
@@ -4249,101 +4420,98 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C232" s="7"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C233" s="7"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E234" s="5"/>
+      <c r="A232" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>294</v>
+        <v>255</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B243" s="1" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>7</v>
@@ -4351,50 +4519,50 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B247" s="3"/>
-      <c r="C247" s="4" t="s">
-        <v>354</v>
+      <c r="D247" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B249" s="3"/>
+      <c r="C249" s="4" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>7</v>
@@ -4402,10 +4570,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>7</v>
@@ -4413,10 +4581,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>7</v>
@@ -4424,10 +4592,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>7</v>
@@ -4435,10 +4603,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>7</v>
@@ -4446,52 +4614,52 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="D256" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="6" t="s">
+      <c r="B257" s="3"/>
+      <c r="C257" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
-      <c r="C257" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D257" s="12"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D257" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D258" s="11"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>7</v>
@@ -4499,10 +4667,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>7</v>
@@ -4510,10 +4678,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>7</v>
@@ -4521,10 +4689,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>7</v>
@@ -4532,24 +4700,21 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>356</v>
+        <v>85</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E263" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>7</v>
@@ -4560,57 +4725,57 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>357</v>
+        <v>219</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="E265" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>224</v>
+        <v>357</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E266" s="5">
+        <v>43554</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268" s="5">
-        <v>43554</v>
+        <v>489</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>7</v>
@@ -4619,109 +4784,109 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C271" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D271" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C272" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D272" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E271" s="5">
+      <c r="E272" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C273" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C274" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E273" s="5">
+      <c r="E274" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E274" s="5"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>238</v>
+        <v>491</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="E275" s="5"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>363</v>
+        <v>238</v>
       </c>
       <c r="E276" s="5"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E277" s="5"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>239</v>
+        <v>364</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E278" s="5">
-        <v>43555</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E278" s="5"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>7</v>
@@ -4730,59 +4895,59 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B282" s="1" t="s">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D283" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E283" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="E284" s="5">
-        <v>43555</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E285" s="5">
-        <v>43537</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>225</v>
@@ -4791,9 +4956,23 @@
         <v>43537</v>
       </c>
     </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E287" s="5">
+        <v>43537</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C5256-8B31-46B2-A3BE-8EBA26B8289B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA971637-C098-489A-AA2B-735B5F505FE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="15810" windowWidth="23205" windowHeight="16020" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="30225" yWindow="14715" windowWidth="23205" windowHeight="16020" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="514">
   <si>
     <t>ID</t>
   </si>
@@ -687,9 +687,6 @@
   </si>
   <si>
     <t>Addressed</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>L28.FB.1</t>
@@ -1637,12 +1634,30 @@
       <t>: Width, Depth and Floor Height should be editable but are not.</t>
     </r>
   </si>
+  <si>
+    <t>Last Activity</t>
+  </si>
+  <si>
+    <t>Fixe</t>
+  </si>
+  <si>
+    <t>S23.2.1</t>
+  </si>
+  <si>
+    <t>Not happy with color. Needs more work</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>Wireframe shows tabs as a series of different blue shades.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1699,13 +1714,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1753,7 +1761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1784,10 +1792,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2102,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,23 +2134,23 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -2157,10 +2161,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -2171,34 +2175,34 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -2209,10 +2213,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -2223,18 +2227,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,7 +2246,7 @@
         <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,6 +2256,9 @@
       <c r="C16" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2260,6 +2267,9 @@
       <c r="C17" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2268,6 +2278,9 @@
       <c r="C18" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2276,6 +2289,9 @@
       <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2283,6 +2299,9 @@
       </c>
       <c r="C20" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,7 +2318,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>88</v>
@@ -2313,26 +2332,26 @@
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
@@ -2343,74 +2362,110 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>263</v>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>266</v>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>268</v>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>270</v>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>272</v>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -2421,10 +2476,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>7</v>
@@ -2435,42 +2490,42 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>7</v>
@@ -2481,10 +2536,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>7</v>
@@ -2495,45 +2550,45 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -2544,74 +2599,74 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
@@ -2622,10 +2677,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>7</v>
@@ -2636,10 +2691,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
@@ -2650,26 +2705,26 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,7 +2794,7 @@
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>7</v>
@@ -2781,7 +2836,7 @@
         <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>7</v>
@@ -2795,7 +2850,7 @@
         <v>188</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>7</v>
@@ -2809,7 +2864,7 @@
         <v>189</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
@@ -2823,7 +2878,7 @@
         <v>190</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>7</v>
@@ -2834,10 +2889,10 @@
     </row>
     <row r="81" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>7</v>
@@ -2848,10 +2903,10 @@
     </row>
     <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>7</v>
@@ -2862,10 +2917,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -2876,27 +2931,29 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>349</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C85" t="s">
         <v>507</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>508</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E85" s="5"/>
+        <v>509</v>
+      </c>
+      <c r="E85" s="5">
+        <v>43558</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
@@ -2906,7 +2963,7 @@
         <v>185</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2935,10 +2992,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>7</v>
@@ -2946,18 +3003,18 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>7</v>
@@ -2965,10 +3022,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>7</v>
@@ -2976,10 +3033,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>7</v>
@@ -2987,10 +3044,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>7</v>
@@ -2998,10 +3055,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>7</v>
@@ -3009,10 +3066,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>7</v>
@@ -3020,10 +3077,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>7</v>
@@ -3031,18 +3088,18 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>7</v>
@@ -3050,10 +3107,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>7</v>
@@ -3061,10 +3118,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>7</v>
@@ -3072,18 +3129,18 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>7</v>
@@ -3091,10 +3148,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>7</v>
@@ -3102,10 +3159,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>7</v>
@@ -3113,10 +3170,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>7</v>
@@ -3124,10 +3181,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>7</v>
@@ -3135,10 +3192,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>7</v>
@@ -3146,10 +3203,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>7</v>
@@ -3157,10 +3214,10 @@
     </row>
     <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>7</v>
@@ -3168,10 +3225,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>7</v>
@@ -3179,10 +3236,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>7</v>
@@ -3190,10 +3247,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>7</v>
@@ -3204,10 +3261,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>7</v>
@@ -3221,7 +3278,7 @@
         <v>108</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3281,10 +3338,10 @@
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,7 +3396,7 @@
         <v>122</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3482,7 +3539,7 @@
         <v>196</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E145" s="5">
         <v>43555</v>
@@ -3490,10 +3547,10 @@
     </row>
     <row r="146" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="E146" s="5"/>
     </row>
@@ -3515,10 +3572,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>7</v>
@@ -3529,26 +3586,26 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>7</v>
@@ -3559,18 +3616,18 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>7</v>
@@ -3581,26 +3638,26 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>7</v>
@@ -3611,10 +3668,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>7</v>
@@ -3625,10 +3682,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>7</v>
@@ -3639,10 +3696,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>7</v>
@@ -3653,10 +3710,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>7</v>
@@ -3667,10 +3724,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>7</v>
@@ -3681,10 +3738,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>7</v>
@@ -3695,10 +3752,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>7</v>
@@ -3709,10 +3766,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>7</v>
@@ -3723,10 +3780,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>7</v>
@@ -3737,10 +3794,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>7</v>
@@ -3751,10 +3808,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>7</v>
@@ -3765,10 +3822,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>7</v>
@@ -3779,10 +3836,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>7</v>
@@ -3793,10 +3850,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>7</v>
@@ -3807,10 +3864,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>7</v>
@@ -3821,50 +3878,50 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C177" t="s">
         <v>466</v>
-      </c>
-      <c r="C177" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4024,7 +4081,7 @@
         <v>205</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,10 +4277,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>7</v>
@@ -4279,7 +4336,7 @@
         <v>209</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E217" s="5">
         <v>43554</v>
@@ -4304,7 +4361,7 @@
         <v>211</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>7</v>
@@ -4327,18 +4384,18 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>7</v>
@@ -4349,10 +4406,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>7</v>
@@ -4363,10 +4420,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>7</v>
@@ -4377,26 +4434,26 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>7</v>
@@ -4407,10 +4464,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>7</v>
@@ -4421,10 +4478,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>7</v>
@@ -4438,18 +4495,18 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>7</v>
@@ -4460,42 +4517,42 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,7 +4560,7 @@
         <v>56</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,7 +4602,7 @@
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,7 +4611,7 @@
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4640,7 +4697,7 @@
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>7</v>
@@ -4650,7 +4707,7 @@
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D258" s="11"/>
     </row>
@@ -4714,7 +4771,7 @@
         <v>178</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>7</v>
@@ -4725,10 +4782,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>7</v>
@@ -4742,10 +4799,10 @@
         <v>180</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E266" s="5">
         <v>43554</v>
@@ -4753,21 +4810,21 @@
     </row>
     <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D267" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,7 +4832,7 @@
         <v>181</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>7</v>
@@ -4789,7 +4846,7 @@
         <v>182</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>7</v>
@@ -4803,21 +4860,21 @@
         <v>183</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="D272" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E272" s="5">
         <v>43554</v>
@@ -4828,18 +4885,18 @@
         <v>184</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E274" s="5">
         <v>43554</v>
@@ -4847,60 +4904,65 @@
     </row>
     <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="E275" s="5"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E276" s="5"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E277" s="5"/>
+      <c r="D277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="5">
+        <v>43559</v>
+      </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="E278" s="5"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>7</v>
+        <v>510</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="E279" s="5">
-        <v>43555</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>7</v>
@@ -4909,64 +4971,92 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="1" t="s">
-        <v>228</v>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E282" s="5">
+        <v>43559</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E284" s="5">
-        <v>43554</v>
+      <c r="B284" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="D285" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="E285" s="5">
-        <v>43555</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E286" s="5">
-        <v>43537</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E287" s="5">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E288" s="5">
         <v>43537</v>
       </c>
     </row>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA971637-C098-489A-AA2B-735B5F505FE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750A22D-6414-4ABA-B569-2D30F97EFF06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30225" yWindow="14715" windowWidth="23205" windowHeight="16020" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="23205" windowHeight="12180" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="612">
   <si>
     <t>ID</t>
   </si>
@@ -1315,19 +1315,10 @@
     <t>Inventory Section</t>
   </si>
   <si>
-    <t>IS25.FB</t>
-  </si>
-  <si>
     <t>G: Green arrow next to Detail Selector is missing. Add it.</t>
   </si>
   <si>
-    <t>IS26.FB</t>
-  </si>
-  <si>
     <t>G: The barcode image is actually a command button</t>
-  </si>
-  <si>
-    <t>IS26.FB.2</t>
   </si>
   <si>
     <t>Ask G: what does the barcode button do?</t>
@@ -1599,9 +1590,6 @@
     <t>IS30</t>
   </si>
   <si>
-    <t>Ask G: Need an image for 'down button'.</t>
-  </si>
-  <si>
     <t>DOne</t>
   </si>
   <si>
@@ -1638,9 +1626,6 @@
     <t>Last Activity</t>
   </si>
   <si>
-    <t>Fixe</t>
-  </si>
-  <si>
     <t>S23.2.1</t>
   </si>
   <si>
@@ -1651,6 +1636,315 @@
   </si>
   <si>
     <t>Wireframe shows tabs as a series of different blue shades.</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>Add color to Tab control</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Ask G: Barcode button launches a barcode reader. Where is this reader?</t>
+  </si>
+  <si>
+    <t>ID22.FB</t>
+  </si>
+  <si>
+    <t>ID23.FB</t>
+  </si>
+  <si>
+    <t>ID23.FB.2</t>
+  </si>
+  <si>
+    <t>ID23.FB.3</t>
+  </si>
+  <si>
+    <t>Ask G: Need an image for 'green down button'.</t>
+  </si>
+  <si>
+    <t>IS31</t>
+  </si>
+  <si>
+    <t>Component Type:' is misspelled.</t>
+  </si>
+  <si>
+    <t>IS32</t>
+  </si>
+  <si>
+    <t>Ask G: What do the green + and red - do? Inc/Dec Quantity by 1?</t>
+  </si>
+  <si>
+    <t>IS33</t>
+  </si>
+  <si>
+    <t>Ask G: What do the GSF, Footprint and Perimeter buttons do? Change the value in the Qualtity edit?</t>
+  </si>
+  <si>
+    <t>IS34</t>
+  </si>
+  <si>
+    <t>Year Installed edit should be Yellow if Extimated clicked</t>
+  </si>
+  <si>
+    <t>IS35</t>
+  </si>
+  <si>
+    <t>Ask G: Wireframe has a gray background over the Year P/C items. Should this be reflected in the app?</t>
+  </si>
+  <si>
+    <t>IS36</t>
+  </si>
+  <si>
+    <t>When Section Comment button is clicked show Add/Edit/Delete Comment box</t>
+  </si>
+  <si>
+    <t>IS37</t>
+  </si>
+  <si>
+    <t>Comment section should be Read Only. No editing allowed.</t>
+  </si>
+  <si>
+    <t>IS38</t>
+  </si>
+  <si>
+    <t>Click on Section Photo(s) button displays photo editing box.</t>
+  </si>
+  <si>
+    <t>IS39</t>
+  </si>
+  <si>
+    <t>Add green background to 'Add current inspector' row.</t>
+  </si>
+  <si>
+    <t>IS40</t>
+  </si>
+  <si>
+    <t>Add Gray background to P/C Rating cells</t>
+  </si>
+  <si>
+    <t>IS41</t>
+  </si>
+  <si>
+    <t>P/c Rating cells only visible if Painted/Coated checkbox is checked</t>
+  </si>
+  <si>
+    <t>IS42</t>
+  </si>
+  <si>
+    <t>Make bottom buttons look like WireFrame's.</t>
+  </si>
+  <si>
+    <t>ID24</t>
+  </si>
+  <si>
+    <t>Ask G: What is the (#)?</t>
+  </si>
+  <si>
+    <t>ID25</t>
+  </si>
+  <si>
+    <t>Curent Section and Detail Selector cells are supposed to have a green background.</t>
+  </si>
+  <si>
+    <t>ID26</t>
+  </si>
+  <si>
+    <t>Add green down button to Current Selector.</t>
+  </si>
+  <si>
+    <t>ID27</t>
+  </si>
+  <si>
+    <t>Click on green down button increments through the list in the associated combo.</t>
+  </si>
+  <si>
+    <t>ID28</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>DatePicker's vertical text alignment is Top. Can it be changed to Center?</t>
+  </si>
+  <si>
+    <t>Bug: Warr. Company 2: doesn't have a 2.</t>
+  </si>
+  <si>
+    <t>ID29</t>
+  </si>
+  <si>
+    <t>Detail Comment button should bring up Add/Edit/Delete comment box when clicked.</t>
+  </si>
+  <si>
+    <t>ID30</t>
+  </si>
+  <si>
+    <t>Comment should be Read Only.</t>
+  </si>
+  <si>
+    <t>ID31</t>
+  </si>
+  <si>
+    <t>Click on Detail Photos button should bring up photo adder/editor box.</t>
+  </si>
+  <si>
+    <t>ID32</t>
+  </si>
+  <si>
+    <t>Make bottom buttons look like wireframe's.</t>
+  </si>
+  <si>
+    <t>IN20</t>
+  </si>
+  <si>
+    <t>Ask G: Wireframe shows many fields as a light orange instead of gray. What is the significance of this color?</t>
+  </si>
+  <si>
+    <t>IN21</t>
+  </si>
+  <si>
+    <t>Inspection Date is a little on the narrow side. Make a little wider.</t>
+  </si>
+  <si>
+    <t>IN22</t>
+  </si>
+  <si>
+    <t>Radio button Distress Survey should be grayed/disabled.</t>
+  </si>
+  <si>
+    <t>IN23</t>
+  </si>
+  <si>
+    <t>Painted/Coated checkbox is hard to click on with a finger because it has no caption. Fix that.</t>
+  </si>
+  <si>
+    <t>IN24</t>
+  </si>
+  <si>
+    <t>Blue color under the right button group is not the client requested color. Fix that.</t>
+  </si>
+  <si>
+    <t>IN25</t>
+  </si>
+  <si>
+    <t>Clicking on Comment button should display the add/edit/delete comment box.</t>
+  </si>
+  <si>
+    <t>IN26</t>
+  </si>
+  <si>
+    <t>No example text in comment box.</t>
+  </si>
+  <si>
+    <t>IN27</t>
+  </si>
+  <si>
+    <t>Comment box should be Read Only.</t>
+  </si>
+  <si>
+    <t>IN28</t>
+  </si>
+  <si>
+    <t>Photos row is way too tall. Fix that.</t>
+  </si>
+  <si>
+    <t>IN29</t>
+  </si>
+  <si>
+    <t>Add sample photos to photo carousel</t>
+  </si>
+  <si>
+    <t>Toolbar button row too tall.</t>
+  </si>
+  <si>
+    <t>QV4</t>
+  </si>
+  <si>
+    <t>Ask G: Filter item is orange on the wireframe, not gray. Is this significant?</t>
+  </si>
+  <si>
+    <t>QV5</t>
+  </si>
+  <si>
+    <t>QV6</t>
+  </si>
+  <si>
+    <t>Currently active filter should show as green</t>
+  </si>
+  <si>
+    <t>QV7</t>
+  </si>
+  <si>
+    <t>Clicking on column header should sort the rows using that column's filter.</t>
+  </si>
+  <si>
+    <t>Bug: Filter and column header text in two separate rows. Fix</t>
+  </si>
+  <si>
+    <t>QV8</t>
+  </si>
+  <si>
+    <t>View's width is much larger than other Views. Is this necessary? If not, fix.</t>
+  </si>
+  <si>
+    <t>QV9</t>
+  </si>
+  <si>
+    <t>The 'Inventory Issue' filter works in a similar fashion to a 'like' predicate.</t>
+  </si>
+  <si>
+    <t>QV10</t>
+  </si>
+  <si>
+    <t>The 'Inventory Issue' column is misnamed 'InspectionComment Issue'. Fix.</t>
+  </si>
+  <si>
+    <t>QI15</t>
+  </si>
+  <si>
+    <t>Bug: No toolbar on the View.</t>
+  </si>
+  <si>
+    <t>QI16</t>
+  </si>
+  <si>
+    <t>Filter and column name are on two separate rows. Fix.</t>
+  </si>
+  <si>
+    <t>QI17</t>
+  </si>
+  <si>
+    <t>The displayed columns do not agree with the Wireframe's column names.</t>
+  </si>
+  <si>
+    <t>CM6</t>
+  </si>
+  <si>
+    <t>Update the Title depending upon what comment is being updated</t>
+  </si>
+  <si>
+    <t>CM7</t>
+  </si>
+  <si>
+    <t>Ask G: Where does &lt;IDENTIFIER CONTINUEED&gt; come from?</t>
+  </si>
+  <si>
+    <t>CM8</t>
+  </si>
+  <si>
+    <t>Ask G: How does Delete work? What triggers a delete of the current comment?</t>
+  </si>
+  <si>
+    <t>CM9</t>
+  </si>
+  <si>
+    <t>Ask G: What is 'auto stamping'?</t>
   </si>
 </sst>
 </file>
@@ -1715,12 +2009,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1761,7 +2061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1785,11 +2085,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2106,10 +2421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,7 +2616,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2318,7 +2633,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>88</v>
@@ -2332,10 +2647,10 @@
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,7 +2879,7 @@
         <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>224</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2575,781 +2890,728 @@
         <v>319</v>
       </c>
     </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>272</v>
+      <c r="A50" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="5">
-        <v>43555</v>
+        <v>608</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="5">
-        <v>43555</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="5">
-        <v>43555</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="5">
-        <v>43555</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C67" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>300</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="5">
-        <v>43553</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="5">
-        <v>43553</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>159</v>
+        <v>305</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="5">
-        <v>43553</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="5">
-        <v>43553</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="5">
-        <v>43553</v>
+      <c r="A74" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>320</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="5">
-        <v>43553</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="5">
-        <v>43553</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="5">
-        <v>43555</v>
+      <c r="B77" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>350</v>
+        <v>91</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="5">
-        <v>43557</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="5">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>341</v>
+        <v>160</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C82" t="s">
-        <v>343</v>
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="5">
-        <v>43557</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C83" t="s">
-        <v>345</v>
+        <v>161</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="5">
-        <v>43557</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>348</v>
+        <v>162</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E84" s="5">
+        <v>43553</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C85" t="s">
-        <v>507</v>
+        <v>179</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>509</v>
+        <v>7</v>
       </c>
       <c r="E85" s="5">
-        <v>43558</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>185</v>
+      <c r="A86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>104</v>
+        <v>352</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="5">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C90" t="s">
+        <v>343</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="5">
+        <v>43557</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>105</v>
+        <v>346</v>
+      </c>
+      <c r="C91" t="s">
+        <v>345</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E91" s="5">
+        <v>43557</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C93" t="s">
+        <v>503</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E93" s="5">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="5">
+        <v>41370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="D115" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="D119" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="D122" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="5">
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>7</v>
@@ -3357,475 +3619,390 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>498</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>119</v>
+        <v>411</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E129" s="5">
+        <v>43558</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E130" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>514</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>121</v>
+        <v>414</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E131" s="5">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>515</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>123</v>
+        <v>516</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>416</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>124</v>
+        <v>517</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>513</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>7</v>
+        <v>543</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>545</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>7</v>
+        <v>546</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>547</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>549</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>551</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>7</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>555</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>7</v>
+        <v>556</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>557</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>7</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>559</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>191</v>
+        <v>561</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E145" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="5">
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="5">
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>431</v>
+        <v>138</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>432</v>
+        <v>123</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E160" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>433</v>
+        <v>139</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>434</v>
+        <v>124</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E161" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>435</v>
+        <v>140</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>436</v>
+        <v>125</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E162" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>437</v>
+        <v>141</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>438</v>
+        <v>126</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E163" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>439</v>
+        <v>142</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E164" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>441</v>
+        <v>128</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E165" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>443</v>
+        <v>144</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>444</v>
+        <v>129</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E166" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>445</v>
+        <v>145</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>446</v>
+        <v>130</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E167" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>447</v>
+        <v>146</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E168" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>449</v>
+        <v>147</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E169" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>451</v>
+        <v>191</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>7</v>
@@ -3836,790 +4013,781 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>456</v>
+        <v>196</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="E172" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>460</v>
+        <v>197</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>459</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>463</v>
+        <v>199</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>461</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="5">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C177" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>5</v>
+        <v>521</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>522</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E181" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>204</v>
+        <v>523</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>524</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E182" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>525</v>
+      </c>
+      <c r="B183"/>
+      <c r="C183" t="s">
+        <v>526</v>
+      </c>
+      <c r="D183"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>10</v>
+        <v>527</v>
+      </c>
+      <c r="B184"/>
+      <c r="C184" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E184" s="5">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="B185"/>
+      <c r="C185" t="s">
+        <v>530</v>
+      </c>
+      <c r="D185"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="B186"/>
+      <c r="C186" t="s">
+        <v>532</v>
+      </c>
+      <c r="D186"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="B187"/>
+      <c r="C187" t="s">
+        <v>534</v>
+      </c>
+      <c r="D187"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="B188"/>
+      <c r="C188" t="s">
+        <v>536</v>
+      </c>
+      <c r="D188"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="B189"/>
+      <c r="C189" t="s">
+        <v>538</v>
+      </c>
+      <c r="D189"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="B190"/>
+      <c r="C190" t="s">
+        <v>540</v>
+      </c>
+      <c r="D190"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>29</v>
+        <v>541</v>
+      </c>
+      <c r="B191"/>
+      <c r="C191" t="s">
+        <v>542</v>
+      </c>
+      <c r="D191"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C192"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>205</v>
+        <v>426</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>19</v>
+        <v>429</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>43</v>
+        <v>430</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>32</v>
+        <v>433</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>33</v>
+        <v>435</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>47</v>
+        <v>437</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>49</v>
+        <v>442</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>37</v>
+        <v>443</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>50</v>
+        <v>444</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>38</v>
+        <v>445</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="4" t="s">
-        <v>149</v>
+      <c r="E204" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E205" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>51</v>
+        <v>448</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>52</v>
+        <v>450</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>40</v>
+        <v>451</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>53</v>
+        <v>452</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E208" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>54</v>
+        <v>454</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>42</v>
+        <v>455</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E209" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C211" t="s">
-        <v>166</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E212" s="5">
-        <v>43554</v>
+        <v>459</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="C213" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>174</v>
+        <v>464</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E214" s="5">
-        <v>43554</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>175</v>
+        <v>466</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E215" s="5">
-        <v>43554</v>
+        <v>467</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E216" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>209</v>
+        <v>565</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E217" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>177</v>
+        <v>567</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E218" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>211</v>
+        <v>569</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E219" s="5">
-        <v>43554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>201</v>
+        <v>571</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E220" s="5"/>
+        <v>572</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E221" s="5"/>
+      <c r="A221" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
-        <v>476</v>
+      <c r="A222" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>471</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>477</v>
+        <v>577</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E223" s="5">
-        <v>43555</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>478</v>
+        <v>579</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>479</v>
+        <v>581</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E235" s="5"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B236" s="1" t="s">
-        <v>289</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E237" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>294</v>
+        <v>23</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>297</v>
+        <v>13</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>299</v>
+        <v>14</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>319</v>
+        <v>15</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="1" t="s">
-        <v>56</v>
+      <c r="A244" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>336</v>
+        <v>17</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>7</v>
+      <c r="A246" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B248" s="3"/>
-      <c r="C248" s="4" t="s">
-        <v>353</v>
+      <c r="A248" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B249" s="3"/>
-      <c r="C249" s="4" t="s">
-        <v>354</v>
+      <c r="A249" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>7</v>
@@ -4627,10 +4795,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>7</v>
@@ -4638,10 +4806,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>7</v>
@@ -4649,21 +4817,18 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>7</v>
@@ -4671,10 +4836,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>7</v>
@@ -4682,41 +4847,44 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B257" s="3"/>
-      <c r="C257" s="6" t="s">
-        <v>339</v>
+      <c r="C257" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
-      <c r="C258" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D258" s="11"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>7</v>
@@ -4724,10 +4892,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>7</v>
@@ -4735,10 +4903,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>7</v>
@@ -4746,35 +4914,38 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>85</v>
+        <v>172</v>
+      </c>
+      <c r="C263" t="s">
+        <v>166</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>355</v>
+        <v>167</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E264" s="5">
         <v>43554</v>
@@ -4782,10 +4953,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>7</v>
@@ -4794,15 +4965,15 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>356</v>
+        <v>168</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E266" s="5">
         <v>43554</v>
@@ -4810,46 +4981,52 @@
     </row>
     <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
+      </c>
+      <c r="E267" s="5">
+        <v>43554</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E268" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E269" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>358</v>
+        <v>171</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E270" s="5">
         <v>43554</v>
@@ -4857,212 +5034,813 @@
     </row>
     <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
+      </c>
+      <c r="E271" s="5">
+        <v>43554</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E272" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E274" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E272" s="5"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="5"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B274" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="E275" s="5"/>
+        <v>474</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>236</v>
+        <v>475</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E276" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>361</v>
+        <v>476</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>362</v>
+        <v>471</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E277" s="5">
-        <v>43559</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>363</v>
+        <v>477</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E278" s="5"/>
+        <v>472</v>
+      </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E279" s="5">
-        <v>43559</v>
+        <v>598</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>238</v>
+        <v>600</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E280" s="5">
-        <v>43555</v>
+        <v>601</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E298" s="5"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E299" s="5"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="5"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="5"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="5"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="5"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="5"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B317" s="3"/>
+      <c r="C317" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B318" s="3"/>
+      <c r="C318" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B326" s="3"/>
+      <c r="C326" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D327" s="10"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E335" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E341" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E343" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E344" s="5"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E345" s="5"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="5">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E347" s="5"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E348" s="5">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C350" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E281" s="5">
+      <c r="D350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D282" s="6" t="s">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D351" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E282" s="5">
+      <c r="E351" s="5">
         <v>43559</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="1" t="s">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B353" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C354" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E285" s="5">
+      <c r="D354" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C355" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D355" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E286" s="5">
+      <c r="E355" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C356" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D356" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E287" s="5">
-        <v>43537</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="E356" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C357" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D357" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E288" s="5">
-        <v>43537</v>
+      <c r="E357" s="5">
+        <v>43555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C327:D327"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E750A22D-6414-4ABA-B569-2D30F97EFF06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E214AC-BD09-4122-A58C-277586E32AF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="23205" windowHeight="12180" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="32625" yWindow="210" windowWidth="23205" windowHeight="16020" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="632">
   <si>
     <t>ID</t>
   </si>
@@ -1466,9 +1466,6 @@
   </si>
   <si>
     <t>IN18.FB</t>
-  </si>
-  <si>
-    <t>Change text on grid buttons to agree with their captions</t>
   </si>
   <si>
     <t>IN19.FB</t>
@@ -1689,9 +1686,6 @@
     <t>IS34</t>
   </si>
   <si>
-    <t>Year Installed edit should be Yellow if Extimated clicked</t>
-  </si>
-  <si>
     <t>IS35</t>
   </si>
   <si>
@@ -1945,6 +1939,72 @@
   </si>
   <si>
     <t>Ask G: What is 'auto stamping'?</t>
+  </si>
+  <si>
+    <t>ID33</t>
+  </si>
+  <si>
+    <t>Ask G: How should a click on 'Cancel Edit' work?</t>
+  </si>
+  <si>
+    <t>ID34</t>
+  </si>
+  <si>
+    <t>Ask G: How should a click on 'Delete Detail' work?</t>
+  </si>
+  <si>
+    <t>ID35</t>
+  </si>
+  <si>
+    <t>Ask G: How should Add Detail work?</t>
+  </si>
+  <si>
+    <t>ID36</t>
+  </si>
+  <si>
+    <t>Ask G: How should Copy Detail work?</t>
+  </si>
+  <si>
+    <t>Year Installed edit should be Yellow if Estimated clicked</t>
+  </si>
+  <si>
+    <t>IS43</t>
+  </si>
+  <si>
+    <t>Year P/C and P/C Type should be in a Gray background box</t>
+  </si>
+  <si>
+    <t>IS44</t>
+  </si>
+  <si>
+    <t>Hook Cancel Edit button click to an action</t>
+  </si>
+  <si>
+    <t>IS45</t>
+  </si>
+  <si>
+    <t>Hook Delete Section to an action</t>
+  </si>
+  <si>
+    <t>IS46</t>
+  </si>
+  <si>
+    <t>Hook Add Section to an action</t>
+  </si>
+  <si>
+    <t>IS47</t>
+  </si>
+  <si>
+    <t>Ask G: What should Cancel Edit, Delete Section and Add section do?</t>
+  </si>
+  <si>
+    <t>Change text color off grid buttons to agree with their captions</t>
+  </si>
+  <si>
+    <t>IN30</t>
+  </si>
+  <si>
+    <t>Make the bottom buttons the same as other Views and compatible with Wireframe</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2085,19 +2145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2105,6 +2156,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2421,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,7 +2673,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,7 +2690,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>88</v>
@@ -2647,10 +2704,10 @@
     </row>
     <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2879,7 +2936,7 @@
         <v>333</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,34 +2949,34 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>607</v>
+        <v>604</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3280,7 +3337,7 @@
       <c r="A92" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="10" t="s">
         <v>348</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -3290,13 +3347,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C93" t="s">
         <v>502</v>
       </c>
-      <c r="C93" t="s">
-        <v>503</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E93" s="5">
         <v>43558</v>
@@ -3323,10 +3380,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3358,10 +3415,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>7</v>
@@ -3422,7 +3479,10 @@
         <v>375</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
+      </c>
+      <c r="E110" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,7 +3522,7 @@
       <c r="A114" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="9" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3503,7 +3563,7 @@
       <c r="A118" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="9" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3619,7 +3679,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>411</v>
@@ -3633,10 +3693,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>7</v>
@@ -3647,7 +3707,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>414</v>
@@ -3661,29 +3721,35 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="5">
+        <v>43562</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C133" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>416</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>513</v>
+        <v>516</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>512</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>224</v>
@@ -3691,230 +3757,260 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="5">
+        <v>43561</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="5">
+        <v>43561</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="158" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    </row>
+    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="D159" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>7</v>
@@ -3922,43 +4018,43 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>7</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>7</v>
@@ -3966,10 +4062,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>7</v>
@@ -3977,10 +4073,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>7</v>
@@ -3988,412 +4084,431 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E170" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E172" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>494</v>
+        <v>147</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E173" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>417</v>
+        <v>195</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>418</v>
+        <v>196</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="E176" s="5">
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>499</v>
+        <v>198</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E178" s="5">
-        <v>43557</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C180" s="14" t="s">
-        <v>520</v>
+        <v>417</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="5">
+        <v>43558</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E181" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>524</v>
+        <v>421</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E182" s="5">
         <v>43557</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>525</v>
-      </c>
-      <c r="B183"/>
-      <c r="C183" t="s">
-        <v>526</v>
-      </c>
-      <c r="D183"/>
+      <c r="A183" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E183" s="5">
+        <v>43562</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B184"/>
-      <c r="C184" s="12" t="s">
-        <v>528</v>
+        <v>518</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>519</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E184" s="5">
-        <v>43561</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B185"/>
-      <c r="C185" t="s">
-        <v>530</v>
-      </c>
-      <c r="D185"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E185" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B186"/>
-      <c r="C186" t="s">
-        <v>532</v>
-      </c>
-      <c r="D186"/>
+        <v>522</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E186" s="5">
+        <v>43557</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>533</v>
+      <c r="A187" t="s">
+        <v>524</v>
       </c>
       <c r="B187"/>
       <c r="C187" t="s">
-        <v>534</v>
-      </c>
-      <c r="D187"/>
+        <v>618</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="5">
+        <v>43562</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B188"/>
-      <c r="C188" t="s">
-        <v>536</v>
-      </c>
-      <c r="D188"/>
+      <c r="C188" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E188" s="5">
+        <v>43561</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B189"/>
       <c r="C189" t="s">
-        <v>538</v>
-      </c>
-      <c r="D189"/>
+        <v>528</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="5">
+        <v>43561</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B190"/>
       <c r="C190" t="s">
-        <v>540</v>
-      </c>
-      <c r="D190"/>
+        <v>530</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="5">
+        <v>43562</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B191"/>
       <c r="C191" t="s">
-        <v>542</v>
-      </c>
-      <c r="D191"/>
+        <v>532</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="5">
+        <v>43561</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C192"/>
-      <c r="E192" s="5"/>
+      <c r="A192" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B192"/>
+      <c r="C192" t="s">
+        <v>534</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="5">
+        <v>43562</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>423</v>
+      <c r="A193" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B193"/>
+      <c r="C193" t="s">
+        <v>536</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>425</v>
+        <v>537</v>
+      </c>
+      <c r="B194"/>
+      <c r="C194" t="s">
+        <v>538</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E194" s="5">
-        <v>43555</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>427</v>
+        <v>539</v>
+      </c>
+      <c r="B195"/>
+      <c r="C195" t="s">
+        <v>540</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="5">
-        <v>43555</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>429</v>
+        <v>619</v>
+      </c>
+      <c r="B196"/>
+      <c r="C196" t="s">
+        <v>620</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E196" s="5">
-        <v>43555</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="5">
-        <v>43555</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="B197"/>
+      <c r="C197" t="s">
+        <v>622</v>
+      </c>
+      <c r="D197"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="5">
-        <v>43555</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="B198"/>
+      <c r="C198" t="s">
+        <v>624</v>
+      </c>
+      <c r="D198"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E199" s="5">
-        <v>43555</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="B199"/>
+      <c r="C199" t="s">
+        <v>626</v>
+      </c>
+      <c r="D199"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="5">
-        <v>43555</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="B200"/>
+      <c r="C200" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D200"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="5">
-        <v>43555</v>
-      </c>
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="5">
-        <v>43555</v>
-      </c>
+      <c r="C202"/>
+      <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>442</v>
+      <c r="B203" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="5">
-        <v>43555</v>
+        <v>423</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>7</v>
@@ -4404,10 +4519,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>7</v>
@@ -4418,10 +4533,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>7</v>
@@ -4432,10 +4547,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>7</v>
@@ -4446,10 +4561,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>7</v>
@@ -4460,10 +4575,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>7</v>
@@ -4474,262 +4589,363 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>456</v>
+        <v>439</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>458</v>
+        <v>438</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>459</v>
+        <v>441</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C213" t="s">
-        <v>463</v>
+        <v>442</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>564</v>
+        <v>448</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>565</v>
+        <v>450</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>566</v>
+        <v>451</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>567</v>
+        <v>452</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>568</v>
+        <v>453</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>569</v>
+        <v>454</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>570</v>
+        <v>455</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>571</v>
+        <v>457</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>572</v>
+        <v>456</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>573</v>
+        <v>460</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>574</v>
+        <v>458</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>575</v>
+        <v>461</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>576</v>
+        <v>459</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>578</v>
+        <v>462</v>
+      </c>
+      <c r="C223" t="s">
+        <v>463</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="5">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="5">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D235" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="5">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>20</v>
+        <v>630</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>10</v>
+        <v>631</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>7</v>
+      <c r="E236" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>7</v>
@@ -4737,35 +4953,43 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="4" t="s">
-        <v>148</v>
+      <c r="A246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>219</v>
+        <v>11</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>7</v>
@@ -4773,10 +4997,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>7</v>
@@ -4784,10 +5008,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>7</v>
@@ -4795,10 +5019,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>7</v>
@@ -4806,10 +5030,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>7</v>
@@ -4817,18 +5041,21 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>7</v>
@@ -4836,1011 +5063,1110 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="D265" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="D266" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="4" t="s">
+      <c r="B267" s="3"/>
+      <c r="C267" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D267" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="D268" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C269" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="D269" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C270" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="D270" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C271" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="D271" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C272" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="D272" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C273" t="s">
         <v>166</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="5">
+      <c r="D273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E264" s="5">
+      <c r="E274" s="5">
         <v>43554</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E268" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E269" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E270" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E271" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E272" s="5"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E273" s="5"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E278" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E279" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E280" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E282" s="5"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" s="5">
+      <c r="D286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C287" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E276" s="5">
+      <c r="D287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C288" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>480</v>
+        <v>596</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" s="5">
-        <v>43555</v>
+        <v>597</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>481</v>
+        <v>598</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" s="5">
-        <v>43555</v>
+        <v>599</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>482</v>
+        <v>600</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E291" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>594</v>
+      <c r="B298" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E298" s="5"/>
+        <v>478</v>
+      </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>596</v>
+        <v>479</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E299" s="5"/>
+        <v>482</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E300" s="5"/>
+      <c r="A300" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E301" s="5"/>
+      <c r="A301" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E302" s="5"/>
+      <c r="A302" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E303" s="5"/>
+      <c r="A303" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E304" s="5"/>
+      <c r="A304" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B305" s="1" t="s">
-        <v>289</v>
+      <c r="A305" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>290</v>
+        <v>588</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>291</v>
+        <v>587</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" s="5">
-        <v>43555</v>
+        <v>586</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>292</v>
+        <v>590</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>293</v>
+        <v>591</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>294</v>
+        <v>592</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="E308" s="5"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>296</v>
+        <v>594</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="E309" s="5"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="E310" s="5"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>319</v>
-      </c>
+      <c r="E311" s="5"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="5"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B313" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>336</v>
-      </c>
+      <c r="E313" s="5"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E314" s="5"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>60</v>
+      <c r="B315" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E316" s="5">
+        <v>43555</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B317" s="3"/>
-      <c r="C317" s="4" t="s">
-        <v>353</v>
+      <c r="A317" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B318" s="3"/>
-      <c r="C318" s="4" t="s">
-        <v>354</v>
+      <c r="A318" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B327" s="3"/>
+      <c r="C327" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B328" s="3"/>
+      <c r="C328" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C330" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D320" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="D330" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C331" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D321" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="D331" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C332" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D322" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="D332" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C333" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D323" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="D333" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C334" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D324" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="D334" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C335" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D325" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
+      <c r="D335" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B326" s="3"/>
-      <c r="C326" s="6" t="s">
+      <c r="B336" s="3"/>
+      <c r="C336" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D326" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="3"/>
-      <c r="B327" s="3"/>
-      <c r="C327" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D327" s="10"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E333" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E334" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E335" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D336" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>486</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D337" s="15"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E338" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E339" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E341" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>338</v>
+        <v>178</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="E343" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="E344" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" s="5">
+        <v>43554</v>
+      </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E345" s="5"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E345" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>361</v>
+        <v>222</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>362</v>
+        <v>223</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E346" s="5">
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E347" s="5"/>
+        <v>484</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>225</v>
+        <v>181</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E348" s="5">
-        <v>43559</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E349" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>241</v>
+        <v>359</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E350" s="5">
-        <v>43555</v>
+        <v>224</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="D351" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D351" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E351" s="5">
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B353" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E353" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E354" s="5">
-        <v>43554</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E354" s="5"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C355" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E355" s="5">
-        <v>43555</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E355" s="5"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>234</v>
+        <v>361</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E356" s="5">
-        <v>43555</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E357" s="5"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E358" s="5">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E359" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E361" s="5">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B363" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E365" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E366" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C357" s="11" t="s">
+      <c r="C367" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D357" s="2" t="s">
+      <c r="D367" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E357" s="5">
+      <c r="E367" s="5">
         <v>43555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C327:D327"/>
+    <mergeCell ref="C337:D337"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E214AC-BD09-4122-A58C-277586E32AF9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71E689A-141F-49F7-9656-A0E845525821}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32625" yWindow="210" windowWidth="23205" windowHeight="16020" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="648">
   <si>
     <t>ID</t>
   </si>
@@ -2006,12 +2006,62 @@
   <si>
     <t>Make the bottom buttons the same as other Views and compatible with Wireframe</t>
   </si>
+  <si>
+    <t>CC8.Q1</t>
+  </si>
+  <si>
+    <t>Where / when is the Copy Comment supposed to be / show?</t>
+  </si>
+  <si>
+    <t>C14.Q1</t>
+  </si>
+  <si>
+    <t>What needs to change?</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>Add Copy Comment icon / link to copy inspection comment popup</t>
+  </si>
+  <si>
+    <t>Year built needs to change color / enabled with "Override" checkbox</t>
+  </si>
+  <si>
+    <t>F14.Q1</t>
+  </si>
+  <si>
+    <t>Should "Total Area" be  calculation or user input?</t>
+  </si>
+  <si>
+    <t>CN6.B1</t>
+  </si>
+  <si>
+    <t>Need to change Section Name into a combo box. 
+Add more selections to the "Section Name", "Equipment" and "Component" drop-downs. 
+We could hide green arrow on "Sections.Count &lt;= 1" easy enough.</t>
+  </si>
+  <si>
+    <t>What should this action be?</t>
+  </si>
+  <si>
+    <t>IS44.Q1</t>
+  </si>
+  <si>
+    <t>IS22.1</t>
+  </si>
+  <si>
+    <t>Done, needs content, in process</t>
+  </si>
+  <si>
+    <t>Adding Add / Delete System to shell active on Facility tab, in process</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2068,8 +2118,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2082,8 +2161,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2117,11 +2216,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2164,9 +2297,32 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2478,21 +2634,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="84.85546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="84.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2665,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>325</v>
       </c>
@@ -2517,7 +2673,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
@@ -2531,7 +2687,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>328</v>
       </c>
@@ -2545,23 +2701,29 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>312</v>
       </c>
@@ -2569,7 +2731,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>313</v>
       </c>
@@ -2583,7 +2745,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>314</v>
       </c>
@@ -2597,7 +2759,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
@@ -2605,15 +2767,18 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>98</v>
       </c>
@@ -2621,7 +2786,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2632,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>154</v>
       </c>
@@ -2643,7 +2808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
@@ -2654,7 +2819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -2665,7 +2830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
@@ -2676,19 +2841,19 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>488</v>
       </c>
@@ -2702,15 +2867,18 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>258</v>
       </c>
@@ -2718,7 +2886,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>259</v>
       </c>
@@ -2732,7 +2900,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>260</v>
       </c>
@@ -2746,7 +2914,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>261</v>
       </c>
@@ -2760,7 +2928,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>264</v>
       </c>
@@ -2774,7 +2942,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>266</v>
       </c>
@@ -2788,7 +2956,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>268</v>
       </c>
@@ -2802,7 +2970,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>270</v>
       </c>
@@ -2816,7 +2984,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>323</v>
       </c>
@@ -2824,34 +2992,29 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>7</v>
@@ -2860,204 +3023,281 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="D51" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="D52" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="C58" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C64" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>300</v>
       </c>
@@ -3065,7 +3305,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>302</v>
       </c>
@@ -3079,7 +3319,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>303</v>
       </c>
@@ -3093,7 +3333,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>305</v>
       </c>
@@ -3107,36 +3347,45 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
@@ -3150,7 +3399,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>158</v>
       </c>
@@ -3164,7 +3413,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -3178,7 +3427,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3192,7 +3441,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>163</v>
       </c>
@@ -3207,7 +3456,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -3221,7 +3470,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
@@ -3235,7 +3484,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>179</v>
       </c>
@@ -3249,7 +3498,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>188</v>
       </c>
@@ -3263,7 +3512,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>189</v>
       </c>
@@ -3277,7 +3526,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>190</v>
       </c>
@@ -3291,7 +3540,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>342</v>
       </c>
@@ -3305,7 +3554,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>344</v>
       </c>
@@ -3319,7 +3568,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>346</v>
       </c>
@@ -3333,7 +3582,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>347</v>
       </c>
@@ -3345,7 +3594,7 @@
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>501</v>
       </c>
@@ -3359,438 +3608,434 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="7"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B96" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B102" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="5">
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="5">
         <v>41370</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B107" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="5">
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="D114" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C115" s="9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C119" s="9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="D122" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="D128" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="5">
+      <c r="D130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="5">
         <v>43558</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="5">
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="5">
         <v>43557</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="5">
+      <c r="D132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="5">
         <v>43558</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="5">
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C136" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>7</v>
@@ -3799,12 +4044,12 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>7</v>
@@ -3813,556 +4058,551 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="5">
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="5">
         <v>43561</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="5">
+      <c r="D142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="5">
+      <c r="D143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="5">
         <v>43561</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E143" s="5">
+      <c r="D144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C145" s="9" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C146" s="9" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C147" s="9" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C148" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B153" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="D154" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="D155" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="D156" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="D157" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="159" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="D163" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="D165" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="D167" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="D168" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="D169" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="D174" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="5">
+      <c r="D175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E177" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B179" s="17"/>
+      <c r="C179" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="5">
+      <c r="D180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="5">
+      <c r="D182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="5">
         <v>43558</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="5">
+      <c r="D184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="5">
         <v>43557</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C185" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E183" s="5">
+      <c r="E185" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C186" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="5">
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C187" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E187" s="5">
         <v>43557</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+    <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C188" s="12" t="s">
         <v>523</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E186" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>524</v>
-      </c>
-      <c r="B187"/>
-      <c r="C187" t="s">
-        <v>618</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B188"/>
-      <c r="C188" s="10" t="s">
-        <v>526</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>224</v>
       </c>
       <c r="E188" s="5">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>527</v>
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>524</v>
       </c>
       <c r="B189"/>
       <c r="C189" t="s">
-        <v>528</v>
+        <v>618</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E189" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B190"/>
+      <c r="C190" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E190" s="5">
         <v>43561</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B190"/>
-      <c r="C190" t="s">
-        <v>530</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E190" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B191"/>
       <c r="C191" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>7</v>
@@ -4371,13 +4611,13 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B192"/>
       <c r="C192" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>7</v>
@@ -4386,28 +4626,28 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B193"/>
       <c r="C193" t="s">
-        <v>536</v>
-      </c>
-      <c r="D193" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E193" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B194"/>
       <c r="C194" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>7</v>
@@ -4416,28 +4656,28 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B195"/>
       <c r="C195" t="s">
-        <v>540</v>
-      </c>
-      <c r="D195" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D195" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>619</v>
+        <v>537</v>
       </c>
       <c r="B196"/>
       <c r="C196" t="s">
-        <v>620</v>
+        <v>538</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>7</v>
@@ -4446,111 +4686,107 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>621</v>
+        <v>539</v>
       </c>
       <c r="B197"/>
       <c r="C197" t="s">
-        <v>622</v>
-      </c>
-      <c r="D197"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B198"/>
       <c r="C198" t="s">
-        <v>624</v>
-      </c>
-      <c r="D198"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B199"/>
       <c r="C199" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B201"/>
+      <c r="C201" t="s">
+        <v>624</v>
+      </c>
+      <c r="D201"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B202"/>
+      <c r="C202" t="s">
         <v>626</v>
       </c>
-      <c r="D199"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="D202"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B200"/>
-      <c r="C200" s="10" t="s">
+      <c r="B203"/>
+      <c r="C203" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="D200"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C202"/>
-      <c r="E202" s="5"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="1" t="s">
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C205"/>
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B206" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>7</v>
@@ -4559,12 +4795,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>7</v>
@@ -4573,12 +4809,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>7</v>
@@ -4587,12 +4823,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>7</v>
@@ -4601,12 +4837,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>7</v>
@@ -4615,12 +4851,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>7</v>
@@ -4629,12 +4865,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>7</v>
@@ -4643,12 +4879,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>7</v>
@@ -4657,12 +4893,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>7</v>
@@ -4671,12 +4907,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>7</v>
@@ -4685,12 +4921,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>7</v>
@@ -4699,12 +4935,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>7</v>
@@ -4713,12 +4949,12 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>7</v>
@@ -4727,131 +4963,131 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="5">
+      <c r="D223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="D224" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="D225" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C226" t="s">
         <v>463</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="D226" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="5">
+      <c r="D227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="5">
         <v>43561</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+    <row r="228" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C229" s="9" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E227" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E228" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E229" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>7</v>
@@ -4860,443 +5096,446 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C234" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="D234" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="5">
+      <c r="D237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="5">
         <v>43560</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="5">
+      <c r="D238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="5">
         <v>43561</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="5">
+      <c r="D239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="D246" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="D247" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="D248" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="D249" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="D250" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="D251" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="D252" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="D253" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="D254" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="D255" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="D256" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="D257" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B256" s="3"/>
-      <c r="C256" s="4" t="s">
+      <c r="B259" s="3"/>
+      <c r="C259" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C261" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="D261" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="D262" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="D263" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="D264" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="D265" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="D267" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="D268" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C269" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="3" t="s">
+      <c r="D269" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B267" s="3"/>
-      <c r="C267" s="4" t="s">
+      <c r="B270" s="3"/>
+      <c r="C270" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D270" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C271" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="D271" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C272" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="D272" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="D273" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="D274" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="D275" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C276" t="s">
         <v>166</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E273" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E274" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>7</v>
@@ -5305,796 +5544,796 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E277" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="E278" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>220</v>
+        <v>168</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E279" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E280" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="E281" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E282" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E283" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C285" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E282" s="5"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E283" s="5"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="1" t="s">
+      <c r="E285" s="5"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E286" s="5"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B287" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C287" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C288" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E285" s="5">
+      <c r="D288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C289" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E286" s="5">
+      <c r="D289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C290" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E287" s="5">
+      <c r="D290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C291" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+    <row r="292" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C292" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+    <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C293" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+    <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C294" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B298" s="1" t="s">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B301" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C301" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C302" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E299" s="5">
+      <c r="D302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C303" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E300" s="5">
+      <c r="D303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C304" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E301" s="5">
+      <c r="D304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C303" s="9" t="s">
+      <c r="C306" s="9" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C307" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C308" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C309" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C310" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C311" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E308" s="5"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="E311" s="5"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C312" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E309" s="5"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E310" s="5"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E311" s="5"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E313" s="5"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B315" s="1" t="s">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E316" s="5"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E317" s="5"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B318" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C318" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E316" s="5">
+      <c r="D319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C320" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A321" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C321" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A323" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C323" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C324" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B323" s="1" t="s">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B326" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C326" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C327" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D324" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="D327" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C328" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D325" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="D328" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A329" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C329" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D326" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
+      <c r="D329" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A330" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B327" s="3"/>
-      <c r="C327" s="4" t="s">
+      <c r="B330" s="3"/>
+      <c r="C330" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A331" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B328" s="3"/>
-      <c r="C328" s="4" t="s">
+      <c r="B331" s="3"/>
+      <c r="C331" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A332" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C332" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D329" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="D332" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A333" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C333" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D330" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="D333" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A334" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C334" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D331" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="D334" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A335" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C335" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D332" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="D335" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A336" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C336" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="D336" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C337" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D334" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="D337" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C338" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D335" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
+      <c r="D338" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A339" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B336" s="3"/>
-      <c r="C336" s="6" t="s">
+      <c r="B339" s="3"/>
+      <c r="C339" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D336" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="3"/>
-      <c r="B337" s="3"/>
-      <c r="C337" s="14" t="s">
+      <c r="D339" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="D337" s="15"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="D340" s="15"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C341" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D338" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="D341" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C342" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D339" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="D342" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C343" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D340" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="D343" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C341" s="2" t="s">
+      <c r="C344" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D341" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="D344" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C345" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D342" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="D345" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C346" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D343" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E343" s="5">
+      <c r="D346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C347" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D344" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E344" s="5">
+      <c r="D347" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C345" s="2" t="s">
+      <c r="C348" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D345" s="2" t="s">
+      <c r="D348" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E345" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D346" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E348" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>358</v>
+        <v>223</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E349" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="E351" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A353" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E354" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A355" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="C355" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+    <row r="356" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A356" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C356" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D353" s="2" t="s">
+      <c r="D356" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E353" s="5">
+      <c r="E356" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+    <row r="357" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A357" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C354" s="6" t="s">
+      <c r="C357" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="E354" s="5"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="E357" s="5"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E355" s="5"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="E358" s="5"/>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C359" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D356" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E356" s="5">
+      <c r="D359" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E359" s="5">
         <v>43559</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C360" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E357" s="5"/>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="E360" s="5"/>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C361" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E358" s="5">
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E359" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E360" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>225</v>
@@ -6103,70 +6342,112 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B363" s="1" t="s">
+    <row r="362" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E364" s="5">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B366" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C367" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D364" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E364" s="5">
+      <c r="D367" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C365" s="9" t="s">
+      <c r="C368" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D368" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E365" s="5">
+      <c r="E368" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C366" s="9" t="s">
+      <c r="C369" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D366" s="2" t="s">
+      <c r="D369" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E366" s="5">
+      <c r="E369" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C367" s="9" t="s">
+      <c r="C370" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D367" s="2" t="s">
+      <c r="D370" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E367" s="5">
+      <c r="E370" s="5">
         <v>43555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C337:D337"/>
+    <mergeCell ref="C340:D340"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71E689A-141F-49F7-9656-A0E845525821}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772C1AE-8BE5-4DA2-9FA3-B23EE0F55B6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="652">
   <si>
     <t>ID</t>
   </si>
@@ -2054,7 +2054,19 @@
     <t>Done, needs content, in process</t>
   </si>
   <si>
-    <t>Adding Add / Delete System to shell active on Facility tab, in process</t>
+    <t>Fixed.</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>General Questions</t>
+  </si>
+  <si>
+    <t>GC.Q1</t>
+  </si>
+  <si>
+    <t>Do we need to make custom "Message Box" for thoses single-line questions? It's related to that whole "fat-fingers" style. There are some Material-Design concepts we could use.</t>
   </si>
 </sst>
 </file>
@@ -2291,12 +2303,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2316,6 +2322,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -2634,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2665,289 +2677,258 @@
         <v>503</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="1"/>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
         <v>43555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>43555</v>
+        <v>317</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
         <v>43555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>319</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>156</v>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>496</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>488</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>489</v>
+        <v>157</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>331</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E27" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>260</v>
+        <v>489</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>264</v>
+        <v>490</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5">
-        <v>43555</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>7</v>
@@ -2958,10 +2939,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -2972,10 +2953,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -2986,468 +2967,467 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>319</v>
+        <v>265</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="16" t="s">
-        <v>633</v>
+      <c r="A35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>251</v>
+      <c r="A37" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>271</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5">
         <v>43555</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="16" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>7</v>
+        <v>247</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>225</v>
+      <c r="A44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>250</v>
+      <c r="A46" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="14" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="5">
-        <v>43555</v>
+        <v>334</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>249</v>
+      <c r="A48" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>256</v>
+      <c r="B50" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>511</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>7</v>
+        <v>245</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>602</v>
+        <v>246</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>225</v>
+        <v>247</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>605</v>
+        <v>248</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>607</v>
+        <v>256</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>609</v>
+        <v>332</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>272</v>
+      <c r="A57" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5">
-        <v>43555</v>
+        <v>606</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>646</v>
+        <v>608</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>282</v>
+      <c r="B61" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>646</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>646</v>
+        <v>254</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>7</v>
+        <v>279</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>225</v>
+      <c r="A64" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>7</v>
+        <v>283</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>7</v>
+        <v>285</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="1" t="s">
-        <v>300</v>
+      <c r="A69" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="5">
-        <v>43555</v>
+        <v>319</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>307</v>
+      <c r="B73" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>7</v>
+        <v>254</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>7</v>
+        <v>304</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="1" t="s">
-        <v>90</v>
+      <c r="A77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="5">
-        <v>43553</v>
+        <v>310</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="5">
-        <v>43553</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="5">
-        <v>43553</v>
+        <v>319</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="5">
-        <v>43553</v>
+      <c r="B81" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="4" t="s">
-        <v>340</v>
+      <c r="A82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>7</v>
@@ -3458,10 +3438,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -3472,10 +3452,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>7</v>
@@ -3486,94 +3466,95 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>349</v>
+        <v>94</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="5">
-        <v>43555</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>350</v>
+      <c r="A86" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="5">
-        <v>43557</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>352</v>
+        <v>96</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="5">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>341</v>
+        <v>179</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C90" t="s">
-        <v>343</v>
+        <v>188</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E90" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C91" t="s">
-        <v>345</v>
+        <v>189</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>7</v>
@@ -3584,125 +3565,145 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="5">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" t="s">
+        <v>343</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" t="s">
+        <v>345</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C97" t="s">
         <v>502</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E97" s="5">
         <v>43558</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="22" t="s">
+      <c r="B98" s="15"/>
+      <c r="C98" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B106" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="5">
-        <v>41370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>412</v>
+      <c r="D107" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>7</v>
@@ -3710,216 +3711,208 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>370</v>
+        <v>509</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>371</v>
+        <v>510</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E109" s="5">
+        <v>41370</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>374</v>
+      <c r="B111" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="5">
-        <v>43562</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+      <c r="D116" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>7</v>
@@ -3927,10 +3920,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>7</v>
@@ -3938,160 +3931,148 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E130" s="5">
-        <v>43558</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>499</v>
+        <v>406</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E131" s="5">
-        <v>43557</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>513</v>
+        <v>407</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E132" s="5">
-        <v>43558</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E133" s="5">
-        <v>43562</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>511</v>
+        <v>7</v>
+      </c>
+      <c r="E134" s="5">
+        <v>43558</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>512</v>
+        <v>500</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
+      </c>
+      <c r="E135" s="5">
+        <v>43557</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>542</v>
+        <v>513</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="5">
+        <v>43558</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>544</v>
+        <v>415</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>546</v>
+        <v>416</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E138" s="5">
-        <v>43562</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>548</v>
+        <v>516</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>512</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="5">
-        <v>43562</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="5">
-        <v>43562</v>
+        <v>541</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E141" s="5">
-        <v>43561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>7</v>
@@ -4102,24 +4083,24 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E143" s="5">
-        <v>43561</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>7</v>
@@ -4128,454 +4109,453 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="5">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="5">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C149" s="9" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C150" s="9" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C151" s="9" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C152" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B153" s="1" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B157" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
+      <c r="D158" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
+      <c r="D159" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
+      <c r="D160" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
+      <c r="D161" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
+    <row r="163" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
+    <row r="164" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
+      <c r="D164" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
+      <c r="D165" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
+      <c r="D167" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="1" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
+      <c r="D169" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
+      <c r="D172" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
+      <c r="D174" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
+      <c r="D175" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
+      <c r="D176" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
+      <c r="D177" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
+      <c r="D178" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="5">
+      <c r="D179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
+    <row r="181" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E181" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
+    <row r="182" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E178" s="5"/>
-    </row>
-    <row r="179" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="17" t="s">
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="B179" s="17"/>
-      <c r="C179" s="16" t="s">
+      <c r="B183" s="15"/>
+      <c r="C183" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="D179"/>
-      <c r="E179" s="5"/>
-    </row>
-    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
+      <c r="D183"/>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="5">
+      <c r="D184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="5">
         <v>43562</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="5">
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="5">
-        <v>43557</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E185" s="5">
-        <v>43562</v>
+        <v>199</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>519</v>
+        <v>417</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E186" s="5">
-        <v>43562</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E187" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>523</v>
+        <v>421</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E188" s="5">
         <v>43557</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>524</v>
-      </c>
-      <c r="B189"/>
-      <c r="C189" t="s">
-        <v>618</v>
+      <c r="A189" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>7</v>
+        <v>511</v>
       </c>
       <c r="E189" s="5">
         <v>43562</v>
@@ -4583,101 +4563,98 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B190"/>
-      <c r="C190" s="10" t="s">
-        <v>526</v>
+        <v>518</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>519</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E190" s="5">
-        <v>43561</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B191"/>
-      <c r="C191" t="s">
-        <v>528</v>
+        <v>520</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>521</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E191" s="5">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B192"/>
-      <c r="C192" t="s">
-        <v>530</v>
+        <v>522</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>523</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E192" s="5">
-        <v>43562</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" s="1" t="s">
-        <v>531</v>
+      <c r="A193" t="s">
+        <v>524</v>
       </c>
       <c r="B193"/>
       <c r="C193" t="s">
-        <v>532</v>
+        <v>618</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E193" s="5">
-        <v>43561</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B194"/>
-      <c r="C194" t="s">
-        <v>534</v>
+      <c r="C194" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E194" s="5">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B195"/>
       <c r="C195" t="s">
-        <v>536</v>
-      </c>
-      <c r="D195" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E195" s="5">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B196"/>
       <c r="C196" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>7</v>
@@ -4688,26 +4665,26 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B197"/>
       <c r="C197" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E197" s="5">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="B198"/>
       <c r="C198" t="s">
-        <v>620</v>
+        <v>534</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>7</v>
@@ -4718,131 +4695,135 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="B199"/>
       <c r="C199" t="s">
-        <v>622</v>
+        <v>536</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="B200" s="22"/>
-      <c r="C200" s="16" t="s">
-        <v>643</v>
+      <c r="A200" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B200"/>
+      <c r="C200" t="s">
+        <v>538</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>623</v>
+        <v>539</v>
       </c>
       <c r="B201"/>
       <c r="C201" t="s">
-        <v>624</v>
-      </c>
-      <c r="D201"/>
+        <v>540</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="5">
+        <v>43562</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B202"/>
       <c r="C202" t="s">
-        <v>626</v>
-      </c>
-      <c r="D202"/>
+        <v>620</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="5">
+        <v>43562</v>
+      </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B203"/>
-      <c r="C203" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="D203"/>
+      <c r="C203" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
+      <c r="A204" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B204" s="20"/>
+      <c r="C204" s="14" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C205"/>
-      <c r="E205" s="5"/>
+      <c r="A205" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B205"/>
+      <c r="C205" t="s">
+        <v>624</v>
+      </c>
+      <c r="D205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B206" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>423</v>
-      </c>
+      <c r="A206" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B206"/>
+      <c r="C206" t="s">
+        <v>626</v>
+      </c>
+      <c r="D206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E207" s="5">
-        <v>43555</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="B207"/>
+      <c r="C207" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D207"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="5">
-        <v>43555</v>
-      </c>
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" s="5">
-        <v>43555</v>
-      </c>
+      <c r="C209"/>
+      <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>430</v>
+      <c r="B210" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="5">
-        <v>43555</v>
+        <v>423</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>7</v>
@@ -4853,10 +4834,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>7</v>
@@ -4867,10 +4848,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>7</v>
@@ -4881,10 +4862,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>7</v>
@@ -4895,10 +4876,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>7</v>
@@ -4909,10 +4890,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>7</v>
@@ -4923,10 +4904,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>7</v>
@@ -4937,10 +4918,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>7</v>
@@ -4951,10 +4932,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>7</v>
@@ -4965,10 +4946,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>7</v>
@@ -4979,10 +4960,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>7</v>
@@ -4993,10 +4974,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>7</v>
@@ -5007,325 +4988,337 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E223" s="5">
-        <v>43562</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E224" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E225" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C226" t="s">
-        <v>463</v>
+        <v>454</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E226" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>629</v>
+        <v>456</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E227" s="5">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>562</v>
+        <v>461</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>564</v>
+        <v>462</v>
+      </c>
+      <c r="C230" t="s">
+        <v>463</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E230" s="5">
-        <v>43562</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E231" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="5">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233" s="5">
-        <v>43562</v>
+        <v>561</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E234" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E237" s="5">
-        <v>43560</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E238" s="5">
-        <v>43561</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="5">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="5">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239" s="5">
+      <c r="D243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="1" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A247" s="1" t="s">
+      <c r="D250" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
+      <c r="D251" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="1" t="s">
+      <c r="D252" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="1" t="s">
+      <c r="D253" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
+      <c r="D254" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
+      <c r="D255" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>7</v>
@@ -5333,10 +5326,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>7</v>
@@ -5344,35 +5337,43 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B259" s="3"/>
-      <c r="C259" s="4" t="s">
-        <v>148</v>
+      <c r="A259" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>219</v>
+        <v>16</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>7</v>
@@ -5380,43 +5381,35 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>7</v>
+      <c r="A263" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B263" s="3"/>
+      <c r="C263" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>7</v>
@@ -5424,18 +5417,21 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>7</v>
@@ -5443,10 +5439,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>7</v>
@@ -5454,33 +5450,29 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>208</v>
+      <c r="A270" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>7</v>
@@ -5488,10 +5480,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>7</v>
@@ -5499,99 +5491,88 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A274" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>42</v>
+      <c r="A274" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B274" s="3"/>
+      <c r="C274" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C276" t="s">
-        <v>166</v>
+        <v>52</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E276" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E277" s="5">
-        <v>43554</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E278" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E279" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="C280" t="s">
+        <v>166</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>7</v>
@@ -5602,24 +5583,27 @@
     </row>
     <row r="281" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E281" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E282" s="5">
         <v>43554</v>
@@ -5627,13 +5611,13 @@
     </row>
     <row r="283" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E283" s="5">
         <v>43554</v>
@@ -5641,10 +5625,10 @@
     </row>
     <row r="284" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>7</v>
@@ -5653,402 +5637,411 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E285" s="5"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E286" s="5"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B287" s="1" t="s">
-        <v>472</v>
+        <v>170</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E285" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E286" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E287" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>473</v>
+        <v>211</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E288" s="5">
-        <v>43555</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E290" s="5"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B291" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C293" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" s="5">
+      <c r="D293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A290" s="1" t="s">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C294" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" s="5">
+      <c r="D294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="1" t="s">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C295" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+    <row r="296" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C296" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+    <row r="297" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C297" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+    <row r="298" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C298" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B301" s="1" t="s">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B305" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A302" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E302" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A303" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E303" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A304" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E304" s="5">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A305" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C306" s="9" t="s">
-        <v>583</v>
+        <v>479</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>584</v>
+        <v>480</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>589</v>
+        <v>469</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>588</v>
+        <v>470</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>587</v>
+        <v>481</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>591</v>
+        <v>582</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E311" s="5"/>
+        <v>589</v>
+      </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C316" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E312" s="5"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E313" s="5"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E314" s="5"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E316" s="5"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E317" s="5"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B318" s="1" t="s">
+      <c r="E318" s="5"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E319" s="5"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E321" s="5"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B322" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A319" s="1" t="s">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C323" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D319" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E319" s="5">
+      <c r="D323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A320" s="1" t="s">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C324" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" s="1" t="s">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C325" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C326" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="1" t="s">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C327" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" s="1" t="s">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C328" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B326" s="1" t="s">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B330" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C330" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327" s="1" t="s">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C331" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D327" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" s="1" t="s">
+      <c r="D331" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C332" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D328" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="1" t="s">
+      <c r="D332" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C333" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D329" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="3" t="s">
+      <c r="D333" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B330" s="3"/>
-      <c r="C330" s="4" t="s">
+      <c r="B334" s="3"/>
+      <c r="C334" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331" s="3" t="s">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B331" s="3"/>
-      <c r="C331" s="4" t="s">
+      <c r="B335" s="3"/>
+      <c r="C335" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="1" t="s">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C336" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A333" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A336" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>7</v>
@@ -6056,10 +6049,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>7</v>
@@ -6067,41 +6060,43 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A339" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B339" s="3"/>
-      <c r="C339" s="6" t="s">
-        <v>339</v>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A340" s="3"/>
-      <c r="B340" s="3"/>
-      <c r="C340" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="D340" s="15"/>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>7</v>
@@ -6109,43 +6104,41 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A343" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>81</v>
+    <row r="343" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A343" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B343" s="3"/>
+      <c r="C343" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A344" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D344" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="344" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="D344" s="22"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>7</v>
@@ -6153,71 +6146,68 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E346" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E347" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E348" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="5">
         <v>43554</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A349" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D349" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A350" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>357</v>
+        <v>218</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>7</v>
@@ -6228,13 +6218,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E352" s="5">
         <v>43554</v>
@@ -6242,212 +6232,259 @@
     </row>
     <row r="353" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E354" s="5">
+        <v>484</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A355" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>338</v>
+        <v>182</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="E356" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="E357" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E358" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A359" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A360" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E360" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A361" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E361" s="5"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C362" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E358" s="5"/>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A359" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E359" s="5">
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A360" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E360" s="5"/>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A361" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E361" s="5">
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E362" s="5">
-        <v>43555</v>
-      </c>
+      <c r="E362" s="5"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E363" s="5">
-        <v>43555</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D364" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E364" s="5"/>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D365" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E364" s="5">
+      <c r="E365" s="5">
         <v>43559</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B366" s="1" t="s">
-        <v>227</v>
+      <c r="A366" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E367" s="5">
-        <v>43554</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E368" s="5">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B370" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C368" s="9" t="s">
+      <c r="C372" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D368" s="2" t="s">
+      <c r="D372" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E368" s="5">
+      <c r="E372" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A369" s="1" t="s">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C369" s="9" t="s">
+      <c r="C373" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D369" s="2" t="s">
+      <c r="D373" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E369" s="5">
+      <c r="E373" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A370" s="1" t="s">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C370" s="9" t="s">
+      <c r="C374" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D370" s="2" t="s">
+      <c r="D374" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E370" s="5">
+      <c r="E374" s="5">
         <v>43555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C344:D344"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772C1AE-8BE5-4DA2-9FA3-B23EE0F55B6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB7E43-4D2A-4665-99E9-CF702D04BC6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="654">
   <si>
     <t>ID</t>
   </si>
@@ -2066,14 +2066,21 @@
     <t>GC.Q1</t>
   </si>
   <si>
-    <t>Do we need to make custom "Message Box" for thoses single-line questions? It's related to that whole "fat-fingers" style. There are some Material-Design concepts we could use.</t>
+    <t>GC.Q1.FB.1</t>
+  </si>
+  <si>
+    <t>https://github.com/denpalrius/Material-Message-Box</t>
+  </si>
+  <si>
+    <t>Do we need to make custom "Message Box" for thoses single-line questions? It's related to that whole "fat-fingers" style. There are some Material-Design concepts we could use. 
+Here are some examples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2155,6 +2162,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2259,14 +2274,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2328,10 +2344,17 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -2646,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E374"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2689,47 +2712,44 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>650</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="D5" s="24"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -2740,54 +2760,54 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>7</v>
+        <v>315</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+      <c r="D12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -2798,48 +2818,51 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
@@ -2847,10 +2870,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>7</v>
@@ -2858,10 +2881,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
@@ -2869,80 +2892,77 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>7</v>
@@ -2953,10 +2973,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -2967,10 +2987,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -2981,10 +3001,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -2995,10 +3015,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
@@ -3009,10 +3029,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -3023,49 +3043,49 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="14" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="14" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -3076,80 +3096,80 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="14" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="14" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="D48" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18" t="s">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D49" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
@@ -3160,108 +3180,111 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>511</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>7</v>
+        <v>333</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>602</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>225</v>
+        <v>319</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>646</v>
+        <v>254</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>646</v>
@@ -3269,10 +3292,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>646</v>
@@ -3280,10 +3303,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>646</v>
@@ -3291,77 +3314,74 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
+      <c r="D68" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="14" t="s">
+      <c r="B69" s="15"/>
+      <c r="C69" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D69" s="19" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="1" t="s">
+      <c r="D71" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>7</v>
@@ -3372,10 +3392,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>7</v>
@@ -3386,21 +3406,24 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>7</v>
+        <v>306</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>7</v>
@@ -3408,40 +3431,37 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D79" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
+      <c r="D80" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="5">
-        <v>43553</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>7</v>
@@ -3452,10 +3472,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>7</v>
@@ -3466,10 +3486,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>7</v>
@@ -3479,12 +3499,11 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="4" t="s">
-        <v>340</v>
+      <c r="A86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>7</v>
@@ -3494,11 +3513,12 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>95</v>
+      <c r="A87" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>7</v>
@@ -3509,10 +3529,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>7</v>
@@ -3523,24 +3543,24 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="5">
-        <v>43555</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>7</v>
@@ -3549,54 +3569,54 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="5">
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="5">
         <v>43557</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="5">
+      <c r="D93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="5">
         <v>43556</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C94" t="s">
-        <v>343</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>7</v>
@@ -3605,12 +3625,12 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C95" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>7</v>
@@ -3621,89 +3641,92 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
+      </c>
+      <c r="C96" t="s">
+        <v>345</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E96" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="E96" s="5">
+        <v>43557</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>502</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E98" s="5">
         <v>43558</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="15" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="20" t="s">
+      <c r="B99" s="15"/>
+      <c r="C99" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C99" s="7"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B107" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>366</v>
+        <v>105</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>7</v>
@@ -3711,46 +3734,46 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="5">
+      <c r="D110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="5">
         <v>41370</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E110" s="5"/>
-    </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B111" s="1" t="s">
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B112" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>7</v>
@@ -3758,10 +3781,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>7</v>
@@ -3769,35 +3792,35 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E115" s="5">
-        <v>43562</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E116" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>7</v>
@@ -3805,10 +3828,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>7</v>
@@ -3816,29 +3839,29 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>7</v>
+        <v>383</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>7</v>
@@ -3846,10 +3869,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>7</v>
@@ -3857,29 +3880,29 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>384</v>
+        <v>388</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
+        <v>390</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>7</v>
@@ -3887,10 +3910,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>7</v>
@@ -3898,10 +3921,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>7</v>
@@ -3909,10 +3932,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>7</v>
@@ -3920,10 +3943,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>7</v>
@@ -3931,10 +3954,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>7</v>
@@ -3942,10 +3965,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>7</v>
@@ -3953,10 +3976,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>7</v>
@@ -3964,10 +3987,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>7</v>
@@ -3975,118 +3998,115 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>497</v>
+        <v>409</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E134" s="5">
-        <v>43558</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E135" s="5">
-        <v>43557</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>414</v>
+        <v>499</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E136" s="5">
-        <v>43558</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E137" s="5">
-        <v>43562</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>511</v>
+        <v>7</v>
+      </c>
+      <c r="E138" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>512</v>
+        <v>515</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>224</v>
+        <v>511</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>542</v>
+        <v>516</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="5">
-        <v>43562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>7</v>
@@ -4097,10 +4117,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>7</v>
@@ -4111,117 +4131,120 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="5">
-        <v>43561</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E146" s="5">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E147" s="5">
-        <v>43561</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E148" s="5">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>611</v>
+        <v>559</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C153" s="9" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B157" s="1" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B158" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>7</v>
@@ -4229,10 +4252,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>7</v>
@@ -4240,10 +4263,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>7</v>
@@ -4251,40 +4274,40 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>7</v>
@@ -4292,21 +4315,21 @@
     </row>
     <row r="166" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>7</v>
@@ -4314,32 +4337,32 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>496</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>7</v>
@@ -4347,21 +4370,21 @@
     </row>
     <row r="171" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>7</v>
@@ -4369,10 +4392,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>7</v>
@@ -4380,10 +4403,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>7</v>
@@ -4391,10 +4414,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>7</v>
@@ -4402,10 +4425,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>7</v>
@@ -4413,10 +4436,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>7</v>
@@ -4424,152 +4447,149 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
+      <c r="D179" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="5">
+      <c r="D180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
+    <row r="182" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E181" s="5">
+      <c r="E182" s="5">
         <v>43555</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
+    <row r="183" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E182" s="5"/>
-    </row>
-    <row r="183" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="15" t="s">
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="B183" s="15"/>
-      <c r="C183" s="14" t="s">
+      <c r="B184" s="15"/>
+      <c r="C184" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="D183"/>
-      <c r="E183" s="5"/>
-    </row>
-    <row r="184" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
+      <c r="D184"/>
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E184" s="5">
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="5">
         <v>43562</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>417</v>
+        <v>199</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="5">
-        <v>43558</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="5">
+        <v>43558</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="5">
-        <v>43557</v>
+        <v>420</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>517</v>
+        <v>421</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>511</v>
+        <v>7</v>
       </c>
       <c r="E189" s="5">
-        <v>43562</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>519</v>
+        <v>495</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>7</v>
+        <v>511</v>
       </c>
       <c r="E190" s="5">
         <v>43562</v>
@@ -4577,24 +4597,24 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C192" s="12" t="s">
         <v>521</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E191" s="5">
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>224</v>
@@ -4603,46 +4623,45 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="193" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E193" s="5">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>524</v>
       </c>
-      <c r="B193"/>
-      <c r="C193" t="s">
+      <c r="B194"/>
+      <c r="C194" t="s">
         <v>618</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="5">
+      <c r="D194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="5">
         <v>43562</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B194"/>
-      <c r="C194" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E194" s="5">
-        <v>43561</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B195"/>
-      <c r="C195" t="s">
-        <v>528</v>
+      <c r="C195" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E195" s="5">
         <v>43561</v>
@@ -4650,58 +4669,58 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B196"/>
       <c r="C196" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E196" s="5">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B197"/>
       <c r="C197" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E197" s="5">
-        <v>43561</v>
+        <v>43562</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B198"/>
       <c r="C198" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E198" s="5">
-        <v>43562</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B199"/>
       <c r="C199" t="s">
-        <v>536</v>
-      </c>
-      <c r="D199" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E199" s="5">
@@ -4710,13 +4729,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B200"/>
       <c r="C200" t="s">
-        <v>538</v>
-      </c>
-      <c r="D200" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E200" s="5">
@@ -4725,11 +4744,11 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B201"/>
       <c r="C201" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>7</v>
@@ -4740,11 +4759,11 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="B202"/>
       <c r="C202" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>7</v>
@@ -4755,89 +4774,90 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B203"/>
       <c r="C203" t="s">
+        <v>620</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="5">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B204"/>
+      <c r="C204" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A204" s="15" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="B204" s="20"/>
-      <c r="C204" s="14" t="s">
+      <c r="B205" s="20"/>
+      <c r="C205" s="14" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B205"/>
-      <c r="C205" t="s">
-        <v>624</v>
-      </c>
-      <c r="D205"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B206"/>
       <c r="C206" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D206"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B207"/>
+      <c r="C207" t="s">
+        <v>626</v>
+      </c>
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B207"/>
-      <c r="C207" s="10" t="s">
+      <c r="B208"/>
+      <c r="C208" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="D207"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B208"/>
-      <c r="C208"/>
       <c r="D208"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B209"/>
       <c r="C209"/>
-      <c r="E209" s="5"/>
+      <c r="D209"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B210" s="1" t="s">
+      <c r="C210"/>
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B211" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>7</v>
@@ -4848,10 +4868,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>7</v>
@@ -4862,10 +4882,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>7</v>
@@ -4876,10 +4896,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>7</v>
@@ -4890,10 +4910,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>7</v>
@@ -4904,10 +4924,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>7</v>
@@ -4918,10 +4938,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>7</v>
@@ -4932,10 +4952,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>7</v>
@@ -4946,10 +4966,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>7</v>
@@ -4960,10 +4980,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>7</v>
@@ -4974,10 +4994,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>7</v>
@@ -4988,10 +5008,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>7</v>
@@ -5002,10 +5022,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>7</v>
@@ -5016,10 +5036,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>7</v>
@@ -5030,10 +5050,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>7</v>
@@ -5044,35 +5064,38 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E227" s="5">
-        <v>43562</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E228" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>7</v>
@@ -5080,10 +5103,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C230" t="s">
-        <v>463</v>
+        <v>461</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>7</v>
@@ -5091,54 +5114,51 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C231" t="s">
+        <v>463</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="5">
+      <c r="D232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" s="5">
         <v>43561</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C234" s="9" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A234" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="5">
-        <v>43562</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>7</v>
@@ -5149,10 +5169,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>7</v>
@@ -5163,10 +5183,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>7</v>
@@ -5177,104 +5197,107 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E238" s="5">
+        <v>43562</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" s="5">
-        <v>43560</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E242" s="5">
-        <v>43561</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="5">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" s="5">
+      <c r="D244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="5">
         <v>43562</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
+      <c r="D251" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>7</v>
@@ -5282,10 +5305,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>7</v>
@@ -5293,10 +5316,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>7</v>
@@ -5304,10 +5327,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>7</v>
@@ -5315,10 +5338,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>7</v>
@@ -5326,10 +5349,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>7</v>
@@ -5337,10 +5360,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>7</v>
@@ -5348,10 +5371,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>7</v>
@@ -5359,10 +5382,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>7</v>
@@ -5370,10 +5393,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>7</v>
@@ -5381,46 +5404,46 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="3" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B263" s="3"/>
-      <c r="C263" s="4" t="s">
+      <c r="B264" s="3"/>
+      <c r="C264" s="4" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>7</v>
@@ -5428,10 +5451,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>7</v>
@@ -5439,10 +5462,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>7</v>
@@ -5450,10 +5473,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>7</v>
@@ -5461,29 +5484,29 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>7</v>
@@ -5491,44 +5514,44 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A274" s="3" t="s">
+      <c r="D274" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B274" s="3"/>
-      <c r="C274" s="4" t="s">
+      <c r="B275" s="3"/>
+      <c r="C275" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D275" s="2" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A275" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>7</v>
@@ -5536,10 +5559,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>7</v>
@@ -5547,10 +5570,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>7</v>
@@ -5558,63 +5581,60 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C280" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
+      <c r="D280" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C281" t="s">
         <v>166</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E280" s="5">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A281" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D281" s="2" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="E281" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E282" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>7</v>
@@ -5625,10 +5645,10 @@
     </row>
     <row r="284" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>7</v>
@@ -5639,13 +5659,13 @@
     </row>
     <row r="285" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="E285" s="5">
         <v>43554</v>
@@ -5653,10 +5673,13 @@
     </row>
     <row r="286" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>220</v>
+        <v>170</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E286" s="5">
         <v>43554</v>
@@ -5664,13 +5687,10 @@
     </row>
     <row r="287" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E287" s="5">
         <v>43554</v>
@@ -5678,58 +5698,58 @@
     </row>
     <row r="288" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E288" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C290" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E289" s="5"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E290" s="5"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B291" s="1" t="s">
+      <c r="E291" s="5"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B292" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C292" s="2" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A292" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E292" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>7</v>
@@ -5740,10 +5760,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>7</v>
@@ -5754,64 +5774,64 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C296" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C297" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C298" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+    <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C299" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B305" s="1" t="s">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B306" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C306" s="2" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A306" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>7</v>
@@ -5822,10 +5842,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>7</v>
@@ -5839,68 +5859,79 @@
         <v>481</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>581</v>
+        <v>470</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C310" s="9" t="s">
-        <v>583</v>
+        <v>481</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E315" s="5"/>
+        <v>591</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E316" s="5"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C317" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E316" s="5"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E317" s="5"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -5916,92 +5947,84 @@
       <c r="E321" s="5"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B322" s="1" t="s">
+      <c r="E322" s="5"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B323" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C323" s="2" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A323" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" s="5">
-        <v>43555</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>293</v>
+        <v>254</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" s="5">
+        <v>43555</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C329" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B330" s="1" t="s">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B331" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C331" s="2" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A331" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>7</v>
@@ -6009,50 +6032,50 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C334" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A334" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B334" s="3"/>
-      <c r="C334" s="4" t="s">
-        <v>353</v>
+      <c r="D334" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B335" s="3"/>
       <c r="C335" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B336" s="3"/>
+      <c r="C336" s="4" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A336" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>7</v>
@@ -6060,10 +6083,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>7</v>
@@ -6071,10 +6094,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>7</v>
@@ -6082,10 +6105,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>7</v>
@@ -6093,10 +6116,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>7</v>
@@ -6104,52 +6127,52 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C342" s="2" t="s">
+      <c r="C343" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D342" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A343" s="3" t="s">
+      <c r="D343" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B343" s="3"/>
-      <c r="C343" s="6" t="s">
+      <c r="B344" s="3"/>
+      <c r="C344" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D343" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A344" s="3"/>
-      <c r="B344" s="3"/>
-      <c r="C344" s="21" t="s">
+      <c r="D344" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D344" s="22"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A345" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D345" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D345" s="22"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>7</v>
@@ -6157,10 +6180,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>7</v>
@@ -6168,10 +6191,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>7</v>
@@ -6179,10 +6202,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>7</v>
@@ -6190,24 +6213,21 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E350" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>218</v>
+        <v>355</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>7</v>
@@ -6218,57 +6238,57 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>356</v>
+        <v>218</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E352" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="E353" s="5">
+        <v>43554</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A355" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C354" s="6" t="s">
+      <c r="C355" s="6" t="s">
         <v>485</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A355" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E355" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>7</v>
@@ -6277,128 +6297,128 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" s="5">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A358" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C358" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D357" s="2" t="s">
+      <c r="D358" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A358" s="1" t="s">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C359" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D358" s="2" t="s">
+      <c r="D359" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E358" s="5">
+      <c r="E359" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A359" s="1" t="s">
+    <row r="360" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A360" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C360" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A360" s="1" t="s">
+    <row r="361" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A361" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C360" s="6" t="s">
+      <c r="C361" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D360" s="2" t="s">
+      <c r="D361" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E360" s="5">
+      <c r="E361" s="5">
         <v>43554</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A361" s="1" t="s">
+    <row r="362" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A362" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C361" s="6" t="s">
+      <c r="C362" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="E361" s="5"/>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A362" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E362" s="5"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E363" s="5">
-        <v>43559</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E363" s="5"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E364" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" s="5">
+        <v>43559</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E365" s="5">
-        <v>43559</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E365" s="5"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>7</v>
+        <v>504</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="E366" s="5">
-        <v>43555</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>7</v>
@@ -6409,57 +6429,57 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368" s="5">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C368" s="6" t="s">
+      <c r="C369" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D368" s="6" t="s">
+      <c r="D369" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E368" s="5">
+      <c r="E369" s="5">
         <v>43559</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B370" s="1" t="s">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B371" s="1" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A371" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E371" s="5">
-        <v>43554</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C372" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E372" s="5">
-        <v>43555</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C373" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>224</v>
@@ -6470,10 +6490,10 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C374" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>224</v>
@@ -6482,11 +6502,28 @@
         <v>43555</v>
       </c>
     </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E375" s="5">
+        <v>43555</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="C345:D345"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{CD64B067-CA06-4EFE-9A23-3B8B199F1EED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB7E43-4D2A-4665-99E9-CF702D04BC6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CA1D9F-7628-4761-9C44-211C41370E1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="659">
   <si>
     <t>ID</t>
   </si>
@@ -2051,9 +2057,6 @@
     <t>IS22.1</t>
   </si>
   <si>
-    <t>Done, needs content, in process</t>
-  </si>
-  <si>
     <t>Fixed.</t>
   </si>
   <si>
@@ -2074,12 +2077,33 @@
   <si>
     <t>Do we need to make custom "Message Box" for thoses single-line questions? It's related to that whole "fat-fingers" style. There are some Material-Design concepts we could use. 
 Here are some examples</t>
+  </si>
+  <si>
+    <t>Needs content, in process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Tasks: </t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>In Process:</t>
+  </si>
+  <si>
+    <t>Of the remaining tasks:</t>
+  </si>
+  <si>
+    <t>Pending:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2209,7 +2233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2273,16 +2297,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2296,7 +2356,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2320,44 +2379,82 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2669,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2680,7 +2777,7 @@
     <col min="1" max="2" width="8.7265625" style="1"/>
     <col min="3" max="3" width="84.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2700,41 +2797,32 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E2" s="1"/>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="23" t="s">
-        <v>652</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E6" s="1"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
@@ -2754,7 +2842,7 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -2768,7 +2856,7 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -2779,8 +2867,11 @@
       <c r="C11" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>7</v>
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="35">
+        <v>43563</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2790,8 +2881,11 @@
       <c r="C12" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>7</v>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="35">
+        <v>43563</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2812,7 +2906,7 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -2826,7 +2920,7 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -2837,6 +2931,12 @@
       <c r="C17" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="D17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="35">
+        <v>43563</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -2845,8 +2945,11 @@
       <c r="C18" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>647</v>
+      <c r="D18" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="E18" s="35">
+        <v>43563</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2934,7 +3037,7 @@
       <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -2945,8 +3048,11 @@
       <c r="C29" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>225</v>
+      <c r="D29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="35">
+        <v>43563</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2967,7 +3073,7 @@
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -2981,7 +3087,7 @@
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -2995,7 +3101,7 @@
       <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3009,7 +3115,7 @@
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3023,7 +3129,7 @@
       <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3037,7 +3143,7 @@
       <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3051,7 +3157,7 @@
       <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3064,11 +3170,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="16" t="s">
         <v>633</v>
       </c>
     </row>
@@ -3090,7 +3196,7 @@
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3104,7 +3210,7 @@
       <c r="D44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3125,11 +3231,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="16" t="s">
         <v>635</v>
       </c>
     </row>
@@ -3140,19 +3246,22 @@
       <c r="C48" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>7</v>
+      <c r="D48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="35">
+        <v>43563</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="22" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3174,7 +3283,7 @@
       <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3188,7 +3297,7 @@
       <c r="D53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3218,7 +3327,7 @@
       <c r="C56" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3229,7 +3338,7 @@
       <c r="C57" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="22" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3237,7 +3346,7 @@
       <c r="A58" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>605</v>
       </c>
     </row>
@@ -3245,7 +3354,7 @@
       <c r="A59" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>607</v>
       </c>
     </row>
@@ -3253,7 +3362,7 @@
       <c r="A60" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>609</v>
       </c>
     </row>
@@ -3275,7 +3384,7 @@
       <c r="D63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3286,8 +3395,8 @@
       <c r="C64" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>646</v>
+      <c r="D64" s="22" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -3297,8 +3406,8 @@
       <c r="C65" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>646</v>
+      <c r="D65" s="22" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -3308,8 +3417,8 @@
       <c r="C66" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D66" s="19" t="s">
-        <v>646</v>
+      <c r="D66" s="22" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -3319,8 +3428,8 @@
       <c r="C67" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>646</v>
+      <c r="D67" s="22" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -3330,19 +3439,19 @@
       <c r="C68" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="14" t="s">
+      <c r="B69" s="13"/>
+      <c r="C69" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="22" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3353,7 +3462,7 @@
       <c r="C70" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3364,7 +3473,7 @@
       <c r="C71" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3386,7 +3495,7 @@
       <c r="D75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3400,7 +3509,7 @@
       <c r="D76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3414,7 +3523,7 @@
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3425,7 +3534,7 @@
       <c r="C78" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3436,7 +3545,7 @@
       <c r="C79" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3447,7 +3556,7 @@
       <c r="C80" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3466,7 +3575,7 @@
       <c r="D83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="34">
         <v>43553</v>
       </c>
     </row>
@@ -3480,7 +3589,7 @@
       <c r="D84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="34">
         <v>43553</v>
       </c>
     </row>
@@ -3494,7 +3603,7 @@
       <c r="D85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="34">
         <v>43553</v>
       </c>
     </row>
@@ -3508,7 +3617,7 @@
       <c r="D86" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="34">
         <v>43553</v>
       </c>
     </row>
@@ -3523,7 +3632,7 @@
       <c r="D87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="34">
         <v>43553</v>
       </c>
     </row>
@@ -3537,7 +3646,7 @@
       <c r="D88" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="34">
         <v>43553</v>
       </c>
     </row>
@@ -3551,7 +3660,7 @@
       <c r="D89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="34">
         <v>43553</v>
       </c>
     </row>
@@ -3565,7 +3674,7 @@
       <c r="D90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3579,7 +3688,7 @@
       <c r="D91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -3593,7 +3702,7 @@
       <c r="D92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -3607,7 +3716,7 @@
       <c r="D93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="34">
         <v>43556</v>
       </c>
     </row>
@@ -3615,13 +3724,13 @@
       <c r="A94" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>341</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -3635,7 +3744,7 @@
       <c r="D95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -3649,7 +3758,7 @@
       <c r="D96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -3657,13 +3766,13 @@
       <c r="A97" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="9" t="s">
         <v>348</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="34"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
@@ -3675,22 +3784,22 @@
       <c r="D98" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="34">
         <v>43558</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="20" t="s">
+      <c r="B99" s="13"/>
+      <c r="C99" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="34"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C100" s="7"/>
+      <c r="C100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
@@ -3753,12 +3862,12 @@
       <c r="D110" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="34">
         <v>41370</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E111" s="5"/>
+      <c r="E111" s="34"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
@@ -3811,7 +3920,7 @@
       <c r="D116" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -3852,7 +3961,7 @@
       <c r="A120" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="8" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3893,7 +4002,7 @@
       <c r="A124" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="8" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4017,7 +4126,7 @@
       <c r="D135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="34">
         <v>43558</v>
       </c>
     </row>
@@ -4031,7 +4140,7 @@
       <c r="D136" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -4045,7 +4154,7 @@
       <c r="D137" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="34">
         <v>43558</v>
       </c>
     </row>
@@ -4059,7 +4168,7 @@
       <c r="D138" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4078,7 +4187,7 @@
       <c r="A140" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="8" t="s">
         <v>512</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -4089,7 +4198,7 @@
       <c r="A141" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="12" t="s">
         <v>542</v>
       </c>
     </row>
@@ -4111,7 +4220,7 @@
       <c r="D143" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4125,7 +4234,7 @@
       <c r="D144" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4139,7 +4248,7 @@
       <c r="D145" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4153,7 +4262,7 @@
       <c r="D146" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="34">
         <v>43561</v>
       </c>
     </row>
@@ -4167,7 +4276,7 @@
       <c r="D147" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4181,7 +4290,7 @@
       <c r="D148" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="34">
         <v>43561</v>
       </c>
     </row>
@@ -4195,7 +4304,7 @@
       <c r="D149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4203,7 +4312,7 @@
       <c r="A150" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="8" t="s">
         <v>611</v>
       </c>
     </row>
@@ -4211,7 +4320,7 @@
       <c r="A151" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="8" t="s">
         <v>613</v>
       </c>
     </row>
@@ -4219,7 +4328,7 @@
       <c r="A152" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="8" t="s">
         <v>615</v>
       </c>
     </row>
@@ -4227,7 +4336,7 @@
       <c r="A153" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="8" t="s">
         <v>617</v>
       </c>
     </row>
@@ -4287,7 +4396,7 @@
       <c r="A163" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -4298,7 +4407,7 @@
       <c r="A164" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="5" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4477,7 +4586,7 @@
       <c r="D180" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E180" s="5">
+      <c r="E180" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4499,7 +4608,7 @@
       <c r="D182" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E182" s="5">
+      <c r="E182" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4510,18 +4619,18 @@
       <c r="C183" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="34"/>
     </row>
     <row r="184" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="B184" s="15"/>
-      <c r="C184" s="14" t="s">
+      <c r="B184" s="13"/>
+      <c r="C184" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="D184"/>
-      <c r="E184" s="5"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="34"/>
     </row>
     <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
@@ -4533,7 +4642,7 @@
       <c r="D185" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4555,7 +4664,7 @@
       <c r="D187" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E187" s="34">
         <v>43558</v>
       </c>
     </row>
@@ -4577,7 +4686,7 @@
       <c r="D189" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -4585,13 +4694,13 @@
       <c r="A190" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="8" t="s">
         <v>517</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4599,13 +4708,13 @@
       <c r="A191" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="10" t="s">
         <v>519</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4613,13 +4722,13 @@
       <c r="A192" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="11" t="s">
         <v>521</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -4627,13 +4736,13 @@
       <c r="A193" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="11" t="s">
         <v>523</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193" s="34">
         <v>43557</v>
       </c>
     </row>
@@ -4648,7 +4757,7 @@
       <c r="D194" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4657,13 +4766,13 @@
         <v>525</v>
       </c>
       <c r="B195"/>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="9" t="s">
         <v>526</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="34">
         <v>43561</v>
       </c>
     </row>
@@ -4678,7 +4787,7 @@
       <c r="D196" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="34">
         <v>43561</v>
       </c>
     </row>
@@ -4693,7 +4802,7 @@
       <c r="D197" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4708,7 +4817,7 @@
       <c r="D198" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="34">
         <v>43561</v>
       </c>
     </row>
@@ -4723,7 +4832,7 @@
       <c r="D199" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4735,10 +4844,10 @@
       <c r="C200" t="s">
         <v>536</v>
       </c>
-      <c r="D200" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="5">
+      <c r="D200" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4753,7 +4862,7 @@
       <c r="D201" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4768,7 +4877,7 @@
       <c r="D202" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4783,7 +4892,7 @@
       <c r="D203" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E203" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -4797,11 +4906,11 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" s="15" t="s">
+      <c r="A205" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="B205" s="20"/>
-      <c r="C205" s="14" t="s">
+      <c r="B205" s="15"/>
+      <c r="C205" s="16" t="s">
         <v>643</v>
       </c>
     </row>
@@ -4813,7 +4922,7 @@
       <c r="C206" t="s">
         <v>624</v>
       </c>
-      <c r="D206"/>
+      <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
@@ -4823,26 +4932,26 @@
       <c r="C207" t="s">
         <v>626</v>
       </c>
-      <c r="D207"/>
+      <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B208"/>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="D208"/>
+      <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B209"/>
       <c r="C209"/>
-      <c r="D209"/>
+      <c r="D209" s="1"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C210"/>
-      <c r="E210" s="5"/>
+      <c r="E210" s="34"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B211" s="1" t="s">
@@ -4862,7 +4971,7 @@
       <c r="D212" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E212" s="5">
+      <c r="E212" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4876,7 +4985,7 @@
       <c r="D213" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E213" s="5">
+      <c r="E213" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4890,7 +4999,7 @@
       <c r="D214" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E214" s="5">
+      <c r="E214" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4904,7 +5013,7 @@
       <c r="D215" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E215" s="5">
+      <c r="E215" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4918,7 +5027,7 @@
       <c r="D216" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E216" s="5">
+      <c r="E216" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4932,7 +5041,7 @@
       <c r="D217" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E217" s="5">
+      <c r="E217" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4946,7 +5055,7 @@
       <c r="D218" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E218" s="5">
+      <c r="E218" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4960,7 +5069,7 @@
       <c r="D219" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E219" s="5">
+      <c r="E219" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4974,7 +5083,7 @@
       <c r="D220" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E220" s="5">
+      <c r="E220" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -4988,7 +5097,7 @@
       <c r="D221" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E221" s="5">
+      <c r="E221" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5002,7 +5111,7 @@
       <c r="D222" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E222" s="5">
+      <c r="E222" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5016,7 +5125,7 @@
       <c r="D223" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E223" s="5">
+      <c r="E223" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5030,7 +5139,7 @@
       <c r="D224" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E224" s="5">
+      <c r="E224" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5044,7 +5153,7 @@
       <c r="D225" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E225" s="5">
+      <c r="E225" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5058,7 +5167,7 @@
       <c r="D226" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E226" s="5">
+      <c r="E226" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5072,7 +5181,7 @@
       <c r="D227" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E227" s="5">
+      <c r="E227" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5086,7 +5195,7 @@
       <c r="D228" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E228" s="5">
+      <c r="E228" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -5133,7 +5242,7 @@
       <c r="D232" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E232" s="5">
+      <c r="E232" s="34">
         <v>43561</v>
       </c>
     </row>
@@ -5149,7 +5258,7 @@
       <c r="A234" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="8" t="s">
         <v>562</v>
       </c>
     </row>
@@ -5163,7 +5272,7 @@
       <c r="D235" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E235" s="5">
+      <c r="E235" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -5177,7 +5286,7 @@
       <c r="D236" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E236" s="5">
+      <c r="E236" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -5191,7 +5300,7 @@
       <c r="D237" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E237" s="5">
+      <c r="E237" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -5205,7 +5314,7 @@
       <c r="D238" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="5">
+      <c r="E238" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -5246,7 +5355,7 @@
       <c r="D242" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E242" s="5">
+      <c r="E242" s="34">
         <v>43560</v>
       </c>
     </row>
@@ -5260,7 +5369,7 @@
       <c r="D243" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E243" s="5">
+      <c r="E243" s="34">
         <v>43561</v>
       </c>
     </row>
@@ -5274,7 +5383,7 @@
       <c r="D244" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E244" s="5">
+      <c r="E244" s="34">
         <v>43562</v>
       </c>
     </row>
@@ -5611,7 +5720,7 @@
       <c r="D281" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E281" s="5">
+      <c r="E281" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5625,7 +5734,7 @@
       <c r="D282" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E282" s="5">
+      <c r="E282" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5639,7 +5748,7 @@
       <c r="D283" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E283" s="5">
+      <c r="E283" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5653,7 +5762,7 @@
       <c r="D284" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E284" s="5">
+      <c r="E284" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5667,7 +5776,7 @@
       <c r="D285" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E285" s="5">
+      <c r="E285" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5681,7 +5790,7 @@
       <c r="D286" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E286" s="5">
+      <c r="E286" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5692,7 +5801,7 @@
       <c r="C287" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E287" s="5">
+      <c r="E287" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5706,7 +5815,7 @@
       <c r="D288" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E288" s="5">
+      <c r="E288" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5720,7 +5829,7 @@
       <c r="D289" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E289" s="5">
+      <c r="E289" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -5731,10 +5840,10 @@
       <c r="C290" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E290" s="5"/>
+      <c r="E290" s="34"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E291" s="5"/>
+      <c r="E291" s="34"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B292" s="1" t="s">
@@ -5754,7 +5863,7 @@
       <c r="D293" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E293" s="5">
+      <c r="E293" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5768,7 +5877,7 @@
       <c r="D294" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E294" s="5">
+      <c r="E294" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5782,7 +5891,7 @@
       <c r="D295" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E295" s="5">
+      <c r="E295" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5810,7 +5919,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>600</v>
       </c>
@@ -5836,7 +5945,7 @@
       <c r="D307" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E307" s="5">
+      <c r="E307" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5850,7 +5959,7 @@
       <c r="D308" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E308" s="5">
+      <c r="E308" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5864,7 +5973,7 @@
       <c r="D309" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E309" s="5">
+      <c r="E309" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -5880,7 +5989,7 @@
       <c r="A311" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C311" s="9" t="s">
+      <c r="C311" s="8" t="s">
         <v>583</v>
       </c>
     </row>
@@ -5923,7 +6032,7 @@
       <c r="C316" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E316" s="5"/>
+      <c r="E316" s="34"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
@@ -5932,22 +6041,22 @@
       <c r="C317" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E317" s="5"/>
+      <c r="E317" s="34"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E318" s="5"/>
+      <c r="E318" s="34"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E319" s="5"/>
+      <c r="E319" s="34"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E320" s="5"/>
+      <c r="E320" s="34"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E321" s="5"/>
+      <c r="E321" s="34"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E322" s="5"/>
+      <c r="E322" s="34"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B323" s="1" t="s">
@@ -5967,7 +6076,7 @@
       <c r="D324" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E324" s="5">
+      <c r="E324" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -6152,7 +6261,7 @@
         <v>153</v>
       </c>
       <c r="B344" s="3"/>
-      <c r="C344" s="6" t="s">
+      <c r="C344" s="5" t="s">
         <v>339</v>
       </c>
       <c r="D344" s="2" t="s">
@@ -6162,10 +6271,10 @@
     <row r="345" spans="1:5" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="21" t="s">
+      <c r="C345" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="D345" s="22"/>
+      <c r="D345" s="33"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
@@ -6232,7 +6341,7 @@
       <c r="D351" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E351" s="5">
+      <c r="E351" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6246,7 +6355,7 @@
       <c r="D352" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E352" s="5">
+      <c r="E352" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6260,7 +6369,7 @@
       <c r="D353" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E353" s="5">
+      <c r="E353" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6279,7 +6388,7 @@
       <c r="A355" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C355" s="6" t="s">
+      <c r="C355" s="5" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6293,7 +6402,7 @@
       <c r="D356" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E356" s="5">
+      <c r="E356" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6307,7 +6416,7 @@
       <c r="D357" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E357" s="5">
+      <c r="E357" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6332,7 +6441,7 @@
       <c r="D359" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E359" s="5">
+      <c r="E359" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6348,13 +6457,13 @@
       <c r="A361" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C361" s="6" t="s">
+      <c r="C361" s="5" t="s">
         <v>338</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E361" s="5">
+      <c r="E361" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6362,10 +6471,10 @@
       <c r="A362" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C362" s="6" t="s">
+      <c r="C362" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="E362" s="5"/>
+      <c r="E362" s="34"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
@@ -6374,7 +6483,7 @@
       <c r="C363" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E363" s="5"/>
+      <c r="E363" s="34"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
@@ -6386,7 +6495,7 @@
       <c r="D364" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E364" s="5">
+      <c r="E364" s="34">
         <v>43559</v>
       </c>
     </row>
@@ -6397,19 +6506,19 @@
       <c r="C365" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E365" s="5"/>
+      <c r="E365" s="34"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C366" s="6" t="s">
+      <c r="C366" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="D366" s="6" t="s">
+      <c r="D366" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E366" s="5">
+      <c r="E366" s="34">
         <v>43559</v>
       </c>
     </row>
@@ -6423,7 +6532,7 @@
       <c r="D367" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E367" s="5">
+      <c r="E367" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -6437,7 +6546,7 @@
       <c r="D368" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E368" s="5">
+      <c r="E368" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -6445,13 +6554,13 @@
       <c r="A369" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C369" s="6" t="s">
+      <c r="C369" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D369" s="6" t="s">
+      <c r="D369" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E369" s="5">
+      <c r="E369" s="34">
         <v>43559</v>
       </c>
     </row>
@@ -6470,7 +6579,7 @@
       <c r="D372" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E372" s="5">
+      <c r="E372" s="34">
         <v>43554</v>
       </c>
     </row>
@@ -6478,13 +6587,13 @@
       <c r="A373" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C373" s="9" t="s">
+      <c r="C373" s="8" t="s">
         <v>233</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E373" s="5">
+      <c r="E373" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -6492,13 +6601,13 @@
       <c r="A374" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C374" s="9" t="s">
+      <c r="C374" s="8" t="s">
         <v>234</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E374" s="5">
+      <c r="E374" s="34">
         <v>43555</v>
       </c>
     </row>
@@ -6506,14 +6615,73 @@
       <c r="A375" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C375" s="9" t="s">
+      <c r="C375" s="8" t="s">
         <v>235</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E375" s="5">
+      <c r="E375" s="34">
         <v>43555</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="378" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="27"/>
+      <c r="B378" s="27"/>
+      <c r="C378" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="D378" s="29">
+        <f>COUNTA($D$1:$D376)</f>
+        <v>242</v>
+      </c>
+      <c r="E378" s="36"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C379" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="D379" s="25">
+        <f>COUNTIF($D$1:$D377, "=Done")</f>
+        <v>207</v>
+      </c>
+      <c r="E379" s="26">
+        <f>$D379/$D$378</f>
+        <v>0.85537190082644632</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C380" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="D380" s="25"/>
+      <c r="E380" s="26"/>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C381" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="D381" s="25">
+        <f>COUNTIF($D$1:$D378, "=In process")</f>
+        <v>8</v>
+      </c>
+      <c r="E381" s="26">
+        <f>$D381/($D$378 - $D$379)</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C382" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="D382" s="25">
+        <f>COUNTIF($D$1:$D379, "=Pending")</f>
+        <v>10</v>
+      </c>
+      <c r="E382" s="26">
+        <f>$D382/($D$378 - $D$379)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF05C913-627F-4A1D-8FEC-A3F00B08ADA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE67B509-B41B-4C56-A7EC-790863A1D5F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1815" windowWidth="29880" windowHeight="28335" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="24720" yWindow="6960" windowWidth="18180" windowHeight="22560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="763">
   <si>
     <t>ID</t>
   </si>
@@ -3269,6 +3269,18 @@
   </si>
   <si>
     <t>QC Inventory</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Update Copy, Add and Delete functions with new/replacement PNG files which have been supplied in BDC_75x75.zip</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>The difference in color of the last two tab headers needs to be greater. Make the last much darker blue.</t>
   </si>
 </sst>
 </file>
@@ -3685,12 +3697,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3752,6 +3758,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4074,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,35 +4101,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -4139,15 +4151,15 @@
       <c r="D5" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -4206,15 +4218,15 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4273,15 +4285,15 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -4344,13 +4356,13 @@
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -4381,15 +4393,15 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="37"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -4603,15 +4615,15 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="37"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="35"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -4695,15 +4707,15 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="37"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="35"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -4844,15 +4856,15 @@
       <c r="C72"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37" t="s">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="37"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="35"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4994,15 +5006,15 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37" t="s">
+      <c r="A88" s="35"/>
+      <c r="B88" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="37"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="35"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -5116,13 +5128,13 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37" t="s">
+      <c r="A99" s="35"/>
+      <c r="B99" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="37"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="35"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -5332,7 +5344,7 @@
         <v>224</v>
       </c>
       <c r="E114" s="31"/>
-      <c r="F114" s="45" t="s">
+      <c r="F114" s="43" t="s">
         <v>693</v>
       </c>
     </row>
@@ -5367,23 +5379,23 @@
       <c r="B117" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C117" s="46" t="s">
+      <c r="C117" s="44" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="46"/>
+      <c r="C118" s="44"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="37" t="s">
+      <c r="A119" s="35"/>
+      <c r="B119" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="38"/>
-      <c r="E119" s="37"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="35"/>
     </row>
     <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -5402,13 +5414,13 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="37" t="s">
+      <c r="A125" s="45"/>
+      <c r="B125" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="37"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="35"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -5450,15 +5462,15 @@
       <c r="E129" s="31"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37" t="s">
+      <c r="A130" s="35"/>
+      <c r="B130" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="37"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="35"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -5547,7 +5559,7 @@
       <c r="C138" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F138" s="45" t="s">
+      <c r="F138" s="43" t="s">
         <v>696</v>
       </c>
     </row>
@@ -5591,7 +5603,7 @@
       <c r="C142" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F142" s="45" t="s">
+      <c r="F142" s="43" t="s">
         <v>696</v>
       </c>
     </row>
@@ -5606,7 +5618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>393</v>
       </c>
@@ -5617,7 +5629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>395</v>
       </c>
@@ -5628,7 +5640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>397</v>
       </c>
@@ -5639,7 +5651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>399</v>
       </c>
@@ -5650,7 +5662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>401</v>
       </c>
@@ -5661,7 +5673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>403</v>
       </c>
@@ -5672,7 +5684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>405</v>
       </c>
@@ -5683,7 +5695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>407</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>409</v>
       </c>
@@ -5705,7 +5717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>496</v>
       </c>
@@ -5719,7 +5731,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>499</v>
       </c>
@@ -5733,7 +5745,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>512</v>
       </c>
@@ -5747,7 +5759,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>513</v>
       </c>
@@ -5761,7 +5773,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>514</v>
       </c>
@@ -5782,7 +5794,7 @@
       <c r="D158" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F158" s="45" t="s">
+      <c r="F158" s="43" t="s">
         <v>697</v>
       </c>
     </row>
@@ -5793,11 +5805,11 @@
       <c r="C159" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="F159" s="45" t="s">
+      <c r="F159" s="43" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>542</v>
       </c>
@@ -5805,7 +5817,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>544</v>
       </c>
@@ -5819,7 +5831,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>546</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>548</v>
       </c>
@@ -5847,7 +5859,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>552</v>
       </c>
@@ -5861,7 +5873,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>554</v>
       </c>
@@ -5896,11 +5908,11 @@
       <c r="B167" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C167" s="46" t="s">
+      <c r="C167" s="44" t="s">
         <v>695</v>
       </c>
-      <c r="E167" s="48"/>
-      <c r="F167" s="49"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="47"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -5923,7 +5935,7 @@
       <c r="C169" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F169" s="45" t="s">
+      <c r="F169" s="43" t="s">
         <v>693</v>
       </c>
     </row>
@@ -5943,7 +5955,7 @@
         <v>700</v>
       </c>
       <c r="E171"/>
-      <c r="F171" s="49"/>
+      <c r="F171" s="47"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -5961,7 +5973,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>108</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>107</v>
       </c>
@@ -5980,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>113</v>
       </c>
@@ -5991,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>114</v>
       </c>
@@ -6002,7 +6014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>115</v>
       </c>
@@ -6023,11 +6035,11 @@
       <c r="D183" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F183" s="45" t="s">
+      <c r="F183" s="43" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>490</v>
       </c>
@@ -6035,7 +6047,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>133</v>
       </c>
@@ -6046,7 +6058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>134</v>
       </c>
@@ -6057,7 +6069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>135</v>
       </c>
@@ -6101,7 +6113,7 @@
         <v>702</v>
       </c>
       <c r="E190"/>
-      <c r="F190" s="49"/>
+      <c r="F190" s="47"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
@@ -6125,7 +6137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>140</v>
       </c>
@@ -6136,7 +6148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>141</v>
       </c>
@@ -6147,7 +6159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>142</v>
       </c>
@@ -6158,7 +6170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>143</v>
       </c>
@@ -6169,7 +6181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>144</v>
       </c>
@@ -6180,7 +6192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>145</v>
       </c>
@@ -6191,7 +6203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>146</v>
       </c>
@@ -6202,7 +6214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>147</v>
       </c>
@@ -6213,7 +6225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>191</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>193</v>
       </c>
@@ -6248,11 +6260,11 @@
       <c r="E203" s="31">
         <v>43555</v>
       </c>
-      <c r="F203" s="50" t="s">
+      <c r="F203" s="48" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="116.1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>492</v>
       </c>
@@ -6261,7 +6273,7 @@
       </c>
       <c r="E204" s="31"/>
     </row>
-    <row r="205" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>642</v>
       </c>
@@ -6272,7 +6284,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="31"/>
     </row>
-    <row r="206" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>197</v>
       </c>
@@ -6286,7 +6298,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>199</v>
       </c>
@@ -6294,7 +6306,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>417</v>
       </c>
@@ -6308,7 +6320,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>419</v>
       </c>
@@ -6316,7 +6328,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>421</v>
       </c>
@@ -6330,7 +6342,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>494</v>
       </c>
@@ -6344,7 +6356,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>517</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>519</v>
       </c>
@@ -6396,8 +6408,8 @@
       <c r="C215" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="E215" s="48"/>
-      <c r="F215" s="49"/>
+      <c r="E215" s="46"/>
+      <c r="F215" s="47"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -6428,11 +6440,11 @@
       <c r="E217" s="31">
         <v>43561</v>
       </c>
-      <c r="F217" s="45" t="s">
+      <c r="F217" s="43" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>526</v>
       </c>
@@ -6447,7 +6459,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>528</v>
       </c>
@@ -6484,11 +6496,11 @@
       <c r="B221" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C221" s="46" t="s">
+      <c r="C221" s="44" t="s">
         <v>695</v>
       </c>
-      <c r="E221" s="48"/>
-      <c r="F221" s="49"/>
+      <c r="E221" s="46"/>
+      <c r="F221" s="47"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -6505,7 +6517,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>534</v>
       </c>
@@ -6520,7 +6532,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>536</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>538</v>
       </c>
@@ -6550,7 +6562,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>618</v>
       </c>
@@ -6601,7 +6613,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>624</v>
       </c>
@@ -6622,7 +6634,7 @@
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="51" t="s">
+      <c r="A232" s="49" t="s">
         <v>711</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -6633,10 +6645,10 @@
       </c>
       <c r="D232"/>
       <c r="E232"/>
-      <c r="F232" s="49"/>
+      <c r="F232" s="47"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="51" t="s">
+      <c r="A233" s="49" t="s">
         <v>713</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -6647,21 +6659,21 @@
       </c>
       <c r="D233"/>
       <c r="E233"/>
-      <c r="F233" s="49"/>
+      <c r="F233" s="47"/>
     </row>
     <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="51" t="s">
+      <c r="A234" s="49" t="s">
         <v>715</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C234" s="52" t="s">
+      <c r="C234" s="50" t="s">
         <v>716</v>
       </c>
       <c r="D234"/>
       <c r="E234"/>
-      <c r="F234" s="49"/>
+      <c r="F234" s="47"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B235"/>
@@ -6703,22 +6715,22 @@
       <c r="C242"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C243"/>
       <c r="E243" s="31"/>
     </row>
-    <row r="244" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="37"/>
-      <c r="B244" s="37" t="s">
+    <row r="244" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="35"/>
+      <c r="B244" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="C244" s="38" t="s">
+      <c r="C244" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D244" s="38"/>
-      <c r="E244" s="37"/>
-    </row>
-    <row r="245" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D244" s="36"/>
+      <c r="E244" s="35"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>424</v>
       </c>
@@ -6732,7 +6744,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>426</v>
       </c>
@@ -6746,7 +6758,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>428</v>
       </c>
@@ -6760,7 +6772,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>430</v>
       </c>
@@ -6774,7 +6786,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>432</v>
       </c>
@@ -6788,7 +6800,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>434</v>
       </c>
@@ -6802,7 +6814,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>436</v>
       </c>
@@ -6816,7 +6828,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>437</v>
       </c>
@@ -6830,7 +6842,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>440</v>
       </c>
@@ -6868,8 +6880,8 @@
       <c r="C255" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="E255" s="48"/>
-      <c r="F255" s="49"/>
+      <c r="E255" s="46"/>
+      <c r="F255" s="47"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
@@ -6895,8 +6907,8 @@
       <c r="C257" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="E257" s="48"/>
-      <c r="F257" s="49"/>
+      <c r="E257" s="46"/>
+      <c r="F257" s="47"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
@@ -6912,7 +6924,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>448</v>
       </c>
@@ -6926,7 +6938,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>450</v>
       </c>
@@ -6940,7 +6952,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>452</v>
       </c>
@@ -6954,7 +6966,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>454</v>
       </c>
@@ -6968,7 +6980,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>457</v>
       </c>
@@ -6982,7 +6994,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>460</v>
       </c>
@@ -6993,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>461</v>
       </c>
@@ -7004,7 +7016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>462</v>
       </c>
@@ -7015,7 +7027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>464</v>
       </c>
@@ -7029,7 +7041,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>465</v>
       </c>
@@ -7056,7 +7068,7 @@
         <v>561</v>
       </c>
       <c r="E270"/>
-      <c r="F270" s="53" t="s">
+      <c r="F270" s="51" t="s">
         <v>721</v>
       </c>
     </row>
@@ -7074,7 +7086,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>564</v>
       </c>
@@ -7112,8 +7124,8 @@
       <c r="C274" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="E274" s="48"/>
-      <c r="F274" s="49"/>
+      <c r="E274" s="46"/>
+      <c r="F274" s="47"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
@@ -7129,7 +7141,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>570</v>
       </c>
@@ -7140,7 +7152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>572</v>
       </c>
@@ -7148,7 +7160,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>574</v>
       </c>
@@ -7156,7 +7168,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>576</v>
       </c>
@@ -7170,7 +7182,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>578</v>
       </c>
@@ -7184,7 +7196,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>629</v>
       </c>
@@ -7199,21 +7211,21 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="37" t="s">
+      <c r="A288" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C288" s="38" t="s">
+      <c r="C288" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D288" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E288" s="37"/>
-    </row>
-    <row r="289" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="D288" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="35"/>
+    </row>
+    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>203</v>
       </c>
@@ -7224,7 +7236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>9</v>
       </c>
@@ -7235,7 +7247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>20</v>
       </c>
@@ -7246,7 +7258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>21</v>
       </c>
@@ -7257,7 +7269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>22</v>
       </c>
@@ -7268,7 +7280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>23</v>
       </c>
@@ -7279,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>24</v>
       </c>
@@ -7290,7 +7302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>25</v>
       </c>
@@ -7301,7 +7313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>26</v>
       </c>
@@ -7312,7 +7324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>27</v>
       </c>
@@ -7323,7 +7335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>28</v>
       </c>
@@ -7341,11 +7353,11 @@
       <c r="C300" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F300" s="49" t="s">
+      <c r="F300" s="47" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>206</v>
       </c>
@@ -7354,7 +7366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>205</v>
       </c>
@@ -7362,7 +7374,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>30</v>
       </c>
@@ -7373,7 +7385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>43</v>
       </c>
@@ -7384,7 +7396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>44</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>45</v>
       </c>
@@ -7406,7 +7418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>46</v>
       </c>
@@ -7417,7 +7429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>47</v>
       </c>
@@ -7425,7 +7437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>48</v>
       </c>
@@ -7436,7 +7448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>49</v>
       </c>
@@ -7447,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>50</v>
       </c>
@@ -7469,11 +7481,11 @@
       <c r="D312" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F312" s="49" t="s">
+      <c r="F312" s="47" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>51</v>
       </c>
@@ -7484,7 +7496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>52</v>
       </c>
@@ -7495,7 +7507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>53</v>
       </c>
@@ -7506,7 +7518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>54</v>
       </c>
@@ -7517,7 +7529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>164</v>
       </c>
@@ -7528,7 +7540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>172</v>
       </c>
@@ -7542,7 +7554,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>173</v>
       </c>
@@ -7556,7 +7568,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>213</v>
       </c>
@@ -7570,7 +7582,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>174</v>
       </c>
@@ -7584,7 +7596,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>175</v>
       </c>
@@ -7598,7 +7610,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>176</v>
       </c>
@@ -7612,7 +7624,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>209</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>177</v>
       </c>
@@ -7637,7 +7649,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>211</v>
       </c>
@@ -7670,61 +7682,61 @@
       <c r="C328" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="E328" s="48"/>
-      <c r="F328" s="49"/>
+      <c r="E328" s="46"/>
+      <c r="F328" s="47"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C329" s="11"/>
-      <c r="E329" s="48"/>
-      <c r="F329" s="49"/>
+      <c r="E329" s="46"/>
+      <c r="F329" s="47"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C330" s="11"/>
-      <c r="E330" s="48"/>
-      <c r="F330" s="49"/>
+      <c r="E330" s="46"/>
+      <c r="F330" s="47"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C331" s="11"/>
-      <c r="E331" s="48"/>
-      <c r="F331" s="49"/>
+      <c r="E331" s="46"/>
+      <c r="F331" s="47"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C332" s="11"/>
-      <c r="E332" s="48"/>
-      <c r="F332" s="49"/>
+      <c r="E332" s="46"/>
+      <c r="F332" s="47"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C333" s="11"/>
-      <c r="E333" s="48"/>
-      <c r="F333" s="49"/>
+      <c r="E333" s="46"/>
+      <c r="F333" s="47"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C334" s="11"/>
-      <c r="E334" s="48"/>
-      <c r="F334" s="49"/>
+      <c r="E334" s="46"/>
+      <c r="F334" s="47"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C335" s="11"/>
-      <c r="E335" s="48"/>
-      <c r="F335" s="49"/>
+      <c r="E335" s="46"/>
+      <c r="F335" s="47"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C336" s="11"/>
-      <c r="E336" s="48"/>
-      <c r="F336" s="49"/>
+      <c r="E336" s="46"/>
+      <c r="F336" s="47"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="37"/>
-      <c r="B337" s="37" t="s">
+      <c r="A337" s="35"/>
+      <c r="B337" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="C337" s="38" t="s">
+      <c r="C337" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="D337" s="38"/>
-      <c r="E337" s="37"/>
-    </row>
-    <row r="338" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D337" s="36"/>
+      <c r="E337" s="35"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>472</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>473</v>
       </c>
@@ -7776,8 +7788,8 @@
       <c r="C341" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="E341" s="48"/>
-      <c r="F341" s="49"/>
+      <c r="E341" s="46"/>
+      <c r="F341" s="47"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
@@ -7786,8 +7798,8 @@
       <c r="C342" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="E342" s="48"/>
-      <c r="F342" s="49"/>
+      <c r="E342" s="46"/>
+      <c r="F342" s="47"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
@@ -7800,7 +7812,7 @@
         <v>732</v>
       </c>
       <c r="E343"/>
-      <c r="F343" s="49"/>
+      <c r="F343" s="47"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
@@ -7810,7 +7822,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>597</v>
       </c>
@@ -7818,7 +7830,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>599</v>
       </c>
@@ -7827,15 +7839,15 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="37"/>
-      <c r="B353" s="37" t="s">
+      <c r="A353" s="35"/>
+      <c r="B353" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="C353" s="38" t="s">
+      <c r="C353" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="D353" s="38"/>
-      <c r="E353" s="37"/>
+      <c r="D353" s="36"/>
+      <c r="E353" s="35"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
@@ -7861,8 +7873,8 @@
       <c r="C355" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="E355" s="48"/>
-      <c r="F355" s="49"/>
+      <c r="E355" s="46"/>
+      <c r="F355" s="47"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
@@ -7878,7 +7890,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>480</v>
       </c>
@@ -7910,8 +7922,8 @@
       <c r="C359" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="E359" s="48"/>
-      <c r="F359" s="49"/>
+      <c r="E359" s="46"/>
+      <c r="F359" s="47"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
@@ -7920,8 +7932,8 @@
       <c r="C360" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="E360" s="48"/>
-      <c r="F360" s="49"/>
+      <c r="E360" s="46"/>
+      <c r="F360" s="47"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
@@ -7942,7 +7954,7 @@
         <v>738</v>
       </c>
       <c r="E362"/>
-      <c r="F362" s="49"/>
+      <c r="F362" s="47"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
@@ -7952,7 +7964,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>584</v>
       </c>
@@ -7960,7 +7972,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>586</v>
       </c>
@@ -7968,7 +7980,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>589</v>
       </c>
@@ -7976,7 +7988,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>591</v>
       </c>
@@ -7985,7 +7997,7 @@
       </c>
       <c r="E367" s="31"/>
     </row>
-    <row r="368" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>593</v>
       </c>
@@ -7994,33 +8006,33 @@
       </c>
       <c r="E368" s="31"/>
     </row>
-    <row r="369" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E369" s="31"/>
     </row>
-    <row r="370" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E370" s="31"/>
     </row>
-    <row r="371" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E371" s="31"/>
     </row>
-    <row r="372" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E372" s="31"/>
     </row>
-    <row r="373" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E373" s="31"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="37"/>
-      <c r="B374" s="37" t="s">
+      <c r="A374" s="35"/>
+      <c r="B374" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C374" s="38" t="s">
+      <c r="C374" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="D374" s="38"/>
-      <c r="E374" s="37"/>
-    </row>
-    <row r="375" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D374" s="36"/>
+      <c r="E374" s="35"/>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>291</v>
       </c>
@@ -8034,7 +8046,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>292</v>
       </c>
@@ -8042,7 +8054,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>294</v>
       </c>
@@ -8050,7 +8062,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>296</v>
       </c>
@@ -8058,7 +8070,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>298</v>
       </c>
@@ -8066,7 +8078,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>321</v>
       </c>
@@ -8075,17 +8087,17 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="37"/>
-      <c r="B382" s="37" t="s">
+      <c r="A382" s="35"/>
+      <c r="B382" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C382" s="38" t="s">
+      <c r="C382" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="D382" s="38"/>
-      <c r="E382" s="47"/>
-    </row>
-    <row r="383" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D382" s="36"/>
+      <c r="E382" s="45"/>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>55</v>
       </c>
@@ -8096,7 +8108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>60</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>61</v>
       </c>
@@ -8126,7 +8138,7 @@
       <c r="C386" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F386" s="45" t="s">
+      <c r="F386" s="43" t="s">
         <v>743</v>
       </c>
     </row>
@@ -8138,11 +8150,11 @@
       <c r="C387" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F387" s="45" t="s">
+      <c r="F387" s="43" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>62</v>
       </c>
@@ -8175,7 +8187,7 @@
         <v>740</v>
       </c>
       <c r="E390"/>
-      <c r="F390" s="49"/>
+      <c r="F390" s="47"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
@@ -8188,7 +8200,7 @@
         <v>742</v>
       </c>
       <c r="E391"/>
-      <c r="F391" s="49"/>
+      <c r="F391" s="47"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
@@ -8201,7 +8213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>68</v>
       </c>
@@ -8212,7 +8224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>70</v>
       </c>
@@ -8223,7 +8235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>72</v>
       </c>
@@ -8234,7 +8246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>74</v>
       </c>
@@ -8245,7 +8257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>153</v>
       </c>
@@ -8257,15 +8269,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:6" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="34" t="s">
+      <c r="C398" s="61" t="s">
         <v>482</v>
       </c>
-      <c r="D398" s="35"/>
-    </row>
-    <row r="399" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="D398" s="62"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>76</v>
       </c>
@@ -8276,7 +8288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>78</v>
       </c>
@@ -8287,7 +8299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>80</v>
       </c>
@@ -8298,7 +8310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>82</v>
       </c>
@@ -8309,7 +8321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>84</v>
       </c>
@@ -8320,7 +8332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>178</v>
       </c>
@@ -8334,7 +8346,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>215</v>
       </c>
@@ -8348,7 +8360,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>180</v>
       </c>
@@ -8362,7 +8374,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>222</v>
       </c>
@@ -8373,7 +8385,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>483</v>
       </c>
@@ -8381,7 +8393,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>181</v>
       </c>
@@ -8395,7 +8407,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>182</v>
       </c>
@@ -8409,7 +8421,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>183</v>
       </c>
@@ -8420,7 +8432,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>216</v>
       </c>
@@ -8434,7 +8446,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>184</v>
       </c>
@@ -8455,11 +8467,11 @@
       <c r="E414" s="31">
         <v>43554</v>
       </c>
-      <c r="F414" s="45" t="s">
+      <c r="F414" s="43" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>485</v>
       </c>
@@ -8468,7 +8480,7 @@
       </c>
       <c r="E415" s="31"/>
     </row>
-    <row r="416" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>236</v>
       </c>
@@ -8477,7 +8489,7 @@
       </c>
       <c r="E416" s="31"/>
     </row>
-    <row r="417" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>361</v>
       </c>
@@ -8491,7 +8503,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>363</v>
       </c>
@@ -8504,20 +8516,20 @@
       <c r="A419" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C419" s="40" t="s">
+      <c r="C419" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="D419" s="40" t="s">
+      <c r="D419" s="38" t="s">
         <v>7</v>
       </c>
       <c r="E419" s="31">
         <v>43559</v>
       </c>
-      <c r="F419" s="45" t="s">
+      <c r="F419" s="43" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>238</v>
       </c>
@@ -8531,7 +8543,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>240</v>
       </c>
@@ -8549,166 +8561,230 @@
       <c r="A422" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C422" s="40" t="s">
+      <c r="C422" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="D422" s="40" t="s">
+      <c r="D422" s="38" t="s">
         <v>7</v>
       </c>
       <c r="E422" s="31">
         <v>43559</v>
       </c>
-      <c r="F422" s="45" t="s">
+      <c r="F422" s="43" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B424" s="1" t="s">
+    <row r="423" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D423" s="38"/>
+      <c r="E423" s="31"/>
+      <c r="F423" s="43"/>
+    </row>
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D424" s="38"/>
+      <c r="E424" s="31"/>
+      <c r="F424" s="43"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C425" s="38"/>
+      <c r="D425" s="38"/>
+      <c r="E425" s="31"/>
+      <c r="F425" s="43"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C426" s="38"/>
+      <c r="D426" s="38"/>
+      <c r="E426" s="31"/>
+      <c r="F426" s="43"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C427" s="38"/>
+      <c r="D427" s="38"/>
+      <c r="E427" s="31"/>
+      <c r="F427" s="43"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C428" s="38"/>
+      <c r="D428" s="38"/>
+      <c r="E428" s="31"/>
+      <c r="F428" s="43"/>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C429" s="38"/>
+      <c r="D429" s="38"/>
+      <c r="E429" s="31"/>
+      <c r="F429" s="43"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C430" s="38"/>
+      <c r="D430" s="38"/>
+      <c r="E430" s="31"/>
+      <c r="F430" s="43"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C431" s="38"/>
+      <c r="D431" s="38"/>
+      <c r="E431" s="31"/>
+      <c r="F431" s="43"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B433" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A425" s="1" t="s">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C434" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D425" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E425" s="31">
+      <c r="D434" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E434" s="31">
         <v>43554</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A426" s="1" t="s">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C435" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D426" s="2" t="s">
+      <c r="D435" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E426" s="31">
+      <c r="E435" s="31">
         <v>43555</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A427" s="1" t="s">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C427" s="7" t="s">
+      <c r="C436" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D427" s="2" t="s">
+      <c r="D436" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E427" s="31">
+      <c r="E436" s="31">
         <v>43555</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C437" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D428" s="2" t="s">
+      <c r="D437" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E428" s="31">
+      <c r="E437" s="31">
         <v>43555</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C429" s="11" t="s">
+      <c r="C438" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="E429"/>
-      <c r="F429" s="49"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+      <c r="E438"/>
+      <c r="F438" s="47"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C430" s="11" t="s">
+      <c r="C439" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="E430"/>
-      <c r="F430" s="49"/>
-    </row>
-    <row r="431" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C431" s="11"/>
-      <c r="E431"/>
-      <c r="F431" s="49"/>
-    </row>
-    <row r="432" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="26"/>
-      <c r="B432" s="26"/>
-      <c r="C432" s="27" t="s">
+      <c r="E439"/>
+      <c r="F439" s="47"/>
+    </row>
+    <row r="440" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="11"/>
+      <c r="E440"/>
+      <c r="F440" s="47"/>
+    </row>
+    <row r="441" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="26"/>
+      <c r="B441" s="26"/>
+      <c r="C441" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="D432" s="28">
-        <f>COUNTA($D$1:$D429)</f>
+      <c r="D441" s="28">
+        <f>COUNTA($D$1:$D438)</f>
         <v>245</v>
       </c>
-      <c r="E432" s="33"/>
-    </row>
-    <row r="433" spans="3:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="C433" s="23" t="s">
+      <c r="E441" s="33"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C442" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="D433" s="24">
-        <f>COUNTIF($D$1:$D430, "=Done")</f>
+      <c r="D442" s="24">
+        <f>COUNTIF($D$1:$D439, "=Done")</f>
         <v>209</v>
       </c>
-      <c r="E433" s="25">
-        <f>$D433/$D$432</f>
+      <c r="E442" s="25">
+        <f>$D442/$D$441</f>
         <v>0.85306122448979593</v>
       </c>
     </row>
-    <row r="434" spans="3:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="C434" s="29" t="s">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C443" s="29" t="s">
         <v>654</v>
       </c>
-      <c r="D434" s="24"/>
-      <c r="E434" s="25"/>
-    </row>
-    <row r="435" spans="3:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="C435" s="30" t="s">
+      <c r="D443" s="24"/>
+      <c r="E443" s="25"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C444" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="D435" s="24">
-        <f>COUNTIF($D$1:$D432, "=In process")</f>
+      <c r="D444" s="24">
+        <f>COUNTIF($D$1:$D441, "=In process")</f>
         <v>6</v>
       </c>
-      <c r="E435" s="25">
-        <f>$D435/($D$432 - $D$433)</f>
+      <c r="E444" s="25">
+        <f>$D444/($D$441 - $D$442)</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="436" spans="3:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="C436" s="30" t="s">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C445" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="D436" s="24">
-        <f>COUNTIF($D$1:$D433, "=Pending")</f>
+      <c r="D445" s="24">
+        <f>COUNTIF($D$1:$D442, "=Pending")</f>
         <v>10</v>
       </c>
-      <c r="E436" s="25">
-        <f>$D436/($D$432 - $D$433)</f>
+      <c r="E445" s="25">
+        <f>$D445/($D$441 - $D$442)</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
@@ -8735,37 +8811,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8780,10 +8856,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -8796,8 +8872,8 @@
         <v>682</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -8810,8 +8886,8 @@
         <v>684</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -8824,8 +8900,8 @@
         <v>686</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8838,7 +8914,7 @@
         <v>279</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -8851,7 +8927,7 @@
         <v>281</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -8864,7 +8940,7 @@
         <v>283</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -8877,7 +8953,7 @@
         <v>285</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -8890,7 +8966,7 @@
         <v>287</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -8903,7 +8979,7 @@
         <v>271</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -8916,14 +8992,14 @@
         <v>319</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8940,37 +9016,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8985,10 +9061,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -9003,10 +9079,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -9019,8 +9095,8 @@
         <v>688</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -9033,8 +9109,8 @@
         <v>690</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -9049,10 +9125,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <v>43555</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9065,8 +9141,8 @@
         <v>692</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9079,7 +9155,7 @@
         <v>308</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -9092,7 +9168,7 @@
         <v>310</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -9105,7 +9181,7 @@
         <v>319</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9122,35 +9198,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9165,10 +9241,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43553</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -9183,10 +9259,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43553</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -9201,10 +9277,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>43553</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -9219,10 +9295,10 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>43553</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -9237,10 +9313,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <v>43553</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9255,10 +9331,10 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>43553</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9273,10 +9349,10 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <v>43553</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -9291,10 +9367,10 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <v>43555</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -9309,10 +9385,10 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <v>43555</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="330" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -9327,10 +9403,10 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <v>43557</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -9345,10 +9421,10 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>43556</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -9363,10 +9439,10 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>43557</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -9381,10 +9457,10 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <v>43557</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -9399,10 +9475,10 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="46">
         <v>43557</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -9417,8 +9493,8 @@
       <c r="D17" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="45" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="43" t="s">
         <v>693</v>
       </c>
     </row>
@@ -9435,10 +9511,10 @@
       <c r="D18" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <v>43558</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -9447,12 +9523,12 @@
       <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>695</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9470,37 +9546,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9513,7 +9589,7 @@
         <v>187</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -9526,7 +9602,7 @@
         <v>550</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9543,35 +9619,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9586,7 +9662,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -9601,7 +9677,7 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -9616,10 +9692,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>41370</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9636,37 +9712,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9681,7 +9757,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -9696,7 +9772,7 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -9711,7 +9787,7 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -9726,10 +9802,10 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>43562</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -9744,7 +9820,7 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -9759,7 +9835,7 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -9774,7 +9850,7 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -9787,7 +9863,7 @@
         <v>384</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="43" t="s">
         <v>696</v>
       </c>
     </row>
@@ -9804,7 +9880,7 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -9819,7 +9895,7 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -9834,7 +9910,7 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -9847,7 +9923,7 @@
         <v>384</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="43" t="s">
         <v>696</v>
       </c>
     </row>
@@ -9864,7 +9940,7 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -9879,7 +9955,7 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -9894,7 +9970,7 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -9909,7 +9985,7 @@
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -9924,7 +10000,7 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -9939,7 +10015,7 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -9954,7 +10030,7 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -9969,7 +10045,7 @@
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="49"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -9984,7 +10060,7 @@
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -9999,7 +10075,7 @@
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -10014,10 +10090,10 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="46">
         <v>43558</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -10032,10 +10108,10 @@
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <v>43557</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -10050,10 +10126,10 @@
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="46">
         <v>43558</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -10068,10 +10144,10 @@
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="46">
         <v>43562</v>
       </c>
-      <c r="F28" s="49"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -10086,7 +10162,7 @@
       <c r="D29" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -10101,7 +10177,7 @@
       <c r="D30" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="43" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10116,7 +10192,7 @@
         <v>541</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10131,7 +10207,7 @@
         <v>543</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="F32" s="49"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -10146,10 +10222,10 @@
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="46">
         <v>43562</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -10164,10 +10240,10 @@
       <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="46">
         <v>43562</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -10182,10 +10258,10 @@
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="46">
         <v>43562</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -10200,10 +10276,10 @@
       <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="46">
         <v>43561</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -10218,10 +10294,10 @@
       <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="46">
         <v>43562</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -10236,10 +10312,10 @@
       <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="46">
         <v>43561</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -10248,12 +10324,12 @@
       <c r="B39" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="44" t="s">
         <v>695</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -10268,10 +10344,10 @@
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="46">
         <v>43562</v>
       </c>
-      <c r="F40" s="49"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -10286,7 +10362,7 @@
       <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="43" t="s">
         <v>693</v>
       </c>
     </row>
@@ -10301,7 +10377,7 @@
         <v>612</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="F42" s="49"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -10312,7 +10388,7 @@
         <v>700</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="F43" s="49"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -10325,7 +10401,7 @@
         <v>614</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="F44" s="45" t="s">
+      <c r="F44" s="43" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10340,7 +10416,7 @@
         <v>616</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="F45" s="45" t="s">
+      <c r="F45" s="43" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10360,37 +10436,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10405,7 +10481,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -10418,7 +10494,7 @@
         <v>752</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -10433,7 +10509,7 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -10448,7 +10524,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -10463,7 +10539,7 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -10478,7 +10554,7 @@
       <c r="D8" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="43" t="s">
         <v>693</v>
       </c>
     </row>
@@ -10495,7 +10571,7 @@
       <c r="D9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -10510,7 +10586,7 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -10525,7 +10601,7 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -10540,7 +10616,7 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -10555,7 +10631,7 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -10568,7 +10644,7 @@
         <v>702</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -10583,7 +10659,7 @@
       <c r="D15" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -10598,7 +10674,7 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -10613,7 +10689,7 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -10628,7 +10704,7 @@
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -10643,7 +10719,7 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -10658,7 +10734,7 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -10673,7 +10749,7 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -10688,7 +10764,7 @@
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="49"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -10703,7 +10779,7 @@
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -10718,7 +10794,7 @@
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -10733,7 +10809,7 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -10748,10 +10824,10 @@
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <v>43555</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -10764,7 +10840,7 @@
         <v>194</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -10779,10 +10855,10 @@
       <c r="D28" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="46">
         <v>43555</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="48" t="s">
         <v>703</v>
       </c>
     </row>
@@ -10799,8 +10875,8 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -10815,10 +10891,10 @@
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="46">
         <v>43562</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -10831,7 +10907,7 @@
         <v>200</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="F31" s="49"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -10846,10 +10922,10 @@
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="46">
         <v>43558</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -10862,7 +10938,7 @@
         <v>420</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="F33" s="49"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -10877,10 +10953,10 @@
       <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="46">
         <v>43557</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -10889,16 +10965,16 @@
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="59" t="s">
         <v>516</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="46">
         <v>43562</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -10913,10 +10989,10 @@
       <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="46">
         <v>43562</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -10925,16 +11001,16 @@
       <c r="B37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="60" t="s">
         <v>520</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="46">
         <v>43557</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="43" t="s">
         <v>743</v>
       </c>
     </row>
@@ -10945,16 +11021,16 @@
       <c r="B38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="60" t="s">
         <v>522</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="46">
         <v>43557</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="43" t="s">
         <v>743</v>
       </c>
     </row>
@@ -10969,8 +11045,8 @@
         <v>705</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -10985,10 +11061,10 @@
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="46">
         <v>43562</v>
       </c>
-      <c r="F40" s="49"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -10997,16 +11073,16 @@
       <c r="B41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="50" t="s">
         <v>525</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="46">
         <v>43561</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="43" t="s">
         <v>693</v>
       </c>
     </row>
@@ -11023,10 +11099,10 @@
       <c r="D42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="46">
         <v>43561</v>
       </c>
-      <c r="F42" s="49"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -11041,10 +11117,10 @@
       <c r="D43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="46">
         <v>43562</v>
       </c>
-      <c r="F43" s="49"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -11059,10 +11135,10 @@
       <c r="D44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="46">
         <v>43561</v>
       </c>
-      <c r="F44" s="49"/>
+      <c r="F44" s="47"/>
     </row>
     <row r="45" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -11071,12 +11147,12 @@
       <c r="B45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="44" t="s">
         <v>695</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -11091,10 +11167,10 @@
       <c r="D46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="46">
         <v>43562</v>
       </c>
-      <c r="F46" s="49"/>
+      <c r="F46" s="47"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -11106,13 +11182,13 @@
       <c r="C47" t="s">
         <v>535</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="48">
+      <c r="D47" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="46">
         <v>43562</v>
       </c>
-      <c r="F47" s="49"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -11127,10 +11203,10 @@
       <c r="D48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="46">
         <v>43562</v>
       </c>
-      <c r="F48" s="49"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -11145,10 +11221,10 @@
       <c r="D49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="46">
         <v>43562</v>
       </c>
-      <c r="F49" s="49"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -11163,10 +11239,10 @@
       <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="46">
         <v>43562</v>
       </c>
-      <c r="F50" s="49"/>
+      <c r="F50" s="47"/>
     </row>
     <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -11181,7 +11257,7 @@
       <c r="D51" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="47" t="s">
         <v>755</v>
       </c>
     </row>
@@ -11198,7 +11274,7 @@
       <c r="D52" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="F52" s="49"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -11213,7 +11289,7 @@
       <c r="D53" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="F53" s="49"/>
+      <c r="F53" s="47"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -11225,10 +11301,10 @@
       <c r="C54" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="F54" s="49"/>
+      <c r="F54" s="47"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="49" t="s">
         <v>711</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -11237,10 +11313,10 @@
       <c r="C55" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="F55" s="49"/>
+      <c r="F55" s="47"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="49" t="s">
         <v>713</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -11249,19 +11325,19 @@
       <c r="C56" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="F56" s="49"/>
+      <c r="F56" s="47"/>
     </row>
     <row r="57" spans="1:6" ht="330" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="49" t="s">
         <v>715</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="52" t="s">
+      <c r="C57" s="50" t="s">
         <v>716</v>
       </c>
-      <c r="F57" s="49"/>
+      <c r="F57" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11279,37 +11355,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>718</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11324,10 +11400,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -11342,10 +11418,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -11360,10 +11436,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>43555</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -11378,10 +11454,10 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>43555</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -11396,10 +11472,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <v>43555</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -11414,10 +11490,10 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>43555</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -11432,10 +11508,10 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <v>43555</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -11450,10 +11526,10 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <v>43555</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -11468,10 +11544,10 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <v>43555</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -11486,10 +11562,10 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <v>43555</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -11502,8 +11578,8 @@
         <v>719</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -11518,10 +11594,10 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>43555</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -11534,8 +11610,8 @@
         <v>719</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -11550,10 +11626,10 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="46">
         <v>43555</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -11568,10 +11644,10 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="46">
         <v>43555</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -11586,10 +11662,10 @@
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <v>43555</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -11604,10 +11680,10 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="46">
         <v>43555</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -11622,10 +11698,10 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="46">
         <v>43555</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -11640,10 +11716,10 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="46">
         <v>43562</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -11658,7 +11734,7 @@
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="49"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -11673,7 +11749,7 @@
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -11688,7 +11764,7 @@
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -11703,10 +11779,10 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="46">
         <v>43561</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -11719,7 +11795,7 @@
         <v>466</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="F26" s="49"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -11732,7 +11808,7 @@
         <v>561</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="51" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11749,10 +11825,10 @@
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="46">
         <v>43562</v>
       </c>
-      <c r="F28" s="49"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -11767,10 +11843,10 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="46">
         <v>43562</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -11785,10 +11861,10 @@
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="46">
         <v>43562</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -11801,8 +11877,8 @@
         <v>723</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -11817,10 +11893,10 @@
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="46">
         <v>43562</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -11833,7 +11909,7 @@
         <v>571</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="F33" s="49"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -11846,7 +11922,7 @@
         <v>573</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="F34" s="49"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -11859,7 +11935,7 @@
         <v>575</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="F35" s="49"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -11874,10 +11950,10 @@
       <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="46">
         <v>43560</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -11892,10 +11968,10 @@
       <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="46">
         <v>43561</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -11910,10 +11986,10 @@
       <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="46">
         <v>43562</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11931,41 +12007,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11980,7 +12056,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -11995,7 +12071,7 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -12010,7 +12086,7 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -12025,7 +12101,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -12040,7 +12116,7 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -12055,7 +12131,7 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -12070,7 +12146,7 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -12085,7 +12161,7 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -12100,7 +12176,7 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -12115,7 +12191,7 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -12130,7 +12206,7 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -12143,7 +12219,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="47" t="s">
         <v>724</v>
       </c>
     </row>
@@ -12158,7 +12234,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="49"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -12171,7 +12247,7 @@
         <v>219</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="F16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -12186,7 +12262,7 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -12201,7 +12277,7 @@
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -12216,7 +12292,7 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -12231,7 +12307,7 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -12246,7 +12322,7 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -12259,7 +12335,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="F22" s="49"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -12274,7 +12350,7 @@
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -12289,7 +12365,7 @@
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -12304,7 +12380,7 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -12319,7 +12395,7 @@
       <c r="D26" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="47" t="s">
         <v>725</v>
       </c>
     </row>
@@ -12336,7 +12412,7 @@
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -12351,7 +12427,7 @@
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="49"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -12366,7 +12442,7 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -12381,7 +12457,7 @@
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -12396,7 +12472,7 @@
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -12411,10 +12487,10 @@
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="46">
         <v>43554</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -12429,10 +12505,10 @@
       <c r="D33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="46">
         <v>43554</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -12447,10 +12523,10 @@
       <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="46">
         <v>43554</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -12465,10 +12541,10 @@
       <c r="D35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="46">
         <v>43554</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -12483,10 +12559,10 @@
       <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="46">
         <v>43554</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -12501,10 +12577,10 @@
       <c r="D37" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="46">
         <v>43554</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -12517,10 +12593,10 @@
         <v>220</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="48">
+      <c r="E38" s="46">
         <v>43554</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -12535,10 +12611,10 @@
       <c r="D39" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="46">
         <v>43554</v>
       </c>
-      <c r="F39" s="49"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -12553,10 +12629,10 @@
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="46">
         <v>43554</v>
       </c>
-      <c r="F40" s="49"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -12569,8 +12645,8 @@
         <v>202</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12588,37 +12664,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>757</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -12633,10 +12709,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -12651,10 +12727,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -12669,10 +12745,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>43555</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -12685,8 +12761,8 @@
         <v>729</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -12697,8 +12773,8 @@
         <v>731</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -12711,7 +12787,7 @@
         <v>732</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -12724,7 +12800,7 @@
         <v>596</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -12737,7 +12813,7 @@
         <v>598</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -12750,7 +12826,7 @@
         <v>600</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12772,35 +12848,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -12842,37 +12918,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>758</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -12887,10 +12963,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -12903,8 +12979,8 @@
         <v>734</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -12919,10 +12995,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>43555</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -12937,10 +13013,10 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>43555</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -12953,8 +13029,8 @@
         <v>729</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -12965,8 +13041,8 @@
         <v>731</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -12979,7 +13055,7 @@
         <v>580</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -12992,7 +13068,7 @@
         <v>582</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13005,7 +13081,7 @@
         <v>738</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -13018,7 +13094,7 @@
         <v>588</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -13031,7 +13107,7 @@
         <v>587</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -13044,7 +13120,7 @@
         <v>585</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -13057,7 +13133,7 @@
         <v>590</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="F15" s="49"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -13070,8 +13146,8 @@
         <v>592</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -13084,8 +13160,8 @@
         <v>594</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13102,37 +13178,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -13147,10 +13223,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -13163,7 +13239,7 @@
         <v>293</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -13176,7 +13252,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -13189,7 +13265,7 @@
         <v>297</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -13202,7 +13278,7 @@
         <v>299</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -13215,7 +13291,7 @@
         <v>319</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13232,37 +13308,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -13277,7 +13353,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -13292,7 +13368,7 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -13307,7 +13383,7 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -13320,7 +13396,7 @@
         <v>353</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>743</v>
       </c>
     </row>
@@ -13335,7 +13411,7 @@
         <v>354</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="43" t="s">
         <v>743</v>
       </c>
     </row>
@@ -13352,7 +13428,7 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -13367,7 +13443,7 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -13380,7 +13456,7 @@
         <v>740</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -13393,7 +13469,7 @@
         <v>742</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -13408,7 +13484,7 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -13423,7 +13499,7 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -13438,7 +13514,7 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -13453,7 +13529,7 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -13468,7 +13544,7 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -13483,18 +13559,18 @@
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="61" t="s">
         <v>482</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="F18" s="49"/>
+      <c r="D18" s="62"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -13509,7 +13585,7 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -13524,7 +13600,7 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -13539,7 +13615,7 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -13554,7 +13630,7 @@
       <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="49"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -13569,7 +13645,7 @@
       <c r="D23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="49"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -13584,10 +13660,10 @@
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <v>43554</v>
       </c>
-      <c r="F24" s="49"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -13602,10 +13678,10 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="46">
         <v>43554</v>
       </c>
-      <c r="F25" s="49"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -13620,10 +13696,10 @@
       <c r="D26" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <v>43554</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -13638,7 +13714,7 @@
       <c r="D27" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -13651,7 +13727,7 @@
         <v>484</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="F28" s="49"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -13666,10 +13742,10 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="46">
         <v>43554</v>
       </c>
-      <c r="F29" s="49"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -13684,10 +13760,10 @@
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="46">
         <v>43554</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -13702,7 +13778,7 @@
       <c r="D31" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="49"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -13717,10 +13793,10 @@
       <c r="D32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="46">
         <v>43554</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -13733,7 +13809,7 @@
         <v>360</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="F33" s="49"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -13748,10 +13824,10 @@
       <c r="D34" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="46">
         <v>43554</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="43" t="s">
         <v>743</v>
       </c>
     </row>
@@ -13766,8 +13842,8 @@
         <v>486</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -13780,8 +13856,8 @@
         <v>237</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -13796,10 +13872,10 @@
       <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="46">
         <v>43559</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -13812,8 +13888,8 @@
         <v>364</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -13828,10 +13904,10 @@
       <c r="D39" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="46">
         <v>43559</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="43" t="s">
         <v>744</v>
       </c>
     </row>
@@ -13848,10 +13924,10 @@
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="46">
         <v>43555</v>
       </c>
-      <c r="F40" s="49"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -13866,10 +13942,10 @@
       <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="46">
         <v>43555</v>
       </c>
-      <c r="F41" s="49"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -13884,10 +13960,10 @@
       <c r="D42" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="46">
         <v>43559</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="43" t="s">
         <v>744</v>
       </c>
     </row>
@@ -13910,35 +13986,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -13953,10 +14029,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43554</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -13971,10 +14047,10 @@
       <c r="D4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -13989,10 +14065,10 @@
       <c r="D5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>43555</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -14007,10 +14083,10 @@
       <c r="D6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>43555</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -14023,7 +14099,7 @@
         <v>746</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -14036,7 +14112,7 @@
         <v>748</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14059,23 +14135,23 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
@@ -14084,19 +14160,19 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="49"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -14111,10 +14187,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -14129,10 +14205,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>43555</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -14145,7 +14221,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -14158,14 +14234,14 @@
         <v>319</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14187,37 +14263,37 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14232,10 +14308,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -14250,10 +14326,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -14266,7 +14342,7 @@
         <v>317</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -14279,7 +14355,7 @@
         <v>319</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14302,37 +14378,37 @@
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14347,7 +14423,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -14362,7 +14438,7 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -14377,7 +14453,7 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -14392,7 +14468,7 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -14407,7 +14483,7 @@
       <c r="D7" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14430,35 +14506,35 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14473,10 +14549,10 @@
       <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -14489,7 +14565,7 @@
         <v>489</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14511,23 +14587,23 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
@@ -14544,10 +14620,10 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="46">
         <v>43555</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14560,8 +14636,8 @@
         <v>657</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -14574,8 +14650,8 @@
         <v>659</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -14588,8 +14664,8 @@
         <v>661</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -14602,8 +14678,8 @@
         <v>663</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -14616,8 +14692,8 @@
         <v>665</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -14630,8 +14706,8 @@
         <v>667</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -14644,8 +14720,8 @@
         <v>669</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -14658,8 +14734,8 @@
         <v>671</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -14674,10 +14750,10 @@
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <v>43555</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -14692,10 +14768,10 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <v>43555</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -14710,10 +14786,10 @@
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>43555</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -14728,10 +14804,10 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>43555</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -14746,10 +14822,10 @@
       <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <v>43555</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -14764,10 +14840,10 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="46">
         <v>43555</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -14780,7 +14856,7 @@
         <v>319</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="F17" s="49"/>
+      <c r="F17" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14802,37 +14878,37 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14847,10 +14923,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -14865,10 +14941,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -14881,7 +14957,7 @@
         <v>255</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -14894,7 +14970,7 @@
         <v>672</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -14903,7 +14979,7 @@
         <v>674</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -14916,7 +14992,7 @@
         <v>257</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -14929,7 +15005,7 @@
         <v>334</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14946,37 +15022,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -14991,10 +15067,10 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>43555</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -15009,10 +15085,10 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>43555</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -15025,7 +15101,7 @@
         <v>249</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -15040,7 +15116,7 @@
       <c r="D6" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -15053,7 +15129,7 @@
         <v>319</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -15066,7 +15142,7 @@
         <v>602</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -15079,7 +15155,7 @@
         <v>604</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -15092,7 +15168,7 @@
         <v>676</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -15105,7 +15181,7 @@
         <v>606</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -15118,7 +15194,7 @@
         <v>678</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -15131,7 +15207,7 @@
         <v>608</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="F13" s="49"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -15144,7 +15220,7 @@
         <v>680</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="F14" s="49"/>
+      <c r="F14" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE67B509-B41B-4C56-A7EC-790863A1D5F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919B1F1-6321-4212-BEAE-9C8466DDEB68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="6960" windowWidth="18180" windowHeight="22560" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="1980" yWindow="16185" windowWidth="19845" windowHeight="14670" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F414" authorId="0" shapeId="0" xr:uid="{219F0334-9C0D-4B0E-9917-EC384D011BEF}">
+    <comment ref="F416" authorId="0" shapeId="0" xr:uid="{219F0334-9C0D-4B0E-9917-EC384D011BEF}">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="782">
   <si>
     <t>ID</t>
   </si>
@@ -3281,6 +3281,86 @@
   </si>
   <si>
     <t>The difference in color of the last two tab headers needs to be greater. Make the last much darker blue.</t>
+  </si>
+  <si>
+    <t>Colors adjusted. Good enough?</t>
+  </si>
+  <si>
+    <r>
+      <t>Inspection Mode tooltip: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inventory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mode"</t>
+    </r>
+  </si>
+  <si>
+    <t>T6.Q1</t>
+  </si>
+  <si>
+    <t>Inventory Mode'? Not 'Inspection Model'?</t>
+  </si>
+  <si>
+    <t>Tooltip is 'Inspection Mode'.</t>
+  </si>
+  <si>
+    <t>Tooltip is 'Inventory Mode'.</t>
+  </si>
+  <si>
+    <t>T3.Q1</t>
+  </si>
+  <si>
+    <t>No Copy Inspection image supplied with the last delivery. Still Pending?</t>
+  </si>
+  <si>
+    <t>S28.1</t>
+  </si>
+  <si>
+    <t>S27.1</t>
+  </si>
+  <si>
+    <t>New images have been applied</t>
+  </si>
+  <si>
+    <t>Implemented something closer to the real thing.</t>
+  </si>
+  <si>
+    <t>S22.FB1</t>
+  </si>
+  <si>
+    <t>S22.FB1.1</t>
+  </si>
+  <si>
+    <t>S22.FB1.2</t>
+  </si>
+  <si>
+    <t>S22.FB1.3</t>
+  </si>
+  <si>
+    <t>S18.FB1</t>
+  </si>
+  <si>
+    <t>S18.FB1.1</t>
+  </si>
+  <si>
+    <t>S18.FB2</t>
   </si>
 </sst>
 </file>
@@ -3429,7 +3509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3489,6 +3569,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3602,7 +3688,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3764,6 +3850,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4086,10 +4197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:F445"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="C424" sqref="C424"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D407" sqref="D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8362,7 +8474,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>180</v>
+        <v>779</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>356</v>
@@ -8376,90 +8488,78 @@
     </row>
     <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>222</v>
+        <v>780</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D407" s="2" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C408" s="5" t="s">
+      <c r="A408" s="67" t="s">
+        <v>781</v>
+      </c>
+      <c r="B408" s="67"/>
+      <c r="C408" s="64" t="s">
         <v>484</v>
       </c>
+      <c r="D408" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" s="65">
+        <v>43568</v>
+      </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+      <c r="C409" s="5"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C410" s="5"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C411" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D409" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E409" s="31">
+      <c r="D411" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E411" s="31">
         <v>43554</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E410" s="31">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>217</v>
+        <v>358</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="E412" s="31">
         <v>43554</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C414" s="5" t="s">
-        <v>338</v>
+        <v>216</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>225</v>
@@ -8467,102 +8567,107 @@
       <c r="E414" s="31">
         <v>43554</v>
       </c>
-      <c r="F414" s="43" t="s">
-        <v>743</v>
-      </c>
     </row>
     <row r="415" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C415" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E415" s="31">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E416" s="31">
+        <v>43554</v>
+      </c>
+      <c r="F416" s="43" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C417" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E415" s="31"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E416" s="31"/>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E417" s="31">
-        <v>43559</v>
-      </c>
+      <c r="D417" t="s">
+        <v>7</v>
+      </c>
+      <c r="E417" s="31"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E418" s="31"/>
+        <v>778</v>
+      </c>
+      <c r="C418" s="71" t="s">
+        <v>774</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E418" s="31">
+        <v>43559</v>
+      </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C419" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="D419" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E419" s="31">
         <v>43559</v>
       </c>
-      <c r="F419" s="43" t="s">
-        <v>744</v>
-      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E420" s="31">
-        <v>43555</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E421" s="31">
-        <v>43555</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="E421" s="31"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D422" s="38" t="s">
         <v>7</v>
@@ -8574,218 +8679,311 @@
         <v>744</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" s="31">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" s="31">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C425" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="D425" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" s="31">
+        <v>43559</v>
+      </c>
+      <c r="F425" s="43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C423" s="5" t="s">
+      <c r="C426" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="D423" s="38"/>
-      <c r="E423" s="31"/>
-      <c r="F423" s="43"/>
-    </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C424" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="D424" s="38"/>
-      <c r="E424" s="31"/>
-      <c r="F424" s="43"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C425" s="38"/>
-      <c r="D425" s="38"/>
-      <c r="E425" s="31"/>
-      <c r="F425" s="43"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C426" s="38"/>
       <c r="D426" s="38"/>
       <c r="E426" s="31"/>
-      <c r="F426" s="43"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C427" s="38"/>
-      <c r="D427" s="38"/>
-      <c r="E427" s="31"/>
-      <c r="F427" s="43"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C428" s="38"/>
-      <c r="D428" s="38"/>
-      <c r="E428" s="31"/>
-      <c r="F428" s="43"/>
+      <c r="A427" s="69" t="s">
+        <v>772</v>
+      </c>
+      <c r="B427" s="69"/>
+      <c r="C427" s="69" t="s">
+        <v>773</v>
+      </c>
+      <c r="D427" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="69">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A428" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="B428" s="67"/>
+      <c r="C428" s="63" t="s">
+        <v>762</v>
+      </c>
+      <c r="D428" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E428" s="65">
+        <v>43568</v>
+      </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C429" s="38"/>
+      <c r="A429" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="C429" s="63" t="s">
+        <v>763</v>
+      </c>
       <c r="D429" s="38"/>
       <c r="E429" s="31"/>
-      <c r="F429" s="43"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C430" s="38"/>
       <c r="D430" s="38"/>
       <c r="E430" s="31"/>
-      <c r="F430" s="43"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C431" s="38"/>
       <c r="D431" s="38"/>
       <c r="E431" s="31"/>
-      <c r="F431" s="43"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C432" s="38"/>
+      <c r="D432" s="38"/>
+      <c r="E432" s="31"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B433" s="1" t="s">
+      <c r="C433" s="38"/>
+      <c r="D433" s="38"/>
+      <c r="E433" s="31"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C434" s="38"/>
+      <c r="D434" s="38"/>
+      <c r="E434" s="31"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C435" s="38"/>
+      <c r="D435" s="38"/>
+      <c r="E435" s="31"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="45"/>
+      <c r="B437" s="45" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E434" s="31">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C435" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E435" s="31">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C436" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E436" s="31">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C437" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E437" s="31">
-        <v>43555</v>
-      </c>
+      <c r="C437" s="70"/>
+      <c r="D437" s="70"/>
+      <c r="E437" s="45"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C438" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="E438"/>
-      <c r="F438" s="47"/>
+        <v>228</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E438" s="31">
+        <v>43554</v>
+      </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C439" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E439" s="31">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C440" t="s">
+        <v>234</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E440" s="31">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="67" t="s">
+        <v>769</v>
+      </c>
+      <c r="B441" s="67"/>
+      <c r="C441" s="63" t="s">
+        <v>770</v>
+      </c>
+      <c r="E441" s="31"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C442" t="s">
+        <v>235</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E442" s="31">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C443"/>
+      <c r="E443" s="31"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C444" t="s">
+        <v>746</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E444" s="46">
+        <v>43537</v>
+      </c>
+      <c r="F444" s="47"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C439" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="E439"/>
-      <c r="F439" s="47"/>
-    </row>
-    <row r="440" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C440" s="11"/>
-      <c r="E440"/>
-      <c r="F440" s="47"/>
-    </row>
-    <row r="441" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="26"/>
-      <c r="B441" s="26"/>
-      <c r="C441" s="27" t="s">
+      <c r="C445" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="F445" s="47"/>
+    </row>
+    <row r="446" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C446" s="66" t="s">
+        <v>766</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E446" s="46">
+        <v>43537</v>
+      </c>
+      <c r="F446" s="47"/>
+    </row>
+    <row r="447" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="26"/>
+      <c r="B447" s="26"/>
+      <c r="C447" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="D441" s="28">
-        <f>COUNTA($D$1:$D438)</f>
-        <v>245</v>
-      </c>
-      <c r="E441" s="33"/>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C442" s="23" t="s">
+      <c r="D447" s="28">
+        <f>COUNTA($D$1:$D444)</f>
+        <v>252</v>
+      </c>
+      <c r="E447" s="33"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C448" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="D442" s="24">
-        <f>COUNTIF($D$1:$D439, "=Done")</f>
-        <v>209</v>
-      </c>
-      <c r="E442" s="25">
-        <f>$D442/$D$441</f>
-        <v>0.85306122448979593</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C443" s="29" t="s">
+      <c r="D448" s="24">
+        <f>COUNTIF($D$1:$D444, "=Done")</f>
+        <v>218</v>
+      </c>
+      <c r="E448" s="25">
+        <f>$D448/$D$447</f>
+        <v>0.86507936507936511</v>
+      </c>
+    </row>
+    <row r="449" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C449" s="29" t="s">
         <v>654</v>
       </c>
-      <c r="D443" s="24"/>
-      <c r="E443" s="25"/>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C444" s="30" t="s">
+      <c r="D449" s="24"/>
+      <c r="E449" s="25"/>
+    </row>
+    <row r="450" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C450" s="30" t="s">
         <v>653</v>
       </c>
-      <c r="D444" s="24">
-        <f>COUNTIF($D$1:$D441, "=In process")</f>
-        <v>6</v>
-      </c>
-      <c r="E444" s="25">
-        <f>$D444/($D$441 - $D$442)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C445" s="30" t="s">
+      <c r="D450" s="24">
+        <f>COUNTIF($D$1:$D447, "=In process")</f>
+        <v>5</v>
+      </c>
+      <c r="E450" s="25">
+        <f>$D450/($D$447 - $D$448)</f>
+        <v>0.14705882352941177</v>
+      </c>
+    </row>
+    <row r="451" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C451" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="D445" s="24">
-        <f>COUNTIF($D$1:$D442, "=Pending")</f>
-        <v>10</v>
-      </c>
-      <c r="E445" s="25">
-        <f>$D445/($D$441 - $D$442)</f>
-        <v>0.27777777777777779</v>
+      <c r="D451" s="24">
+        <f>COUNTIF($D$1:$D448, "=Pending")</f>
+        <v>8</v>
+      </c>
+      <c r="E451" s="25">
+        <f>$D451/($D$447 - $D$448)</f>
+        <v>0.23529411764705882</v>
       </c>
     </row>
   </sheetData>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919B1F1-6321-4212-BEAE-9C8466DDEB68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B5F29-58F7-4163-B0DB-3BA0A85515FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="16185" windowWidth="19845" windowHeight="14670" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="2130" yWindow="14340" windowWidth="19845" windowHeight="14670" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="783">
   <si>
     <t>ID</t>
   </si>
@@ -3361,6 +3361,9 @@
   </si>
   <si>
     <t>S18.FB2</t>
+  </si>
+  <si>
+    <t>S5.FB1</t>
   </si>
 </sst>
 </file>
@@ -3688,7 +3691,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3876,6 +3879,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4200,8 +4206,8 @@
   <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D407" sqref="D407"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8290,15 +8296,20 @@
     </row>
     <row r="390" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C390" s="11" t="s">
+      <c r="C390" s="63" t="s">
         <v>740</v>
       </c>
-      <c r="E390"/>
+      <c r="D390" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" s="46">
+        <v>43568</v>
+      </c>
       <c r="F390" s="47"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8308,10 +8319,15 @@
       <c r="B391" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C391" s="11" t="s">
+      <c r="C391" t="s">
         <v>742</v>
       </c>
-      <c r="E391"/>
+      <c r="D391" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E391" s="46">
+        <v>43528</v>
+      </c>
       <c r="F391" s="47"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -8369,7 +8385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>153</v>
       </c>
@@ -8381,13 +8397,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="61" t="s">
+      <c r="C398" s="72" t="s">
         <v>482</v>
       </c>
-      <c r="D398" s="62"/>
+      <c r="D398"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
@@ -8936,7 +8952,7 @@
       </c>
       <c r="D447" s="28">
         <f>COUNTA($D$1:$D444)</f>
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E447" s="33"/>
     </row>
@@ -8946,11 +8962,11 @@
       </c>
       <c r="D448" s="24">
         <f>COUNTIF($D$1:$D444, "=Done")</f>
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E448" s="25">
         <f>$D448/$D$447</f>
-        <v>0.86507936507936511</v>
+        <v>0.86614173228346458</v>
       </c>
     </row>
     <row r="449" spans="3:5" x14ac:dyDescent="0.25">
@@ -8987,9 +9003,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C398:D398"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{09484B62-D5BF-4D5E-8BE0-935A927A1E23}"/>
   </hyperlinks>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B5F29-58F7-4163-B0DB-3BA0A85515FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB93BF-E501-4213-B5BC-2494439404EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="14340" windowWidth="19845" windowHeight="14670" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="27315" yWindow="13935" windowWidth="19845" windowHeight="14670" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="783">
   <si>
     <t>ID</t>
   </si>
@@ -3691,7 +3691,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3882,6 +3882,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4206,8 +4212,8 @@
   <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8171,6 +8177,12 @@
       <c r="C376" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="D376" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" s="31">
+        <v>43568</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
@@ -8179,6 +8191,12 @@
       <c r="C377" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="D377" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377" s="31">
+        <v>43568</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
@@ -8187,6 +8205,12 @@
       <c r="C378" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="D378" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378" s="31">
+        <v>43568</v>
+      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
@@ -8194,6 +8218,12 @@
       </c>
       <c r="C379" s="2" t="s">
         <v>299</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E379" s="31">
+        <v>43568</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8249,11 +8279,11 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="B386" s="3"/>
-      <c r="C386" s="4" t="s">
+      <c r="B386" s="73"/>
+      <c r="C386" s="74" t="s">
         <v>353</v>
       </c>
       <c r="F386" s="43" t="s">
@@ -8261,11 +8291,11 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B387" s="3"/>
-      <c r="C387" s="4" t="s">
+      <c r="B387" s="73"/>
+      <c r="C387" s="74" t="s">
         <v>354</v>
       </c>
       <c r="F387" s="43" t="s">
@@ -8952,7 +8982,7 @@
       </c>
       <c r="D447" s="28">
         <f>COUNTA($D$1:$D444)</f>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E447" s="33"/>
     </row>
@@ -8962,11 +8992,11 @@
       </c>
       <c r="D448" s="24">
         <f>COUNTIF($D$1:$D444, "=Done")</f>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E448" s="25">
         <f>$D448/$D$447</f>
-        <v>0.86614173228346458</v>
+        <v>0.86821705426356588</v>
       </c>
     </row>
     <row r="449" spans="3:5" x14ac:dyDescent="0.25">

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB93BF-E501-4213-B5BC-2494439404EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FCBC83-86C5-439E-B242-36D16E6051E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27315" yWindow="13935" windowWidth="19845" windowHeight="14670" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <sheet name="Shell" sheetId="24" r:id="rId22"/>
     <sheet name="Toolbar" sheetId="21" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -795,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="785">
   <si>
     <t>ID</t>
   </si>
@@ -2772,12 +2778,6 @@
   </si>
   <si>
     <t>Make the bottom buttons the same as other Views and compatible with Wireframe</t>
-  </si>
-  <si>
-    <t>CC8.Q1</t>
-  </si>
-  <si>
-    <t>Where / when is the Copy Comment supposed to be / show?</t>
   </si>
   <si>
     <t>C16</t>
@@ -3364,6 +3364,18 @@
   </si>
   <si>
     <t>S5.FB1</t>
+  </si>
+  <si>
+    <t>Need to change this from two labels into a wrap text box.</t>
+  </si>
+  <si>
+    <t>CN2.Q1</t>
+  </si>
+  <si>
+    <t>Is Source Facility a free-entry or should this be a combo-box with existing? If combo-box, should it allow new items?</t>
+  </si>
+  <si>
+    <t>Need clarification</t>
   </si>
 </sst>
 </file>
@@ -3691,7 +3703,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3849,12 +3861,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3887,6 +3893,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4212,19 +4227,19 @@
   <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="84.85546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="84.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -4241,40 +4256,40 @@
         <v>502</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="37" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="15" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D5" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
         <v>325</v>
@@ -4285,7 +4300,7 @@
       <c r="D8" s="36"/>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>327</v>
       </c>
@@ -4299,7 +4314,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>328</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>329</v>
       </c>
@@ -4327,7 +4342,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>330</v>
       </c>
@@ -4341,7 +4356,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="35" t="s">
         <v>312</v>
@@ -4352,7 +4367,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="35"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>313</v>
       </c>
@@ -4366,7 +4381,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>314</v>
       </c>
@@ -4380,7 +4395,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>316</v>
       </c>
@@ -4394,7 +4409,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>318</v>
       </c>
@@ -4402,13 +4417,13 @@
         <v>319</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E18" s="32">
         <v>43563</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="35" t="s">
         <v>98</v>
@@ -4419,7 +4434,7 @@
       <c r="D20" s="36"/>
       <c r="E20" s="35"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -4430,7 +4445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>154</v>
       </c>
@@ -4441,7 +4456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>155</v>
       </c>
@@ -4452,7 +4467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>156</v>
       </c>
@@ -4463,7 +4478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>157</v>
       </c>
@@ -4474,12 +4489,12 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="39"/>
       <c r="B27" s="40" t="s">
         <v>86</v>
@@ -4488,7 +4503,7 @@
       <c r="D27" s="42"/>
       <c r="E27" s="40"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>487</v>
       </c>
@@ -4502,7 +4517,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>488</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35"/>
       <c r="B31" s="35" t="s">
         <v>258</v>
@@ -4527,7 +4542,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="35"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>259</v>
       </c>
@@ -4541,103 +4556,128 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="E37" s="31"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="E39" s="31"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>260</v>
       </c>
@@ -4651,7 +4691,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>261</v>
       </c>
@@ -4665,7 +4705,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>264</v>
       </c>
@@ -4679,7 +4719,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>266</v>
       </c>
@@ -4693,7 +4733,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>268</v>
       </c>
@@ -4707,7 +4747,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>270</v>
       </c>
@@ -4721,40 +4761,51 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="15" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35" t="s">
+      <c r="D47" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C49" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="35"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="36"/>
+      <c r="E49" s="35"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="31">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
@@ -4763,90 +4814,93 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="31">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="D55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="32">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="17" t="s">
+        <v>632</v>
+      </c>
       <c r="D56" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="32">
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35" t="s">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C58" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="35"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="36"/>
+      <c r="E58" s="35"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="31">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>7</v>
@@ -4855,156 +4909,165 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="31">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>332</v>
+        <v>601</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>675</v>
+        <v>605</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>677</v>
+        <v>607</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C70" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="35"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="31">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C71" s="11" t="s">
+      <c r="B74" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="36"/>
-      <c r="E73" s="35"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="31">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>681</v>
       </c>
@@ -5016,7 +5079,7 @@
       </c>
       <c r="E75" s="31"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>683</v>
       </c>
@@ -5026,32 +5089,36 @@
       <c r="C76" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="E76" s="31"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="32">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="E77" s="31"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>278</v>
+        <v>782</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>279</v>
+        <v>783</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>280</v>
       </c>
@@ -5059,10 +5126,10 @@
         <v>281</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>282</v>
       </c>
@@ -5070,10 +5137,10 @@
         <v>283</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>284</v>
       </c>
@@ -5081,10 +5148,10 @@
         <v>285</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>286</v>
       </c>
@@ -5095,19 +5162,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="15" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>288</v>
       </c>
@@ -5118,7 +5185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>322</v>
       </c>
@@ -5129,7 +5196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="35"/>
       <c r="B88" s="35" t="s">
         <v>300</v>
@@ -5140,7 +5207,7 @@
       <c r="D88" s="36"/>
       <c r="E88" s="35"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>302</v>
       </c>
@@ -5154,7 +5221,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>303</v>
       </c>
@@ -5168,31 +5235,31 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E91" s="31"/>
     </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E92" s="31"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>305</v>
       </c>
@@ -5206,19 +5273,19 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E94" s="31"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>307</v>
       </c>
@@ -5229,7 +5296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>309</v>
       </c>
@@ -5240,7 +5307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>320</v>
       </c>
@@ -5251,7 +5318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="35"/>
       <c r="B99" s="35" t="s">
         <v>90</v>
@@ -5260,7 +5327,7 @@
       <c r="D99" s="36"/>
       <c r="E99" s="35"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5274,7 +5341,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>158</v>
       </c>
@@ -5288,7 +5355,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>159</v>
       </c>
@@ -5302,7 +5369,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>160</v>
       </c>
@@ -5316,7 +5383,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>163</v>
       </c>
@@ -5331,7 +5398,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -5345,7 +5412,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>162</v>
       </c>
@@ -5359,7 +5426,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>179</v>
       </c>
@@ -5373,7 +5440,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>188</v>
       </c>
@@ -5387,7 +5454,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>189</v>
       </c>
@@ -5401,7 +5468,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>190</v>
       </c>
@@ -5415,7 +5482,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>342</v>
       </c>
@@ -5429,7 +5496,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>344</v>
       </c>
@@ -5443,7 +5510,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>346</v>
       </c>
@@ -5457,7 +5524,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>347</v>
       </c>
@@ -5469,10 +5536,10 @@
       </c>
       <c r="E114" s="31"/>
       <c r="F114" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>500</v>
       </c>
@@ -5486,31 +5553,31 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E116" s="31"/>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C117" s="44" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C118" s="44"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="35"/>
       <c r="B119" s="35" t="s">
         <v>185</v>
@@ -5521,7 +5588,7 @@
       <c r="D119" s="36"/>
       <c r="E119" s="35"/>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>186</v>
       </c>
@@ -5529,7 +5596,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>549</v>
       </c>
@@ -5537,7 +5604,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="45"/>
       <c r="B125" s="35" t="s">
         <v>104</v>
@@ -5546,7 +5613,7 @@
       <c r="D125" s="36"/>
       <c r="E125" s="35"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>106</v>
       </c>
@@ -5557,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>365</v>
       </c>
@@ -5568,7 +5635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>508</v>
       </c>
@@ -5582,10 +5649,10 @@
         <v>41370</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E129" s="31"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="35"/>
       <c r="B130" s="35" t="s">
         <v>367</v>
@@ -5596,7 +5663,7 @@
       <c r="D130" s="36"/>
       <c r="E130" s="35"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>368</v>
       </c>
@@ -5607,7 +5674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>370</v>
       </c>
@@ -5618,7 +5685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>372</v>
       </c>
@@ -5629,7 +5696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>374</v>
       </c>
@@ -5643,7 +5710,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>376</v>
       </c>
@@ -5654,7 +5721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>377</v>
       </c>
@@ -5665,7 +5732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>378</v>
       </c>
@@ -5676,7 +5743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>383</v>
       </c>
@@ -5684,10 +5751,10 @@
         <v>384</v>
       </c>
       <c r="F138" s="43" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>379</v>
       </c>
@@ -5698,7 +5765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>386</v>
       </c>
@@ -5709,7 +5776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>388</v>
       </c>
@@ -5720,7 +5787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>390</v>
       </c>
@@ -5728,10 +5795,10 @@
         <v>384</v>
       </c>
       <c r="F142" s="43" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>391</v>
       </c>
@@ -5742,7 +5809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>393</v>
       </c>
@@ -5753,7 +5820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>395</v>
       </c>
@@ -5764,7 +5831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>397</v>
       </c>
@@ -5775,7 +5842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>399</v>
       </c>
@@ -5786,7 +5853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>401</v>
       </c>
@@ -5797,7 +5864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>403</v>
       </c>
@@ -5808,7 +5875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>405</v>
       </c>
@@ -5819,7 +5886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>407</v>
       </c>
@@ -5830,7 +5897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>409</v>
       </c>
@@ -5841,7 +5908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>496</v>
       </c>
@@ -5855,7 +5922,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>499</v>
       </c>
@@ -5869,7 +5936,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>512</v>
       </c>
@@ -5883,7 +5950,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>513</v>
       </c>
@@ -5897,7 +5964,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>514</v>
       </c>
@@ -5908,7 +5975,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>515</v>
       </c>
@@ -5919,10 +5986,10 @@
         <v>224</v>
       </c>
       <c r="F158" s="43" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>540</v>
       </c>
@@ -5930,10 +5997,10 @@
         <v>541</v>
       </c>
       <c r="F159" s="43" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>542</v>
       </c>
@@ -5941,7 +6008,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>544</v>
       </c>
@@ -5955,7 +6022,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>546</v>
       </c>
@@ -5969,7 +6036,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>548</v>
       </c>
@@ -5983,7 +6050,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>552</v>
       </c>
@@ -5997,7 +6064,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>554</v>
       </c>
@@ -6011,7 +6078,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>556</v>
       </c>
@@ -6025,20 +6092,20 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C167" s="44" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E167" s="46"/>
       <c r="F167" s="47"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>558</v>
       </c>
@@ -6052,7 +6119,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>609</v>
       </c>
@@ -6060,10 +6127,10 @@
         <v>610</v>
       </c>
       <c r="F169" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>611</v>
       </c>
@@ -6071,17 +6138,17 @@
         <v>612</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E171"/>
       <c r="F171" s="47"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>613</v>
       </c>
@@ -6089,7 +6156,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>615</v>
       </c>
@@ -6097,7 +6164,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
         <v>108</v>
       </c>
@@ -6105,7 +6172,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>107</v>
       </c>
@@ -6116,7 +6183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>113</v>
       </c>
@@ -6127,7 +6194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>114</v>
       </c>
@@ -6138,7 +6205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>115</v>
       </c>
@@ -6149,7 +6216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>116</v>
       </c>
@@ -6160,10 +6227,10 @@
         <v>87</v>
       </c>
       <c r="F183" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>490</v>
       </c>
@@ -6171,7 +6238,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>133</v>
       </c>
@@ -6182,7 +6249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>134</v>
       </c>
@@ -6193,7 +6260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>135</v>
       </c>
@@ -6204,7 +6271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>136</v>
       </c>
@@ -6215,7 +6282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>137</v>
       </c>
@@ -6226,20 +6293,20 @@
         <v>495</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E190"/>
       <c r="F190" s="47"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>138</v>
       </c>
@@ -6250,7 +6317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>139</v>
       </c>
@@ -6261,7 +6328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>140</v>
       </c>
@@ -6272,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>141</v>
       </c>
@@ -6283,7 +6350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>142</v>
       </c>
@@ -6294,7 +6361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>143</v>
       </c>
@@ -6305,7 +6372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>144</v>
       </c>
@@ -6316,7 +6383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>145</v>
       </c>
@@ -6327,7 +6394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>146</v>
       </c>
@@ -6338,7 +6405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>147</v>
       </c>
@@ -6349,7 +6416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>191</v>
       </c>
@@ -6363,7 +6430,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>193</v>
       </c>
@@ -6371,7 +6438,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>195</v>
       </c>
@@ -6385,10 +6452,10 @@
         <v>43555</v>
       </c>
       <c r="F203" s="48" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>492</v>
       </c>
@@ -6397,18 +6464,18 @@
       </c>
       <c r="E204" s="31"/>
     </row>
-    <row r="205" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="15" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="31"/>
     </row>
-    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>197</v>
       </c>
@@ -6422,7 +6489,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>199</v>
       </c>
@@ -6430,7 +6497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>417</v>
       </c>
@@ -6444,7 +6511,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>419</v>
       </c>
@@ -6452,7 +6519,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>421</v>
       </c>
@@ -6466,7 +6533,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>494</v>
       </c>
@@ -6480,7 +6547,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>517</v>
       </c>
@@ -6494,7 +6561,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>519</v>
       </c>
@@ -6508,7 +6575,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>521</v>
       </c>
@@ -6522,20 +6589,20 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E215" s="46"/>
       <c r="F215" s="47"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>523</v>
       </c>
@@ -6550,7 +6617,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>524</v>
       </c>
@@ -6565,10 +6632,10 @@
         <v>43561</v>
       </c>
       <c r="F217" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>526</v>
       </c>
@@ -6583,7 +6650,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>528</v>
       </c>
@@ -6598,7 +6665,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>530</v>
       </c>
@@ -6613,20 +6680,20 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C221" s="44" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E221" s="46"/>
       <c r="F221" s="47"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>532</v>
       </c>
@@ -6641,7 +6708,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>534</v>
       </c>
@@ -6656,7 +6723,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>536</v>
       </c>
@@ -6671,7 +6738,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>538</v>
       </c>
@@ -6686,7 +6753,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>618</v>
       </c>
@@ -6701,7 +6768,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>620</v>
       </c>
@@ -6710,22 +6777,22 @@
         <v>621</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B228" s="14"/>
       <c r="C228" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>622</v>
       </c>
@@ -6734,10 +6801,10 @@
         <v>623</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>624</v>
       </c>
@@ -6747,7 +6814,7 @@
       </c>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>626</v>
       </c>
@@ -6757,93 +6824,93 @@
       </c>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="49" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D232"/>
       <c r="E232"/>
       <c r="F232" s="47"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="49" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D233"/>
       <c r="E233"/>
       <c r="F233" s="47"/>
     </row>
-    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="49" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C234" s="50" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D234"/>
       <c r="E234"/>
       <c r="F234" s="47"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B235"/>
       <c r="C235" s="8"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B236"/>
       <c r="C236" s="8"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B237"/>
       <c r="C237" s="8"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B238"/>
       <c r="C238" s="8"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B239"/>
       <c r="C239" s="8"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B240"/>
       <c r="C240" s="8"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B241"/>
       <c r="C241" s="8"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C243"/>
       <c r="E243" s="31"/>
     </row>
-    <row r="244" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="35"/>
       <c r="B244" s="35" t="s">
         <v>422</v>
@@ -6854,7 +6921,7 @@
       <c r="D244" s="36"/>
       <c r="E244" s="35"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>424</v>
       </c>
@@ -6868,7 +6935,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>426</v>
       </c>
@@ -6882,7 +6949,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>428</v>
       </c>
@@ -6896,7 +6963,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>430</v>
       </c>
@@ -6910,7 +6977,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>432</v>
       </c>
@@ -6924,7 +6991,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>434</v>
       </c>
@@ -6938,7 +7005,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>436</v>
       </c>
@@ -6952,7 +7019,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>437</v>
       </c>
@@ -6966,7 +7033,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>440</v>
       </c>
@@ -6980,7 +7047,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>442</v>
       </c>
@@ -6994,20 +7061,20 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C255" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>719</v>
       </c>
       <c r="E255" s="46"/>
       <c r="F255" s="47"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>444</v>
       </c>
@@ -7021,20 +7088,20 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E257" s="46"/>
       <c r="F257" s="47"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>446</v>
       </c>
@@ -7048,7 +7115,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>448</v>
       </c>
@@ -7062,7 +7129,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>450</v>
       </c>
@@ -7076,7 +7143,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>452</v>
       </c>
@@ -7090,7 +7157,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>454</v>
       </c>
@@ -7104,7 +7171,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>457</v>
       </c>
@@ -7118,7 +7185,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>460</v>
       </c>
@@ -7129,7 +7196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>461</v>
       </c>
@@ -7140,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>462</v>
       </c>
@@ -7151,7 +7218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>464</v>
       </c>
@@ -7165,7 +7232,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>465</v>
       </c>
@@ -7173,7 +7240,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>560</v>
       </c>
@@ -7181,22 +7248,22 @@
         <v>561</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>561</v>
       </c>
       <c r="E270"/>
       <c r="F270" s="51" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>562</v>
       </c>
@@ -7210,7 +7277,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>564</v>
       </c>
@@ -7224,7 +7291,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>566</v>
       </c>
@@ -7238,20 +7305,20 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E274" s="46"/>
       <c r="F274" s="47"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>568</v>
       </c>
@@ -7265,7 +7332,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>570</v>
       </c>
@@ -7276,7 +7343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>572</v>
       </c>
@@ -7284,7 +7351,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>574</v>
       </c>
@@ -7292,7 +7359,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>576</v>
       </c>
@@ -7306,7 +7373,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>578</v>
       </c>
@@ -7320,7 +7387,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>629</v>
       </c>
@@ -7334,7 +7401,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="35" t="s">
         <v>6</v>
       </c>
@@ -7349,7 +7416,7 @@
       </c>
       <c r="E288" s="35"/>
     </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>203</v>
       </c>
@@ -7360,7 +7427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>9</v>
       </c>
@@ -7371,7 +7438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>20</v>
       </c>
@@ -7382,7 +7449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>21</v>
       </c>
@@ -7393,7 +7460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>22</v>
       </c>
@@ -7404,7 +7471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>23</v>
       </c>
@@ -7415,7 +7482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>24</v>
       </c>
@@ -7426,7 +7493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>25</v>
       </c>
@@ -7437,7 +7504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>26</v>
       </c>
@@ -7448,7 +7515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>27</v>
       </c>
@@ -7459,7 +7526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>28</v>
       </c>
@@ -7470,7 +7537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>29</v>
       </c>
@@ -7478,10 +7545,10 @@
         <v>18</v>
       </c>
       <c r="F300" s="47" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>206</v>
       </c>
@@ -7490,7 +7557,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>205</v>
       </c>
@@ -7498,7 +7565,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>30</v>
       </c>
@@ -7509,7 +7576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>43</v>
       </c>
@@ -7520,7 +7587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>44</v>
       </c>
@@ -7531,7 +7598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>45</v>
       </c>
@@ -7542,7 +7609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>46</v>
       </c>
@@ -7553,7 +7620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>47</v>
       </c>
@@ -7561,7 +7628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>48</v>
       </c>
@@ -7572,7 +7639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>49</v>
       </c>
@@ -7583,7 +7650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>50</v>
       </c>
@@ -7594,7 +7661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>150</v>
       </c>
@@ -7606,10 +7673,10 @@
         <v>208</v>
       </c>
       <c r="F312" s="47" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>51</v>
       </c>
@@ -7620,7 +7687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>52</v>
       </c>
@@ -7631,7 +7698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>53</v>
       </c>
@@ -7642,7 +7709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>54</v>
       </c>
@@ -7653,7 +7720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>164</v>
       </c>
@@ -7664,7 +7731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>172</v>
       </c>
@@ -7678,7 +7745,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>173</v>
       </c>
@@ -7692,7 +7759,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>213</v>
       </c>
@@ -7706,7 +7773,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>174</v>
       </c>
@@ -7720,7 +7787,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>175</v>
       </c>
@@ -7734,7 +7801,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>176</v>
       </c>
@@ -7748,7 +7815,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>209</v>
       </c>
@@ -7759,7 +7826,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>177</v>
       </c>
@@ -7773,7 +7840,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>211</v>
       </c>
@@ -7787,7 +7854,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>201</v>
       </c>
@@ -7796,60 +7863,60 @@
       </c>
       <c r="E327" s="31"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E328" s="46"/>
       <c r="F328" s="47"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C329" s="11"/>
       <c r="E329" s="46"/>
       <c r="F329" s="47"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C330" s="11"/>
       <c r="E330" s="46"/>
       <c r="F330" s="47"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C331" s="11"/>
       <c r="E331" s="46"/>
       <c r="F331" s="47"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C332" s="11"/>
       <c r="E332" s="46"/>
       <c r="F332" s="47"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C333" s="11"/>
       <c r="E333" s="46"/>
       <c r="F333" s="47"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C334" s="11"/>
       <c r="E334" s="46"/>
       <c r="F334" s="47"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C335" s="11"/>
       <c r="E335" s="46"/>
       <c r="F335" s="47"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C336" s="11"/>
       <c r="E336" s="46"/>
       <c r="F336" s="47"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="35"/>
       <c r="B337" s="35" t="s">
         <v>471</v>
@@ -7860,7 +7927,7 @@
       <c r="D337" s="36"/>
       <c r="E337" s="35"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>472</v>
       </c>
@@ -7874,7 +7941,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>473</v>
       </c>
@@ -7888,7 +7955,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>474</v>
       </c>
@@ -7902,30 +7969,30 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E341" s="46"/>
       <c r="F341" s="47"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E342" s="46"/>
       <c r="F342" s="47"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>475</v>
       </c>
@@ -7933,12 +8000,12 @@
         <v>471</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E343"/>
       <c r="F343" s="47"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>595</v>
       </c>
@@ -7946,7 +8013,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>597</v>
       </c>
@@ -7954,7 +8021,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>599</v>
       </c>
@@ -7962,7 +8029,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="35"/>
       <c r="B353" s="35" t="s">
         <v>476</v>
@@ -7973,7 +8040,7 @@
       <c r="D353" s="36"/>
       <c r="E353" s="35"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>478</v>
       </c>
@@ -7987,20 +8054,20 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E355" s="46"/>
       <c r="F355" s="47"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>479</v>
       </c>
@@ -8014,7 +8081,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>480</v>
       </c>
@@ -8028,7 +8095,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>480</v>
       </c>
@@ -8036,30 +8103,30 @@
         <v>580</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E359" s="46"/>
       <c r="F359" s="47"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E360" s="46"/>
       <c r="F360" s="47"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>581</v>
       </c>
@@ -8067,20 +8134,20 @@
         <v>582</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E362"/>
       <c r="F362" s="47"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>583</v>
       </c>
@@ -8088,7 +8155,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>584</v>
       </c>
@@ -8096,7 +8163,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>586</v>
       </c>
@@ -8104,7 +8171,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>589</v>
       </c>
@@ -8112,7 +8179,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>591</v>
       </c>
@@ -8121,7 +8188,7 @@
       </c>
       <c r="E367" s="31"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>593</v>
       </c>
@@ -8130,22 +8197,22 @@
       </c>
       <c r="E368" s="31"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E369" s="31"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E370" s="31"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E371" s="31"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E372" s="31"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E373" s="31"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="35"/>
       <c r="B374" s="35" t="s">
         <v>289</v>
@@ -8156,7 +8223,7 @@
       <c r="D374" s="36"/>
       <c r="E374" s="35"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>291</v>
       </c>
@@ -8170,7 +8237,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>292</v>
       </c>
@@ -8184,7 +8251,7 @@
         <v>43568</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>294</v>
       </c>
@@ -8198,7 +8265,7 @@
         <v>43568</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>296</v>
       </c>
@@ -8212,7 +8279,7 @@
         <v>43568</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>298</v>
       </c>
@@ -8226,7 +8293,7 @@
         <v>43568</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>321</v>
       </c>
@@ -8234,7 +8301,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="35"/>
       <c r="B382" s="35" t="s">
         <v>56</v>
@@ -8245,7 +8312,7 @@
       <c r="D382" s="36"/>
       <c r="E382" s="45"/>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>55</v>
       </c>
@@ -8256,7 +8323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>60</v>
       </c>
@@ -8267,7 +8334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>61</v>
       </c>
@@ -8278,31 +8345,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="73" t="s">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B386" s="73"/>
-      <c r="C386" s="74" t="s">
+      <c r="B386" s="71"/>
+      <c r="C386" s="72" t="s">
         <v>353</v>
       </c>
       <c r="F386" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="73" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="B387" s="73"/>
-      <c r="C387" s="74" t="s">
+      <c r="B387" s="71"/>
+      <c r="C387" s="72" t="s">
         <v>354</v>
       </c>
       <c r="F387" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>62</v>
       </c>
@@ -8313,7 +8380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>64</v>
       </c>
@@ -8324,17 +8391,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C390" s="63" t="s">
-        <v>740</v>
-      </c>
-      <c r="D390" s="63" t="s">
+      <c r="C390" s="61" t="s">
+        <v>738</v>
+      </c>
+      <c r="D390" s="61" t="s">
         <v>7</v>
       </c>
       <c r="E390" s="46">
@@ -8342,15 +8409,15 @@
       </c>
       <c r="F390" s="47"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C391" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>7</v>
@@ -8360,7 +8427,7 @@
       </c>
       <c r="F391" s="47"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>66</v>
       </c>
@@ -8371,7 +8438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>68</v>
       </c>
@@ -8382,7 +8449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>70</v>
       </c>
@@ -8393,7 +8460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>72</v>
       </c>
@@ -8404,7 +8471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>74</v>
       </c>
@@ -8415,7 +8482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>153</v>
       </c>
@@ -8427,15 +8494,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="72" t="s">
+      <c r="C398" s="70" t="s">
         <v>482</v>
       </c>
       <c r="D398"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>76</v>
       </c>
@@ -8446,7 +8513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>78</v>
       </c>
@@ -8457,7 +8524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>80</v>
       </c>
@@ -8468,7 +8535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>82</v>
       </c>
@@ -8479,7 +8546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>84</v>
       </c>
@@ -8490,7 +8557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>178</v>
       </c>
@@ -8504,7 +8571,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>215</v>
       </c>
@@ -8518,9 +8585,9 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>356</v>
@@ -8532,36 +8599,36 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A408" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="B408" s="67"/>
-      <c r="C408" s="64" t="s">
+    <row r="408" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A408" s="65" t="s">
+        <v>779</v>
+      </c>
+      <c r="B408" s="65"/>
+      <c r="C408" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="D408" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E408" s="65">
+      <c r="D408" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" s="63">
         <v>43568</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C410" s="5"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>181</v>
       </c>
@@ -8575,7 +8642,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>182</v>
       </c>
@@ -8589,7 +8656,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>183</v>
       </c>
@@ -8600,7 +8667,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>216</v>
       </c>
@@ -8614,9 +8681,9 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>360</v>
@@ -8628,9 +8695,9 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>338</v>
@@ -8642,12 +8709,12 @@
         <v>43554</v>
       </c>
       <c r="F416" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>486</v>
@@ -8657,12 +8724,12 @@
       </c>
       <c r="E417" s="31"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C418" s="71" t="s">
-        <v>774</v>
+        <v>776</v>
+      </c>
+      <c r="C418" s="69" t="s">
+        <v>772</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>7</v>
@@ -8671,7 +8738,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>236</v>
       </c>
@@ -8685,7 +8752,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>361</v>
       </c>
@@ -8699,7 +8766,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>363</v>
       </c>
@@ -8708,7 +8775,7 @@
       </c>
       <c r="E421" s="31"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>503</v>
       </c>
@@ -8722,10 +8789,10 @@
         <v>43559</v>
       </c>
       <c r="F422" s="43" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>238</v>
       </c>
@@ -8739,7 +8806,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>240</v>
       </c>
@@ -8753,7 +8820,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>505</v>
       </c>
@@ -8767,99 +8834,99 @@
         <v>43559</v>
       </c>
       <c r="F425" s="43" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D426" s="38"/>
       <c r="E426" s="31"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="69" t="s">
-        <v>772</v>
-      </c>
-      <c r="B427" s="69"/>
-      <c r="C427" s="69" t="s">
-        <v>773</v>
-      </c>
-      <c r="D427" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E427" s="69">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A427" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="B427" s="67"/>
+      <c r="C427" s="67" t="s">
+        <v>771</v>
+      </c>
+      <c r="D427" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" s="67">
         <v>43568</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A428" s="67" t="s">
+    <row r="428" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A428" s="65" t="s">
+        <v>759</v>
+      </c>
+      <c r="B428" s="65"/>
+      <c r="C428" s="61" t="s">
+        <v>760</v>
+      </c>
+      <c r="D428" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E428" s="63">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A429" s="65" t="s">
+        <v>769</v>
+      </c>
+      <c r="C429" s="61" t="s">
         <v>761</v>
-      </c>
-      <c r="B428" s="67"/>
-      <c r="C428" s="63" t="s">
-        <v>762</v>
-      </c>
-      <c r="D428" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E428" s="65">
-        <v>43568</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="67" t="s">
-        <v>771</v>
-      </c>
-      <c r="C429" s="63" t="s">
-        <v>763</v>
       </c>
       <c r="D429" s="38"/>
       <c r="E429" s="31"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C430" s="38"/>
       <c r="D430" s="38"/>
       <c r="E430" s="31"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C431" s="38"/>
       <c r="D431" s="38"/>
       <c r="E431" s="31"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C432" s="38"/>
       <c r="D432" s="38"/>
       <c r="E432" s="31"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C433" s="38"/>
       <c r="D433" s="38"/>
       <c r="E433" s="31"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C434" s="38"/>
       <c r="D434" s="38"/>
       <c r="E434" s="31"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C435" s="38"/>
       <c r="D435" s="38"/>
       <c r="E435" s="31"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="45"/>
       <c r="B437" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="C437" s="70"/>
-      <c r="D437" s="70"/>
+      <c r="C437" s="68"/>
+      <c r="D437" s="68"/>
       <c r="E437" s="45"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>228</v>
       </c>
@@ -8873,7 +8940,7 @@
         <v>43554</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>229</v>
       </c>
@@ -8887,7 +8954,7 @@
         <v>43568</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>231</v>
       </c>
@@ -8901,17 +8968,17 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="67" t="s">
-        <v>769</v>
-      </c>
-      <c r="B441" s="67"/>
-      <c r="C441" s="63" t="s">
-        <v>770</v>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A441" s="65" t="s">
+        <v>767</v>
+      </c>
+      <c r="B441" s="65"/>
+      <c r="C441" s="61" t="s">
+        <v>768</v>
       </c>
       <c r="E441" s="31"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>232</v>
       </c>
@@ -8925,103 +8992,103 @@
         <v>43568</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C443"/>
       <c r="E443" s="31"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C444" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E444" s="46">
         <v>43537</v>
       </c>
       <c r="F444" s="47"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C445" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="F445" s="47"/>
+    </row>
+    <row r="446" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A446" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C446" s="64" t="s">
         <v>764</v>
       </c>
-      <c r="F445" s="47"/>
-    </row>
-    <row r="446" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="D446" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="C446" s="66" t="s">
-        <v>766</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="E446" s="46">
         <v>43537</v>
       </c>
       <c r="F446" s="47"/>
     </row>
-    <row r="447" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A447" s="26"/>
       <c r="B447" s="26"/>
       <c r="C447" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D447" s="28">
         <f>COUNTA($D$1:$D444)</f>
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E447" s="33"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C448" s="23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D448" s="24">
         <f>COUNTIF($D$1:$D444, "=Done")</f>
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E448" s="25">
         <f>$D448/$D$447</f>
-        <v>0.86821705426356588</v>
-      </c>
-    </row>
-    <row r="449" spans="3:5" x14ac:dyDescent="0.25">
+        <v>0.87313432835820892</v>
+      </c>
+    </row>
+    <row r="449" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C449" s="29" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D449" s="24"/>
       <c r="E449" s="25"/>
     </row>
-    <row r="450" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C450" s="30" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D450" s="24">
         <f>COUNTIF($D$1:$D447, "=In process")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E450" s="25">
         <f>$D450/($D$447 - $D$448)</f>
-        <v>0.14705882352941177</v>
-      </c>
-    </row>
-    <row r="451" spans="3:5" x14ac:dyDescent="0.25">
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C451" s="30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D451" s="24">
         <f>COUNTIF($D$1:$D448, "=Pending")</f>
@@ -9050,9 +9117,9 @@
       <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -9069,10 +9136,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>276</v>
@@ -9084,7 +9151,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>277</v>
       </c>
@@ -9102,49 +9169,49 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="46"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>278</v>
       </c>
@@ -9157,7 +9224,7 @@
       <c r="D7" s="2"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>280</v>
       </c>
@@ -9170,7 +9237,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>282</v>
       </c>
@@ -9183,7 +9250,7 @@
       <c r="D9" s="2"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>284</v>
       </c>
@@ -9196,7 +9263,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>286</v>
       </c>
@@ -9209,7 +9276,7 @@
       <c r="D11" s="2"/>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>288</v>
       </c>
@@ -9222,7 +9289,7 @@
       <c r="D12" s="2"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>322</v>
       </c>
@@ -9235,7 +9302,7 @@
       <c r="D13" s="2"/>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -9255,9 +9322,9 @@
       <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -9274,10 +9341,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>300</v>
@@ -9289,7 +9356,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>302</v>
       </c>
@@ -9307,7 +9374,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>303</v>
       </c>
@@ -9325,35 +9392,35 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="290" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="46"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>305</v>
       </c>
@@ -9371,21 +9438,21 @@
       </c>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>307</v>
       </c>
@@ -9398,7 +9465,7 @@
       <c r="D9" s="2"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>309</v>
       </c>
@@ -9411,7 +9478,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
@@ -9437,9 +9504,9 @@
       <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -9456,10 +9523,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>90</v>
@@ -9469,7 +9536,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>89</v>
       </c>
@@ -9487,7 +9554,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -9505,7 +9572,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -9523,7 +9590,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -9541,7 +9608,7 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
@@ -9559,7 +9626,7 @@
       </c>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -9577,7 +9644,7 @@
       </c>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>162</v>
       </c>
@@ -9595,7 +9662,7 @@
       </c>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>179</v>
       </c>
@@ -9613,7 +9680,7 @@
       </c>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
@@ -9631,7 +9698,7 @@
       </c>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>189</v>
       </c>
@@ -9649,7 +9716,7 @@
       </c>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>190</v>
       </c>
@@ -9667,7 +9734,7 @@
       </c>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>342</v>
       </c>
@@ -9685,7 +9752,7 @@
       </c>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>344</v>
       </c>
@@ -9703,7 +9770,7 @@
       </c>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>346</v>
       </c>
@@ -9721,7 +9788,7 @@
       </c>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>347</v>
       </c>
@@ -9736,10 +9803,10 @@
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>500</v>
       </c>
@@ -9757,15 +9824,15 @@
       </c>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="46"/>
@@ -9785,9 +9852,9 @@
       <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -9804,10 +9871,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>185</v>
@@ -9819,7 +9886,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>186</v>
       </c>
@@ -9832,7 +9899,7 @@
       <c r="D3" s="2"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>549</v>
       </c>
@@ -9858,9 +9925,9 @@
       <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -9877,10 +9944,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>104</v>
@@ -9890,7 +9957,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -9905,7 +9972,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>365</v>
       </c>
@@ -9920,7 +9987,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>508</v>
       </c>
@@ -9951,9 +10018,9 @@
       <selection activeCell="A2" sqref="A2:F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -9970,10 +10037,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>367</v>
@@ -9985,7 +10052,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>368</v>
       </c>
@@ -10000,7 +10067,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>370</v>
       </c>
@@ -10015,7 +10082,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>372</v>
       </c>
@@ -10030,7 +10097,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>374</v>
       </c>
@@ -10048,7 +10115,7 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>376</v>
       </c>
@@ -10063,7 +10130,7 @@
       </c>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>377</v>
       </c>
@@ -10078,7 +10145,7 @@
       </c>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>378</v>
       </c>
@@ -10093,7 +10160,7 @@
       </c>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>383</v>
       </c>
@@ -10105,10 +10172,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="43" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>379</v>
       </c>
@@ -10123,7 +10190,7 @@
       </c>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>386</v>
       </c>
@@ -10138,7 +10205,7 @@
       </c>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -10153,7 +10220,7 @@
       </c>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>390</v>
       </c>
@@ -10165,10 +10232,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="43" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>391</v>
       </c>
@@ -10183,7 +10250,7 @@
       </c>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>393</v>
       </c>
@@ -10198,7 +10265,7 @@
       </c>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>395</v>
       </c>
@@ -10213,7 +10280,7 @@
       </c>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>397</v>
       </c>
@@ -10228,7 +10295,7 @@
       </c>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>399</v>
       </c>
@@ -10243,7 +10310,7 @@
       </c>
       <c r="F19" s="47"/>
     </row>
-    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>401</v>
       </c>
@@ -10258,7 +10325,7 @@
       </c>
       <c r="F20" s="47"/>
     </row>
-    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>403</v>
       </c>
@@ -10273,7 +10340,7 @@
       </c>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>405</v>
       </c>
@@ -10288,7 +10355,7 @@
       </c>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>407</v>
       </c>
@@ -10303,7 +10370,7 @@
       </c>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>409</v>
       </c>
@@ -10318,7 +10385,7 @@
       </c>
       <c r="F24" s="47"/>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>496</v>
       </c>
@@ -10336,7 +10403,7 @@
       </c>
       <c r="F25" s="47"/>
     </row>
-    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>499</v>
       </c>
@@ -10354,7 +10421,7 @@
       </c>
       <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>512</v>
       </c>
@@ -10372,7 +10439,7 @@
       </c>
       <c r="F27" s="47"/>
     </row>
-    <row r="28" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>513</v>
       </c>
@@ -10390,7 +10457,7 @@
       </c>
       <c r="F28" s="47"/>
     </row>
-    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>514</v>
       </c>
@@ -10405,7 +10472,7 @@
       </c>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>515</v>
       </c>
@@ -10416,13 +10483,13 @@
         <v>511</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>540</v>
       </c>
@@ -10434,10 +10501,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="43" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>542</v>
       </c>
@@ -10450,7 +10517,7 @@
       <c r="D32" s="2"/>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>544</v>
       </c>
@@ -10468,7 +10535,7 @@
       </c>
       <c r="F33" s="47"/>
     </row>
-    <row r="34" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>546</v>
       </c>
@@ -10486,7 +10553,7 @@
       </c>
       <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>548</v>
       </c>
@@ -10504,7 +10571,7 @@
       </c>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>552</v>
       </c>
@@ -10522,7 +10589,7 @@
       </c>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>554</v>
       </c>
@@ -10540,7 +10607,7 @@
       </c>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>556</v>
       </c>
@@ -10558,21 +10625,21 @@
       </c>
       <c r="F38" s="47"/>
     </row>
-    <row r="39" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
     </row>
-    <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>558</v>
       </c>
@@ -10590,7 +10657,7 @@
       </c>
       <c r="F40" s="47"/>
     </row>
-    <row r="41" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>609</v>
       </c>
@@ -10604,10 +10671,10 @@
         <v>7</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>611</v>
       </c>
@@ -10620,18 +10687,18 @@
       <c r="D42" s="2"/>
       <c r="F42" s="47"/>
     </row>
-    <row r="43" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="47"/>
     </row>
-    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>613</v>
       </c>
@@ -10643,10 +10710,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="F44" s="43" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>615</v>
       </c>
@@ -10658,7 +10725,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="43" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -10675,9 +10742,9 @@
       <selection activeCell="A2" sqref="A2:F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -10694,10 +10761,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>108</v>
@@ -10709,7 +10776,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
@@ -10724,20 +10791,20 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -10752,7 +10819,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
@@ -10767,7 +10834,7 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -10782,7 +10849,7 @@
       </c>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -10793,13 +10860,13 @@
         <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>490</v>
       </c>
@@ -10814,7 +10881,7 @@
       </c>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -10829,7 +10896,7 @@
       </c>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -10844,7 +10911,7 @@
       </c>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
@@ -10859,7 +10926,7 @@
       </c>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
@@ -10874,20 +10941,20 @@
       </c>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -10902,7 +10969,7 @@
       </c>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -10917,7 +10984,7 @@
       </c>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -10932,7 +10999,7 @@
       </c>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -10947,7 +11014,7 @@
       </c>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
@@ -10962,7 +11029,7 @@
       </c>
       <c r="F19" s="47"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -10977,7 +11044,7 @@
       </c>
       <c r="F20" s="47"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>143</v>
       </c>
@@ -10992,7 +11059,7 @@
       </c>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>144</v>
       </c>
@@ -11007,7 +11074,7 @@
       </c>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
@@ -11022,7 +11089,7 @@
       </c>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
@@ -11037,7 +11104,7 @@
       </c>
       <c r="F24" s="47"/>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>147</v>
       </c>
@@ -11052,7 +11119,7 @@
       </c>
       <c r="F25" s="47"/>
     </row>
-    <row r="26" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>191</v>
       </c>
@@ -11070,7 +11137,7 @@
       </c>
       <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -11083,7 +11150,7 @@
       <c r="D27" s="2"/>
       <c r="F27" s="47"/>
     </row>
-    <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>195</v>
       </c>
@@ -11100,10 +11167,10 @@
         <v>43555</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>492</v>
       </c>
@@ -11111,7 +11178,7 @@
         <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>7</v>
@@ -11119,7 +11186,7 @@
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>197</v>
       </c>
@@ -11137,7 +11204,7 @@
       </c>
       <c r="F30" s="47"/>
     </row>
-    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>199</v>
       </c>
@@ -11150,7 +11217,7 @@
       <c r="D31" s="2"/>
       <c r="F31" s="47"/>
     </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>417</v>
       </c>
@@ -11168,7 +11235,7 @@
       </c>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>419</v>
       </c>
@@ -11181,7 +11248,7 @@
       <c r="D33" s="2"/>
       <c r="F33" s="47"/>
     </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>421</v>
       </c>
@@ -11199,7 +11266,7 @@
       </c>
       <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>494</v>
       </c>
@@ -11217,7 +11284,7 @@
       </c>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>517</v>
       </c>
@@ -11235,7 +11302,7 @@
       </c>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>519</v>
       </c>
@@ -11252,10 +11319,10 @@
         <v>43557</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>521</v>
       </c>
@@ -11272,24 +11339,24 @@
         <v>43557</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>523</v>
       </c>
@@ -11307,7 +11374,7 @@
       </c>
       <c r="F40" s="47"/>
     </row>
-    <row r="41" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>524</v>
       </c>
@@ -11324,10 +11391,10 @@
         <v>43561</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>526</v>
       </c>
@@ -11345,7 +11412,7 @@
       </c>
       <c r="F42" s="47"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>528</v>
       </c>
@@ -11363,7 +11430,7 @@
       </c>
       <c r="F43" s="47"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>530</v>
       </c>
@@ -11381,21 +11448,21 @@
       </c>
       <c r="F44" s="47"/>
     </row>
-    <row r="45" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="46"/>
       <c r="F45" s="47"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>532</v>
       </c>
@@ -11413,7 +11480,7 @@
       </c>
       <c r="F46" s="47"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>534</v>
       </c>
@@ -11431,7 +11498,7 @@
       </c>
       <c r="F47" s="47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>536</v>
       </c>
@@ -11449,7 +11516,7 @@
       </c>
       <c r="F48" s="47"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>538</v>
       </c>
@@ -11467,7 +11534,7 @@
       </c>
       <c r="F49" s="47"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>618</v>
       </c>
@@ -11485,7 +11552,7 @@
       </c>
       <c r="F50" s="47"/>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>620</v>
       </c>
@@ -11496,13 +11563,13 @@
         <v>621</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>622</v>
       </c>
@@ -11513,11 +11580,11 @@
         <v>623</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F52" s="47"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>624</v>
       </c>
@@ -11528,11 +11595,11 @@
         <v>625</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F53" s="47"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>626</v>
       </c>
@@ -11544,39 +11611,39 @@
       </c>
       <c r="F54" s="47"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="49" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F55" s="47"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="49" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F56" s="47"/>
     </row>
-    <row r="57" spans="1:6" ht="330" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A57" s="49" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F57" s="47"/>
     </row>
@@ -11594,9 +11661,9 @@
       <selection activeCell="A2" sqref="A2:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -11613,13 +11680,13 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>423</v>
@@ -11628,12 +11695,12 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>425</v>
@@ -11646,12 +11713,12 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>427</v>
@@ -11664,12 +11731,12 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>429</v>
@@ -11682,12 +11749,12 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>431</v>
@@ -11700,12 +11767,12 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>433</v>
@@ -11718,12 +11785,12 @@
       </c>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>435</v>
@@ -11736,12 +11803,12 @@
       </c>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>439</v>
@@ -11754,12 +11821,12 @@
       </c>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>438</v>
@@ -11772,12 +11839,12 @@
       </c>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>441</v>
@@ -11790,12 +11857,12 @@
       </c>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>443</v>
@@ -11808,26 +11875,26 @@
       </c>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>719</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="46"/>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>445</v>
@@ -11840,26 +11907,26 @@
       </c>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="46"/>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>447</v>
@@ -11872,12 +11939,12 @@
       </c>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>449</v>
@@ -11890,12 +11957,12 @@
       </c>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>451</v>
@@ -11908,12 +11975,12 @@
       </c>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>453</v>
@@ -11926,12 +11993,12 @@
       </c>
       <c r="F19" s="47"/>
     </row>
-    <row r="20" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>455</v>
@@ -11944,12 +12011,12 @@
       </c>
       <c r="F20" s="47"/>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>456</v>
@@ -11962,12 +12029,12 @@
       </c>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>458</v>
@@ -11977,12 +12044,12 @@
       </c>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>459</v>
@@ -11992,12 +12059,12 @@
       </c>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C24" t="s">
         <v>463</v>
@@ -12007,12 +12074,12 @@
       </c>
       <c r="F24" s="47"/>
     </row>
-    <row r="25" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>628</v>
@@ -12025,12 +12092,12 @@
       </c>
       <c r="F25" s="47"/>
     </row>
-    <row r="26" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>466</v>
@@ -12038,27 +12105,27 @@
       <c r="D26" s="2"/>
       <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>561</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="51" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>563</v>
@@ -12071,12 +12138,12 @@
       </c>
       <c r="F28" s="47"/>
     </row>
-    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>565</v>
@@ -12089,12 +12156,12 @@
       </c>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>567</v>
@@ -12107,26 +12174,26 @@
       </c>
       <c r="F30" s="47"/>
     </row>
-    <row r="31" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
     </row>
-    <row r="32" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>569</v>
@@ -12139,12 +12206,12 @@
       </c>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>571</v>
@@ -12152,12 +12219,12 @@
       <c r="D33" s="2"/>
       <c r="F33" s="47"/>
     </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>573</v>
@@ -12165,12 +12232,12 @@
       <c r="D34" s="2"/>
       <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>575</v>
@@ -12178,12 +12245,12 @@
       <c r="D35" s="2"/>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>577</v>
@@ -12196,12 +12263,12 @@
       </c>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>579</v>
@@ -12214,12 +12281,12 @@
       </c>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>630</v>
@@ -12246,9 +12313,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -12265,10 +12332,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
@@ -12284,7 +12351,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>203</v>
       </c>
@@ -12299,7 +12366,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -12314,7 +12381,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -12329,7 +12396,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -12344,7 +12411,7 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -12359,7 +12426,7 @@
       </c>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -12374,7 +12441,7 @@
       </c>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -12389,7 +12456,7 @@
       </c>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -12404,7 +12471,7 @@
       </c>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -12419,7 +12486,7 @@
       </c>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -12434,7 +12501,7 @@
       </c>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -12449,7 +12516,7 @@
       </c>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -12461,10 +12528,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="47" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>206</v>
       </c>
@@ -12477,7 +12544,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>205</v>
       </c>
@@ -12490,7 +12557,7 @@
       <c r="D16" s="2"/>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -12505,7 +12572,7 @@
       </c>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -12520,7 +12587,7 @@
       </c>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -12535,7 +12602,7 @@
       </c>
       <c r="F19" s="47"/>
     </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -12550,7 +12617,7 @@
       </c>
       <c r="F20" s="47"/>
     </row>
-    <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -12565,7 +12632,7 @@
       </c>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -12578,7 +12645,7 @@
       <c r="D22" s="2"/>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -12593,7 +12660,7 @@
       </c>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -12608,7 +12675,7 @@
       </c>
       <c r="F24" s="47"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -12623,7 +12690,7 @@
       </c>
       <c r="F25" s="47"/>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>150</v>
       </c>
@@ -12634,13 +12701,13 @@
         <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -12655,7 +12722,7 @@
       </c>
       <c r="F27" s="47"/>
     </row>
-    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -12670,7 +12737,7 @@
       </c>
       <c r="F28" s="47"/>
     </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -12685,7 +12752,7 @@
       </c>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -12700,7 +12767,7 @@
       </c>
       <c r="F30" s="47"/>
     </row>
-    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>164</v>
       </c>
@@ -12715,7 +12782,7 @@
       </c>
       <c r="F31" s="47"/>
     </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>172</v>
       </c>
@@ -12733,7 +12800,7 @@
       </c>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>173</v>
       </c>
@@ -12751,7 +12818,7 @@
       </c>
       <c r="F33" s="47"/>
     </row>
-    <row r="34" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>213</v>
       </c>
@@ -12769,7 +12836,7 @@
       </c>
       <c r="F34" s="47"/>
     </row>
-    <row r="35" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>174</v>
       </c>
@@ -12787,7 +12854,7 @@
       </c>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>175</v>
       </c>
@@ -12805,7 +12872,7 @@
       </c>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>176</v>
       </c>
@@ -12823,7 +12890,7 @@
       </c>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>209</v>
       </c>
@@ -12839,7 +12906,7 @@
       </c>
       <c r="F38" s="47"/>
     </row>
-    <row r="39" spans="1:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>177</v>
       </c>
@@ -12857,7 +12924,7 @@
       </c>
       <c r="F39" s="47"/>
     </row>
-    <row r="40" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>211</v>
       </c>
@@ -12875,7 +12942,7 @@
       </c>
       <c r="F40" s="47"/>
     </row>
-    <row r="41" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>201</v>
       </c>
@@ -12903,9 +12970,9 @@
       <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -12922,22 +12989,22 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>471</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>472</v>
       </c>
@@ -12955,7 +13022,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>473</v>
       </c>
@@ -12973,7 +13040,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>474</v>
       </c>
@@ -12991,33 +13058,33 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="46"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>475</v>
       </c>
@@ -13025,12 +13092,12 @@
         <v>471</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>595</v>
       </c>
@@ -13043,7 +13110,7 @@
       <c r="D9" s="2"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>597</v>
       </c>
@@ -13056,7 +13123,7 @@
       <c r="D10" s="2"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>599</v>
       </c>
@@ -13082,13 +13149,13 @@
       <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="63.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -13105,38 +13172,38 @@
         <v>502</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="1"/>
@@ -13157,9 +13224,9 @@
       <selection activeCell="A2" sqref="A2:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -13176,22 +13243,22 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>476</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>478</v>
       </c>
@@ -13209,21 +13276,21 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>479</v>
       </c>
@@ -13241,7 +13308,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
@@ -13259,33 +13326,33 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="261" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>480</v>
       </c>
@@ -13298,7 +13365,7 @@
       <c r="D9" s="2"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>581</v>
       </c>
@@ -13311,20 +13378,20 @@
       <c r="D10" s="2"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>583</v>
       </c>
@@ -13337,7 +13404,7 @@
       <c r="D12" s="2"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>584</v>
       </c>
@@ -13350,7 +13417,7 @@
       <c r="D13" s="2"/>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>586</v>
       </c>
@@ -13363,7 +13430,7 @@
       <c r="D14" s="2"/>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>589</v>
       </c>
@@ -13376,7 +13443,7 @@
       <c r="D15" s="2"/>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>591</v>
       </c>
@@ -13390,7 +13457,7 @@
       <c r="E16" s="46"/>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>593</v>
       </c>
@@ -13417,9 +13484,9 @@
       <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -13436,10 +13503,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>289</v>
@@ -13451,7 +13518,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>291</v>
       </c>
@@ -13469,7 +13536,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>292</v>
       </c>
@@ -13482,7 +13549,7 @@
       <c r="D4" s="2"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>294</v>
       </c>
@@ -13495,7 +13562,7 @@
       <c r="D5" s="2"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>296</v>
       </c>
@@ -13508,7 +13575,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>298</v>
       </c>
@@ -13521,7 +13588,7 @@
       <c r="D7" s="2"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>321</v>
       </c>
@@ -13547,9 +13614,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -13566,10 +13633,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>56</v>
@@ -13581,7 +13648,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -13596,7 +13663,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -13611,7 +13678,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -13626,7 +13693,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
@@ -13638,10 +13705,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>152</v>
       </c>
@@ -13653,10 +13720,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -13671,7 +13738,7 @@
       </c>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -13686,33 +13753,33 @@
       </c>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="406" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -13727,7 +13794,7 @@
       </c>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -13742,7 +13809,7 @@
       </c>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -13757,7 +13824,7 @@
       </c>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -13772,7 +13839,7 @@
       </c>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -13787,7 +13854,7 @@
       </c>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>153</v>
       </c>
@@ -13802,18 +13869,18 @@
       </c>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="73" t="s">
         <v>482</v>
       </c>
-      <c r="D18" s="62"/>
+      <c r="D18" s="74"/>
       <c r="F18" s="47"/>
     </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -13828,7 +13895,7 @@
       </c>
       <c r="F19" s="47"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -13843,7 +13910,7 @@
       </c>
       <c r="F20" s="47"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -13858,7 +13925,7 @@
       </c>
       <c r="F21" s="47"/>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -13873,7 +13940,7 @@
       </c>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -13888,7 +13955,7 @@
       </c>
       <c r="F23" s="47"/>
     </row>
-    <row r="24" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -13906,7 +13973,7 @@
       </c>
       <c r="F24" s="47"/>
     </row>
-    <row r="25" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>215</v>
       </c>
@@ -13924,7 +13991,7 @@
       </c>
       <c r="F25" s="47"/>
     </row>
-    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>180</v>
       </c>
@@ -13942,7 +14009,7 @@
       </c>
       <c r="F26" s="47"/>
     </row>
-    <row r="27" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>222</v>
       </c>
@@ -13957,7 +14024,7 @@
       </c>
       <c r="F27" s="47"/>
     </row>
-    <row r="28" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="319" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>483</v>
       </c>
@@ -13970,7 +14037,7 @@
       <c r="D28" s="2"/>
       <c r="F28" s="47"/>
     </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>181</v>
       </c>
@@ -13988,7 +14055,7 @@
       </c>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>182</v>
       </c>
@@ -14006,7 +14073,7 @@
       </c>
       <c r="F30" s="47"/>
     </row>
-    <row r="31" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="290" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
@@ -14021,7 +14088,7 @@
       </c>
       <c r="F31" s="47"/>
     </row>
-    <row r="32" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>216</v>
       </c>
@@ -14039,7 +14106,7 @@
       </c>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>184</v>
       </c>
@@ -14052,7 +14119,7 @@
       <c r="D33" s="2"/>
       <c r="F33" s="47"/>
     </row>
-    <row r="34" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>226</v>
       </c>
@@ -14069,10 +14136,10 @@
         <v>43554</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>485</v>
       </c>
@@ -14086,7 +14153,7 @@
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>236</v>
       </c>
@@ -14100,7 +14167,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>361</v>
       </c>
@@ -14118,7 +14185,7 @@
       </c>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>363</v>
       </c>
@@ -14132,7 +14199,7 @@
       <c r="E38" s="46"/>
       <c r="F38" s="47"/>
     </row>
-    <row r="39" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>503</v>
       </c>
@@ -14149,10 +14216,10 @@
         <v>43559</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>238</v>
       </c>
@@ -14170,7 +14237,7 @@
       </c>
       <c r="F40" s="47"/>
     </row>
-    <row r="41" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>240</v>
       </c>
@@ -14188,7 +14255,7 @@
       </c>
       <c r="F41" s="47"/>
     </row>
-    <row r="42" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>505</v>
       </c>
@@ -14205,7 +14272,7 @@
         <v>43559</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -14225,9 +14292,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -14244,10 +14311,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>227</v>
@@ -14257,7 +14324,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -14275,7 +14342,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
@@ -14293,7 +14360,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
@@ -14311,7 +14378,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>232</v>
       </c>
@@ -14329,28 +14396,28 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="47"/>
@@ -14368,15 +14435,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -14393,17 +14460,17 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
       <c r="B3" s="56" t="s">
         <v>325</v>
@@ -14415,7 +14482,7 @@
       <c r="E3" s="58"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
@@ -14433,7 +14500,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>328</v>
       </c>
@@ -14451,7 +14518,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>329</v>
       </c>
@@ -14464,7 +14531,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>330</v>
       </c>
@@ -14477,7 +14544,7 @@
       <c r="D7" s="2"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -14497,14 +14564,14 @@
       <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -14521,10 +14588,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>312</v>
@@ -14536,7 +14603,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>313</v>
       </c>
@@ -14554,7 +14621,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>314</v>
       </c>
@@ -14572,7 +14639,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>316</v>
       </c>
@@ -14585,7 +14652,7 @@
       <c r="D5" s="2"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>318</v>
       </c>
@@ -14612,14 +14679,14 @@
       <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -14636,10 +14703,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>98</v>
@@ -14651,7 +14718,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -14666,7 +14733,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
@@ -14681,7 +14748,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
@@ -14696,7 +14763,7 @@
       </c>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>156</v>
       </c>
@@ -14711,7 +14778,7 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>157</v>
       </c>
@@ -14739,15 +14806,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -14764,10 +14831,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>86</v>
@@ -14777,7 +14844,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>487</v>
       </c>
@@ -14795,7 +14862,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>488</v>
       </c>
@@ -14821,14 +14888,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="71.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="71.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -14845,10 +14912,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
@@ -14866,119 +14933,119 @@
       </c>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="46"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="46"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="46"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="46"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="46"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="46"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>260</v>
       </c>
@@ -14996,7 +15063,7 @@
       </c>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>261</v>
       </c>
@@ -15014,7 +15081,7 @@
       </c>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>264</v>
       </c>
@@ -15032,7 +15099,7 @@
       </c>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>266</v>
       </c>
@@ -15050,7 +15117,7 @@
       </c>
       <c r="F14" s="47"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>268</v>
       </c>
@@ -15068,7 +15135,7 @@
       </c>
       <c r="F15" s="47"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>270</v>
       </c>
@@ -15086,7 +15153,7 @@
       </c>
       <c r="F16" s="47"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>323</v>
       </c>
@@ -15112,14 +15179,14 @@
       <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="72.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -15136,10 +15203,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>251</v>
@@ -15151,7 +15218,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
@@ -15169,7 +15236,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>273</v>
       </c>
@@ -15187,7 +15254,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>274</v>
       </c>
@@ -15200,7 +15267,7 @@
       <c r="D5" s="2"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>274</v>
       </c>
@@ -15208,21 +15275,21 @@
         <v>251</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>275</v>
       </c>
@@ -15235,7 +15302,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>324</v>
       </c>
@@ -15261,9 +15328,9 @@
       <selection activeCell="A2" sqref="A2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -15280,10 +15347,10 @@
         <v>502</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="56"/>
       <c r="B2" s="56" t="s">
         <v>243</v>
@@ -15295,7 +15362,7 @@
       <c r="E2" s="58"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
@@ -15313,7 +15380,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>246</v>
       </c>
@@ -15331,7 +15398,7 @@
       </c>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>248</v>
       </c>
@@ -15344,7 +15411,7 @@
       <c r="D5" s="2"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
@@ -15359,7 +15426,7 @@
       </c>
       <c r="F6" s="47"/>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>332</v>
       </c>
@@ -15372,7 +15439,7 @@
       <c r="D7" s="2"/>
       <c r="F7" s="47"/>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>601</v>
       </c>
@@ -15385,7 +15452,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="47"/>
     </row>
-    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>603</v>
       </c>
@@ -15398,20 +15465,20 @@
       <c r="D9" s="2"/>
       <c r="F9" s="47"/>
     </row>
-    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>605</v>
       </c>
@@ -15424,20 +15491,20 @@
       <c r="D11" s="2"/>
       <c r="F11" s="47"/>
     </row>
-    <row r="12" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="47"/>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>607</v>
       </c>
@@ -15450,15 +15517,15 @@
       <c r="D13" s="2"/>
       <c r="F13" s="47"/>
     </row>
-    <row r="14" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="47"/>

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FCBC83-86C5-439E-B242-36D16E6051E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE447632-19D6-47D4-BBAA-B09EAF890742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="-27900" yWindow="0" windowWidth="29040" windowHeight="16200" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="785">
   <si>
     <t>ID</t>
   </si>
@@ -3895,13 +3895,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4227,8 +4227,8 @@
   <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="1" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4675,7 +4675,12 @@
       <c r="C40" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="E40" s="31"/>
+      <c r="D40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="32">
+        <v>43569</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -4821,6 +4826,12 @@
       <c r="C52" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="D52" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="32">
+        <v>43569</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -4831,6 +4842,12 @@
       </c>
       <c r="C53" s="11" t="s">
         <v>670</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="32">
+        <v>43569</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -4974,7 +4991,7 @@
       <c r="C66" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="73" t="s">
         <v>781</v>
       </c>
     </row>
@@ -9049,7 +9066,7 @@
       </c>
       <c r="D447" s="28">
         <f>COUNTA($D$1:$D444)</f>
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E447" s="33"/>
     </row>
@@ -9059,11 +9076,11 @@
       </c>
       <c r="D448" s="24">
         <f>COUNTIF($D$1:$D444, "=Done")</f>
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E448" s="25">
         <f>$D448/$D$447</f>
-        <v>0.87313432835820892</v>
+        <v>0.87453874538745391</v>
       </c>
     </row>
     <row r="449" spans="3:5" x14ac:dyDescent="0.35">
@@ -13874,10 +13891,10 @@
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="75"/>
       <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742AC394-F393-40AC-B082-51D835FED7AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002EEA0-50AD-4166-B5D8-9488913969BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27900" yWindow="0" windowWidth="31410" windowHeight="16200" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <author>George 'Jos' Durtler</author>
   </authors>
   <commentList>
-    <comment ref="F127" authorId="0" shapeId="0" xr:uid="{941C9BA4-0D76-43DF-B410-245C73D6B5E4}">
+    <comment ref="F142" authorId="0" shapeId="0" xr:uid="{941C9BA4-0D76-43DF-B410-245C73D6B5E4}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F170" authorId="0" shapeId="0" xr:uid="{469F018A-68E0-4F10-917A-00F2D85EC164}">
+    <comment ref="F185" authorId="0" shapeId="0" xr:uid="{469F018A-68E0-4F10-917A-00F2D85EC164}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F171" authorId="0" shapeId="0" xr:uid="{6D09331B-3AB5-408D-AD0E-001AA7830DEF}">
+    <comment ref="F186" authorId="0" shapeId="0" xr:uid="{6D09331B-3AB5-408D-AD0E-001AA7830DEF}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F181" authorId="0" shapeId="0" xr:uid="{02859254-FC7A-44F2-9A44-8977BE6CB807}">
+    <comment ref="F196" authorId="0" shapeId="0" xr:uid="{02859254-FC7A-44F2-9A44-8977BE6CB807}">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F195" authorId="0" shapeId="0" xr:uid="{F4867AAD-F72A-4675-A4DB-33E2E2A49833}">
+    <comment ref="F210" authorId="0" shapeId="0" xr:uid="{F4867AAD-F72A-4675-A4DB-33E2E2A49833}">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F231" authorId="0" shapeId="0" xr:uid="{EC6AFACF-71E6-453E-B7A7-B6D21B9EC9B7}">
+    <comment ref="F246" authorId="0" shapeId="0" xr:uid="{EC6AFACF-71E6-453E-B7A7-B6D21B9EC9B7}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F284" authorId="0" shapeId="0" xr:uid="{43FD19C5-3BB6-46B1-9EF1-3C8908E891FA}">
+    <comment ref="F299" authorId="0" shapeId="0" xr:uid="{43FD19C5-3BB6-46B1-9EF1-3C8908E891FA}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F326" authorId="0" shapeId="0" xr:uid="{D48ECF22-3397-4D71-A9F4-2A81F711A0CE}">
+    <comment ref="F341" authorId="0" shapeId="0" xr:uid="{D48ECF22-3397-4D71-A9F4-2A81F711A0CE}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F412" authorId="0" shapeId="0" xr:uid="{C5459F54-D6E7-4473-9002-16DC428624B9}">
+    <comment ref="F427" authorId="0" shapeId="0" xr:uid="{C5459F54-D6E7-4473-9002-16DC428624B9}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F413" authorId="0" shapeId="0" xr:uid="{78B09D58-01F3-49E7-B51F-38F363D04C92}">
+    <comment ref="F428" authorId="0" shapeId="0" xr:uid="{78B09D58-01F3-49E7-B51F-38F363D04C92}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F442" authorId="0" shapeId="0" xr:uid="{219F0334-9C0D-4B0E-9917-EC384D011BEF}">
+    <comment ref="F457" authorId="0" shapeId="0" xr:uid="{219F0334-9C0D-4B0E-9917-EC384D011BEF}">
       <text>
         <r>
           <rPr>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="840">
   <si>
     <t>ID</t>
   </si>
@@ -3496,6 +3496,51 @@
   </si>
   <si>
     <t>Link Capture into the Photo Management</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>About Builder DC</t>
+  </si>
+  <si>
+    <t>AB1</t>
+  </si>
+  <si>
+    <t>AB2</t>
+  </si>
+  <si>
+    <t>Link to Version Infromation</t>
+  </si>
+  <si>
+    <t>AB3</t>
+  </si>
+  <si>
+    <t>Link to Shell Menu</t>
+  </si>
+  <si>
+    <t>AB4</t>
+  </si>
+  <si>
+    <t>Add graohics, Copyright, Descriptive text, etc.</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Copy Inspection</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Copy Section</t>
   </si>
 </sst>
 </file>
@@ -4089,12 +4134,6 @@
     <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4136,6 +4175,12 @@
     </xf>
     <xf numFmtId="14" fontId="18" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4457,11 +4502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BD8496-2E51-4D60-8137-BF15E4B09450}">
-  <dimension ref="A1:F477"/>
+  <dimension ref="A1:F492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D202" sqref="D202:E202"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D329" sqref="D329:E329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4504,40 +4549,40 @@
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="97" t="s">
         <v>644</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="93" t="s">
         <v>645</v>
       </c>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="97" t="s">
         <v>817</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="96" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="94" t="s">
         <v>818</v>
       </c>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>819</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="96" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="94" t="s">
         <v>820</v>
       </c>
       <c r="D7" s="17"/>
@@ -4554,101 +4599,87 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="28"/>
       <c r="B10" s="28" t="s">
-        <v>325</v>
+        <v>825</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
+        <v>826</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>327</v>
+        <v>827</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="24">
-        <v>43555</v>
+      <c r="D11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="25">
+        <v>43570</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>328</v>
+        <v>828</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="24">
-        <v>43555</v>
+        <v>829</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="25">
+        <v>43570</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>329</v>
+        <v>830</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>317</v>
+        <v>831</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="25">
-        <v>43563</v>
+        <v>43570</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>330</v>
+        <v>832</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="25">
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
+        <v>833</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D15"/>
+      <c r="E15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="24">
-        <v>43555</v>
-      </c>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -4659,24 +4690,24 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="25">
-        <v>43563</v>
+        <v>315</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="24">
+        <v>43555</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>7</v>
@@ -4685,357 +4716,344 @@
         <v>43563</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="25">
+        <v>43563</v>
+      </c>
+    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="28"/>
+      <c r="D22"/>
+      <c r="E22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E24" s="24">
+        <v>43555</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>155</v>
+        <v>314</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E25" s="24">
+        <v>43555</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>317</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="25">
+        <v>43563</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+        <v>319</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="25">
+        <v>43563</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>487</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="90">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>488</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="25">
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="24">
-        <v>43555</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>653</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="90"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="25">
-        <v>43569</v>
-      </c>
+      <c r="A36" s="32"/>
+      <c r="B36" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="88">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="25">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="25">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="25">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="25">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="90"/>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="C40" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="25">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="25">
-        <v>43569</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="24">
-        <v>43555</v>
+        <v>654</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="25">
+        <v>43569</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="24">
-        <v>43555</v>
+        <v>656</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="25">
+        <v>43569</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="24">
-        <v>43555</v>
+        <v>658</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="25">
+        <v>43569</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="24">
-        <v>43555</v>
+        <v>660</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="25">
+        <v>43569</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="88"/>
+    </row>
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="25">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>319</v>
+        <v>666</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>7</v>
@@ -5045,73 +5063,161 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="25">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>781</v>
       </c>
-      <c r="B50"/>
-      <c r="C50" s="62" t="s">
+      <c r="B57"/>
+      <c r="C57" s="62" t="s">
         <v>782</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="24">
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="24">
         <v>43568</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="66" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="66" t="s">
         <v>783</v>
       </c>
-      <c r="B51"/>
-      <c r="C51" s="67" t="s">
+      <c r="B58"/>
+      <c r="C58" s="67" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D60" s="1"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="28"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="28"/>
+      <c r="A61" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="24">
+        <v>43555</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
@@ -5122,24 +5228,27 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="24">
-        <v>43555</v>
+        <v>255</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="25">
+        <v>43569</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>255</v>
+        <v>669</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>668</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>7</v>
@@ -5150,77 +5259,74 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="25">
-        <v>43569</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="42"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>670</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="42"/>
+        <v>324</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="25">
+        <v>43563</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>334</v>
+      <c r="A67" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="16" t="s">
+        <v>632</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="25">
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="25">
         <v>43569</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="28"/>
+    </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="28"/>
+      <c r="A70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="24">
+        <v>43555</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>7</v>
@@ -5231,237 +5337,238 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="24">
-        <v>43555</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="E73" s="89"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="E74" s="91"/>
+        <v>319</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>332</v>
+        <v>601</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>7</v>
+        <v>602</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="25">
+        <v>43569</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="25">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="42"/>
+    </row>
+    <row r="77" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="42"/>
-    </row>
-    <row r="78" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="25">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>671</v>
+        <v>605</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="25">
-        <v>43570</v>
+        <v>606</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>815</v>
+      </c>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="D80" s="65" t="s">
-        <v>815</v>
-      </c>
-      <c r="E80" s="12"/>
+        <v>608</v>
+      </c>
+      <c r="D80" s="90" t="s">
+        <v>816</v>
+      </c>
+      <c r="E80" s="91">
+        <v>43570</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="D81" s="92" t="s">
+      <c r="C81" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="D81" s="90" t="s">
         <v>816</v>
       </c>
-      <c r="E81" s="93">
+      <c r="E81" s="91">
         <v>43570</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>816</v>
-      </c>
-      <c r="E82" s="93">
-        <v>43570</v>
-      </c>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C82" s="62"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C83" s="62"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="28"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="28"/>
+      <c r="A84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="24">
+        <v>43555</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="24">
-        <v>43555</v>
+        <v>677</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="25">
+        <v>43569</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="25">
-        <v>43569</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="88"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>276</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="90"/>
+        <v>682</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="25">
+        <v>43569</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>682</v>
+        <v>278</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="25">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>279</v>
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="68" t="s">
+        <v>779</v>
+      </c>
+      <c r="B89" s="68"/>
+      <c r="C89" s="69" t="s">
+        <v>780</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>7</v>
@@ -5470,13 +5577,12 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="68" t="s">
-        <v>779</v>
-      </c>
-      <c r="B90" s="68"/>
-      <c r="C90" s="69" t="s">
-        <v>780</v>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>7</v>
@@ -5487,10 +5593,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>7</v>
@@ -5501,10 +5607,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>7</v>
@@ -5515,215 +5621,157 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="25">
+        <v>287</v>
+      </c>
+      <c r="D93" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="89"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="25">
         <v>43570</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D94" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="91"/>
-    </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="25">
-        <v>43570</v>
-      </c>
+      <c r="A95" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="89"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D96" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="91"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C97" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D97" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="91"/>
+      <c r="D96" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="89"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="28"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="28"/>
+      <c r="A100" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="25">
+        <v>43570</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>302</v>
+        <v>837</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="24">
-        <v>43555</v>
+        <v>319</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="25">
+        <v>43570</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="24">
-        <v>43555</v>
-      </c>
+      <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="C103" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="25">
-        <v>43570</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="25">
-        <v>43570</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="25">
-        <v>43570</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D107" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="91"/>
+      <c r="C107" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="28"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D108" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="91"/>
+        <v>254</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="24">
+        <v>43555</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D109" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="91"/>
+        <v>304</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="24">
+        <v>43555</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>824</v>
+        <v>683</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>684</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>7</v>
@@ -5732,553 +5780,537 @@
         <v>43570</v>
       </c>
     </row>
+    <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="25">
+        <v>43570</v>
+      </c>
+    </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28" t="s">
+      <c r="A112" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="25">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D114" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="89"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="89"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D116" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="89"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="25">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>839</v>
+      </c>
+      <c r="D119" s="29"/>
+      <c r="E119" s="28"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="25">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="25">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="28"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="24">
+      <c r="D128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="24">
         <v>43553</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="24">
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="24">
         <v>43553</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="24">
+      <c r="D130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="24">
         <v>43553</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="24">
+      <c r="D131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="24">
         <v>43553</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="4" t="s">
+      <c r="B132" s="3"/>
+      <c r="C132" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="24">
+      <c r="D132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="24">
         <v>43553</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="24">
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="24">
         <v>43553</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="24">
+      <c r="D134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="24">
         <v>43553</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E120" s="24">
+      <c r="D135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="24">
         <v>43555</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" s="24">
+      <c r="D136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="24">
         <v>43555</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="137" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="24">
+      <c r="D137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="24">
         <v>43557</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="24">
+      <c r="D138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="24">
         <v>43556</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+    <row r="139" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C124" s="72" t="s">
+      <c r="C139" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="24">
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="24">
         <v>43557</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="C140" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="24">
+      <c r="D140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="24">
         <v>43557</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
+    <row r="141" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C126" s="62" t="s">
+      <c r="C141" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="24">
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="24">
         <v>43557</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C127" s="43" t="s">
+      <c r="C142" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="36" t="s">
+      <c r="E142" s="24"/>
+      <c r="F142" s="36" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C128" s="62" t="s">
+      <c r="C143" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E128" s="24">
+      <c r="E143" s="24">
         <v>43558</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="12" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="73" t="s">
+      <c r="B144" s="12"/>
+      <c r="C144" s="73" t="s">
         <v>635</v>
       </c>
-      <c r="E129" s="24"/>
-    </row>
-    <row r="130" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
+      <c r="E144" s="24"/>
+    </row>
+    <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C130" s="62" t="s">
+      <c r="C145" s="62" t="s">
         <v>691</v>
       </c>
-      <c r="D130" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="25">
+      <c r="D145" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="25">
         <v>43570</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C131" s="62"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C146" s="62"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="28"/>
+      <c r="B147" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C147" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="D132" s="29"/>
-      <c r="E132" s="28"/>
-    </row>
-    <row r="133" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
+      <c r="D147" s="29"/>
+      <c r="E147" s="28"/>
+    </row>
+    <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="38"/>
-      <c r="B137" s="28" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="38"/>
+      <c r="B152" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="28"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="28"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
+      <c r="D153" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="1" t="s">
+      <c r="D154" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="24">
+      <c r="D155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="24">
         <v>41370</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E141" s="24"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="28"/>
-      <c r="B142" s="28" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E156" s="24"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="28"/>
+      <c r="B157" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C157" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="D142" s="29"/>
-      <c r="E142" s="28"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
+      <c r="D157" s="29"/>
+      <c r="E157" s="28"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
+      <c r="D158" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
+      <c r="D159" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="24">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F150" s="36" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F154" s="36" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>7</v>
@@ -6286,21 +6318,24 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E161" s="24">
+        <v>43562</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>7</v>
@@ -6308,10 +6343,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>7</v>
@@ -6319,10 +6354,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>7</v>
@@ -6330,460 +6365,453 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E165" s="24">
-        <v>43558</v>
+        <v>383</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F165" s="36" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E166" s="24">
-        <v>43557</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>512</v>
+        <v>386</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E167" s="24">
-        <v>43558</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>513</v>
+        <v>388</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E168" s="24">
-        <v>43562</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>510</v>
+        <v>390</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F169" s="36" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>511</v>
+        <v>391</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F170" s="36" t="s">
-        <v>693</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="F171" s="36" t="s">
-        <v>693</v>
+        <v>393</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>542</v>
+        <v>395</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>543</v>
+        <v>396</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E172" s="24">
-        <v>43559</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>544</v>
+        <v>397</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>545</v>
+        <v>398</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E173" s="24">
-        <v>43562</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>546</v>
+        <v>399</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>547</v>
+        <v>400</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E174" s="24">
-        <v>43562</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>548</v>
+        <v>401</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>551</v>
+        <v>402</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E175" s="24">
-        <v>43562</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>552</v>
+        <v>403</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>553</v>
+        <v>404</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E176" s="24">
-        <v>43561</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>554</v>
+        <v>405</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>555</v>
+        <v>406</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E177" s="24">
-        <v>43562</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>556</v>
+        <v>407</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>557</v>
+        <v>408</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E178" s="24">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="68" t="s">
-        <v>694</v>
-      </c>
-      <c r="B179" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="C179" s="77" t="s">
-        <v>691</v>
-      </c>
-      <c r="D179" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="102">
-        <v>43569</v>
-      </c>
-      <c r="F179" s="40"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>558</v>
+        <v>496</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>559</v>
+        <v>411</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E180" s="24">
-        <v>43562</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="F181" s="36" t="s">
-        <v>689</v>
+        <v>499</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="24">
+        <v>43557</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="24">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="F183" s="40"/>
+        <v>513</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="24">
+        <v>43562</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>614</v>
+        <v>514</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>615</v>
+        <v>515</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>616</v>
+        <v>511</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F185" s="36" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F186" s="36" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="24">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="24">
+        <v>43562</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="28"/>
-      <c r="B190" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C190" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="D190" s="29"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="30"/>
+      <c r="A190" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="24">
+        <v>43562</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>107</v>
+        <v>552</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>109</v>
+        <v>553</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E191" s="24">
+        <v>43561</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>113</v>
+        <v>554</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>110</v>
+        <v>555</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E192" s="24">
+        <v>43562</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>114</v>
+        <v>556</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>111</v>
+        <v>557</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E193" s="24">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B194" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="C194" s="77" t="s">
+        <v>691</v>
+      </c>
+      <c r="D194" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="100">
+        <v>43569</v>
+      </c>
+      <c r="F194" s="40"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>117</v>
+        <v>558</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F195" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F196" s="36" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="F198" s="40"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>7</v>
+        <v>613</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B202" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="28"/>
+      <c r="B205" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C202" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="D202" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="25">
-        <v>43568</v>
-      </c>
-      <c r="F202" s="40"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C205" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="D205" s="29"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="30"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>7</v>
@@ -6791,10 +6819,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>7</v>
@@ -6802,10 +6830,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>7</v>
@@ -6813,10 +6841,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>7</v>
@@ -6824,298 +6852,274 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="F210" s="36" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E213" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E215" s="24">
-        <v>43555</v>
-      </c>
-      <c r="F215" s="41" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>492</v>
+        <v>137</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E216" s="24"/>
-    </row>
-    <row r="217" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="B217" s="12"/>
-      <c r="C217" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="24"/>
-    </row>
-    <row r="218" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" s="25">
+        <v>43568</v>
+      </c>
+      <c r="F217" s="40"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E218" s="24">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>417</v>
+        <v>140</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>418</v>
+        <v>125</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E220" s="24">
-        <v>43558</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>419</v>
+        <v>141</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>420</v>
+        <v>126</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>421</v>
+        <v>142</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>497</v>
+        <v>127</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E222" s="24">
-        <v>43557</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C223" s="85" t="s">
-        <v>516</v>
+        <v>143</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E223" s="24">
-        <v>43562</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="68" t="s">
-        <v>814</v>
-      </c>
-      <c r="B224" s="68"/>
-      <c r="C224" s="86" t="s">
-        <v>813</v>
-      </c>
-      <c r="D224" s="69"/>
-      <c r="E224" s="87"/>
+      <c r="A224" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>518</v>
+        <v>145</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E225" s="24">
-        <v>43562</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>810</v>
+        <v>146</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E226" s="24">
-        <v>43569</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="E227" s="24"/>
+        <v>147</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="228" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>522</v>
+        <v>191</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="E228" s="24">
-        <v>43557</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="E229" s="24"/>
-      <c r="F229" s="40"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>523</v>
-      </c>
-      <c r="B230"/>
-      <c r="C230" s="62" t="s">
-        <v>617</v>
+        <v>193</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="E230" s="24">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>43555</v>
+      </c>
+      <c r="F230" s="41" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B231"/>
-      <c r="C231" s="43" t="s">
-        <v>525</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E231" s="24">
-        <v>43561</v>
-      </c>
-      <c r="F231" s="36" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B232"/>
-      <c r="C232" s="62" t="s">
-        <v>527</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="24">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E231" s="24"/>
+    </row>
+    <row r="232" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="B232" s="12"/>
+      <c r="C232" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="D232" s="1"/>
+      <c r="E232" s="24"/>
+    </row>
+    <row r="233" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B233"/>
-      <c r="C233" s="62" t="s">
-        <v>529</v>
+        <v>197</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>7</v>
@@ -7126,104 +7130,79 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B234"/>
-      <c r="C234" s="62" t="s">
-        <v>531</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="24">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A235" s="68" t="s">
-        <v>703</v>
-      </c>
-      <c r="B235" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C235" s="83" t="s">
-        <v>691</v>
-      </c>
-      <c r="D235" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="103">
-        <v>43569</v>
-      </c>
-      <c r="F235" s="40"/>
+        <v>199</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="24">
+        <v>43558</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B236"/>
-      <c r="C236" s="62" t="s">
-        <v>533</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E236" s="24">
-        <v>43562</v>
+        <v>419</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B237"/>
-      <c r="C237" s="62" t="s">
-        <v>535</v>
-      </c>
-      <c r="D237" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E237" s="24">
-        <v>43562</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B238"/>
-      <c r="C238" s="62" t="s">
-        <v>537</v>
+        <v>494</v>
+      </c>
+      <c r="C238" s="85" t="s">
+        <v>516</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="E238" s="24">
         <v>43562</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B239"/>
-      <c r="C239" s="62" t="s">
-        <v>539</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239" s="24">
-        <v>43562</v>
-      </c>
+      <c r="A239" s="68" t="s">
+        <v>814</v>
+      </c>
+      <c r="B239" s="68"/>
+      <c r="C239" s="86" t="s">
+        <v>813</v>
+      </c>
+      <c r="D239" s="69"/>
+      <c r="E239" s="87"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B240"/>
-      <c r="C240" s="62" t="s">
-        <v>619</v>
+        <v>517</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>518</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>7</v>
@@ -7234,378 +7213,381 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B241"/>
-      <c r="C241" s="62" t="s">
-        <v>621</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>704</v>
+        <v>519</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" s="24">
+        <v>43569</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="80" t="s">
-        <v>639</v>
-      </c>
-      <c r="B242" s="81"/>
-      <c r="C242" s="82" t="s">
-        <v>638</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="E242" s="24"/>
+    </row>
+    <row r="243" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B243"/>
-      <c r="C243" s="62" t="s">
-        <v>623</v>
-      </c>
-      <c r="D243" s="11" t="s">
-        <v>706</v>
+        <v>521</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E243" s="24">
+        <v>43557</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B244"/>
-      <c r="C244" s="62" t="s">
-        <v>625</v>
-      </c>
-      <c r="D244" s="1"/>
+        <v>700</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="E244" s="24"/>
+      <c r="F244" s="40"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
-        <v>626</v>
+      <c r="A245" t="s">
+        <v>523</v>
       </c>
       <c r="B245"/>
-      <c r="C245" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="D245" s="1"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="42" t="s">
-        <v>707</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="C245" s="62" t="s">
+        <v>617</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B246"/>
+      <c r="C246" s="43" t="s">
+        <v>525</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E246" s="24">
+        <v>43561</v>
+      </c>
+      <c r="F246" s="36" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B247"/>
+      <c r="C247" s="62" t="s">
+        <v>527</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="24">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B248"/>
+      <c r="C248" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B249"/>
+      <c r="C249" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="24">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A250" s="68" t="s">
+        <v>703</v>
+      </c>
+      <c r="B250" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C246" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="D246" s="1"/>
-      <c r="F246" s="40"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="42" t="s">
-        <v>709</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C247" s="43" t="s">
-        <v>710</v>
-      </c>
-      <c r="D247" s="1"/>
-      <c r="F247" s="40"/>
-    </row>
-    <row r="248" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C248" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="D248" s="1"/>
-      <c r="F248" s="40"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B249"/>
-      <c r="C249"/>
-      <c r="D249" s="1"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B250"/>
-      <c r="C250"/>
-      <c r="D250" s="1"/>
+      <c r="C250" s="83" t="s">
+        <v>691</v>
+      </c>
+      <c r="D250" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="101">
+        <v>43569</v>
+      </c>
+      <c r="F250" s="40"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="B251"/>
-      <c r="C251"/>
-      <c r="D251" s="1"/>
+      <c r="C251" s="62" t="s">
+        <v>533</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="24">
+        <v>43562</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="B252"/>
-      <c r="C252"/>
-      <c r="D252" s="1"/>
+      <c r="C252" s="62" t="s">
+        <v>535</v>
+      </c>
+      <c r="D252" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="24">
+        <v>43562</v>
+      </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="B253"/>
-      <c r="C253"/>
-      <c r="D253" s="1"/>
+      <c r="C253" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="24">
+        <v>43562</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="B254"/>
-      <c r="C254"/>
-      <c r="D254" s="1"/>
+      <c r="C254" s="62" t="s">
+        <v>539</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="24">
+        <v>43562</v>
+      </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="B255"/>
-      <c r="C255"/>
-      <c r="D255" s="1"/>
+      <c r="C255" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="24">
+        <v>43562</v>
+      </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>620</v>
+      </c>
       <c r="B256"/>
-      <c r="C256" s="62"/>
-      <c r="D256" s="1"/>
+      <c r="C256" s="62" t="s">
+        <v>621</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C257" s="62"/>
-      <c r="E257" s="24"/>
-    </row>
-    <row r="258" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="28"/>
-      <c r="B258" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="C258" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="D258" s="29"/>
-      <c r="E258" s="28"/>
+      <c r="A257" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="B257" s="81"/>
+      <c r="C257" s="82" t="s">
+        <v>638</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B258"/>
+      <c r="C258" s="62" t="s">
+        <v>623</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" s="24">
-        <v>43555</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="B259"/>
+      <c r="C259" s="62" t="s">
+        <v>625</v>
+      </c>
+      <c r="D259" s="1"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E260" s="24">
-        <v>43555</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="B260"/>
+      <c r="C260" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D260" s="1"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E261" s="24">
-        <v>43555</v>
-      </c>
+      <c r="A261" s="42" t="s">
+        <v>707</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C261" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D261" s="1"/>
+      <c r="F261" s="40"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E262" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="24">
-        <v>43555</v>
-      </c>
+      <c r="A262" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C262" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="D262" s="1"/>
+      <c r="F262" s="40"/>
+    </row>
+    <row r="263" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A263" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C263" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="D263" s="1"/>
+      <c r="F263" s="40"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A264" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E264" s="24">
-        <v>43555</v>
-      </c>
+      <c r="B264"/>
+      <c r="C264"/>
+      <c r="D264" s="1"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" s="24">
-        <v>43555</v>
-      </c>
+      <c r="B265"/>
+      <c r="C265"/>
+      <c r="D265" s="1"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="24">
-        <v>43555</v>
-      </c>
+      <c r="B266"/>
+      <c r="C266"/>
+      <c r="D266" s="1"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A267" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" s="24">
-        <v>43555</v>
-      </c>
+      <c r="B267"/>
+      <c r="C267"/>
+      <c r="D267" s="1"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C269" s="79" t="s">
-        <v>715</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E269" s="24">
-        <v>43559</v>
-      </c>
-      <c r="F269" s="40"/>
+      <c r="B268"/>
+      <c r="C268"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B269"/>
+      <c r="C269"/>
+      <c r="D269" s="1"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E270" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C271" s="79" t="s">
-        <v>715</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E271" s="24">
-        <v>43559</v>
-      </c>
-      <c r="F271" s="40"/>
+      <c r="B270"/>
+      <c r="C270"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B271"/>
+      <c r="C271" s="62"/>
+      <c r="D271" s="1"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E272" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E273" s="24">
-        <v>43555</v>
-      </c>
+      <c r="C272" s="62"/>
+      <c r="E272" s="24"/>
+    </row>
+    <row r="273" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="28"/>
+      <c r="B273" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C273" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="D273" s="29"/>
+      <c r="E273" s="28"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>7</v>
@@ -7616,10 +7598,10 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>7</v>
@@ -7630,10 +7612,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>7</v>
@@ -7644,446 +7626,504 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E277" s="24">
-        <v>43562</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E278" s="24">
-        <v>43559</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E279" s="24">
-        <v>43559</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C280" s="62" t="s">
-        <v>463</v>
+        <v>436</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E280" s="24">
-        <v>43565</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>809</v>
+        <v>438</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E281" s="24">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="E282" s="24"/>
-    </row>
-    <row r="283" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>561</v>
+        <v>442</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="24">
+        <v>43555</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>560</v>
+        <v>713</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="F284" s="44" t="s">
-        <v>717</v>
-      </c>
+      <c r="C284" s="79" t="s">
+        <v>715</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="24">
+        <v>43559</v>
+      </c>
+      <c r="F284" s="40"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>562</v>
+        <v>444</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>563</v>
+        <v>445</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E285" s="24">
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>565</v>
+        <v>716</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C286" s="79" t="s">
+        <v>715</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E286" s="24">
-        <v>43562</v>
-      </c>
+        <v>43559</v>
+      </c>
+      <c r="F286" s="40"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>567</v>
+        <v>447</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E287" s="24">
-        <v>43562</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="24">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="24">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C295" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="24">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" s="24">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E297" s="24"/>
+    </row>
+    <row r="298" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F299" s="44" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="24">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C288" s="11" t="s">
+      <c r="C303" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="E288" s="24"/>
-      <c r="F288" s="40"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A289" s="1" t="s">
+      <c r="E303" s="24"/>
+      <c r="F303" s="40"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C304" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" s="24">
+      <c r="D304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="24">
         <v>43562</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A290" s="1" t="s">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="1" t="s">
+      <c r="D305" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C306" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A292" s="1" t="s">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C307" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A293" s="1" t="s">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C308" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E293" s="24">
+      <c r="D308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="24">
         <v>43560</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C309" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E294" s="24">
+      <c r="D309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="24">
         <v>43561</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A295" s="1" t="s">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C310" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" s="24">
+      <c r="D310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="24">
         <v>43562</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A302" s="28" t="s">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B302" s="28" t="s">
+      <c r="B317" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C302" s="29" t="s">
+      <c r="C317" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D302" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E302" s="28"/>
-    </row>
-    <row r="303" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A303" s="1" t="s">
+      <c r="D317" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" s="28"/>
+    </row>
+    <row r="318" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A318" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C318" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D303" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A304" s="1" t="s">
+      <c r="D318" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305" s="1" t="s">
+      <c r="D319" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C320" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C314" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F314" s="40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B315" s="3"/>
-      <c r="C315" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D319" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A320" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>7</v>
@@ -8091,10 +8131,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>7</v>
@@ -8102,18 +8142,21 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>35</v>
+        <v>207</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>7</v>
@@ -8121,10 +8164,10 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>7</v>
@@ -8132,36 +8175,32 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A326" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B326" s="3"/>
-      <c r="C326" s="4" t="s">
-        <v>149</v>
+      <c r="A326" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F326" s="40" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>7</v>
@@ -8169,10 +8208,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>7</v>
@@ -8180,312 +8219,345 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D329" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" s="25">
+        <v>43570</v>
+      </c>
+      <c r="F329" s="40" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A330" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>7</v>
+      <c r="A330" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B330" s="3"/>
+      <c r="C330" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C332" s="62" t="s">
-        <v>166</v>
+        <v>30</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E332" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E333" s="24">
-        <v>43554</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E334" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E335" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E336" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E337" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E338" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E339" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E340" s="24">
-        <v>43554</v>
-      </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A341" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E341" s="24"/>
+      <c r="A341" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B341" s="3"/>
+      <c r="C341" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F341" s="40" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C342" s="11" t="s">
-        <v>723</v>
+        <v>51</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E342" s="24">
-        <v>43569</v>
-      </c>
-      <c r="F342" s="40"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C343" s="62"/>
-      <c r="E343" s="24"/>
-      <c r="F343" s="40"/>
+      <c r="A343" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C344" s="62"/>
-      <c r="E344" s="24"/>
-      <c r="F344" s="40"/>
+      <c r="A344" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C345" s="62"/>
-      <c r="E345" s="24"/>
-      <c r="F345" s="40"/>
+      <c r="A345" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C346" s="62"/>
-      <c r="E346" s="24"/>
-      <c r="F346" s="40"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C347" s="62"/>
-      <c r="E347" s="24"/>
-      <c r="F347" s="40"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C348" s="62"/>
-      <c r="E348" s="24"/>
-      <c r="F348" s="40"/>
+      <c r="A346" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C347" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" s="24">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A348" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E348" s="24">
+        <v>43554</v>
+      </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C349" s="62"/>
-      <c r="E349" s="24"/>
-      <c r="F349" s="40"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C350" s="62"/>
-      <c r="E350" s="24"/>
-      <c r="F350" s="40"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A351" s="28"/>
-      <c r="B351" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="C351" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="D351" s="29"/>
-      <c r="E351" s="28"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" s="24">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A350" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="24">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A351" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" s="24">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>472</v>
+        <v>176</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>468</v>
+        <v>170</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="E352" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>473</v>
+        <v>209</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E353" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>474</v>
+        <v>177</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>470</v>
+        <v>171</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="E354" s="24">
-        <v>43555</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C355" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="E355" s="24"/>
-      <c r="F355" s="40"/>
+        <v>211</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" s="24">
+        <v>43554</v>
+      </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>727</v>
+        <v>201</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E356" s="24"/>
-      <c r="F356" s="40"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>475</v>
+        <v>722</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>7</v>
@@ -8496,46 +8568,76 @@
       <c r="F357" s="40"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A358" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>596</v>
-      </c>
+      <c r="C358" s="62"/>
+      <c r="E358" s="24"/>
+      <c r="F358" s="40"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A359" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>598</v>
-      </c>
+      <c r="C359" s="62"/>
+      <c r="E359" s="24"/>
+      <c r="F359" s="40"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A360" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>600</v>
-      </c>
+      <c r="C360" s="62"/>
+      <c r="E360" s="24"/>
+      <c r="F360" s="40"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C361" s="62"/>
+      <c r="E361" s="24"/>
+      <c r="F361" s="40"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C362" s="62"/>
+      <c r="E362" s="24"/>
+      <c r="F362" s="40"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C363" s="62"/>
+      <c r="E363" s="24"/>
+      <c r="F363" s="40"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C364" s="62"/>
+      <c r="E364" s="24"/>
+      <c r="F364" s="40"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C365" s="62"/>
+      <c r="E365" s="24"/>
+      <c r="F365" s="40"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" s="28"/>
+      <c r="B366" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C366" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="D366" s="29"/>
+      <c r="E366" s="28"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A367" s="28"/>
-      <c r="B367" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="C367" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="D367" s="29"/>
-      <c r="E367" s="28"/>
+      <c r="A367" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" s="24">
+        <v>43555</v>
+      </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>7</v>
@@ -8546,614 +8648,539 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C369" s="11" t="s">
-        <v>730</v>
+        <v>474</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E369" s="24">
-        <v>43569</v>
-      </c>
-      <c r="F369" s="40"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E370" s="24">
-        <v>43555</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="E370" s="24"/>
+      <c r="F370" s="40"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E371" s="24">
-        <v>43555</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E371" s="24"/>
+      <c r="F371" s="40"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E372" s="24">
+        <v>43569</v>
+      </c>
+      <c r="F372" s="40"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C373" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="E373" s="24"/>
-      <c r="F373" s="40"/>
+        <v>595</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C374" s="11" t="s">
-        <v>727</v>
-      </c>
-      <c r="E374" s="24"/>
-      <c r="F374" s="40"/>
+        <v>597</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" s="28"/>
+      <c r="B382" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="C382" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D382" s="29"/>
+      <c r="E382" s="28"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" s="24">
+        <v>43569</v>
+      </c>
+      <c r="F384" s="40"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E385" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A388" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="E388" s="24"/>
+      <c r="F388" s="40"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E389" s="24"/>
+      <c r="F389" s="40"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C390" s="7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A376" s="1" t="s">
+    <row r="391" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A391" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C391" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="F376" s="40"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A377" s="1" t="s">
+      <c r="F391" s="40"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C392" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A378" s="1" t="s">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C393" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A379" s="1" t="s">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C394" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A380" s="1" t="s">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C395" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A381" s="1" t="s">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A396" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C396" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E381" s="24"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A382" s="1" t="s">
+      <c r="E396" s="24"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C397" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E382" s="24"/>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E383" s="24"/>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E384" s="24"/>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E385" s="24"/>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E386" s="24"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E387" s="24"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A388" s="28"/>
-      <c r="B388" s="28" t="s">
+      <c r="E397" s="24"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E398" s="24"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E399" s="24"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E400" s="24"/>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E401" s="24"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E402" s="24"/>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A403" s="28"/>
+      <c r="B403" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="C388" s="29" t="s">
+      <c r="C403" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="D388" s="29"/>
-      <c r="E388" s="28"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A389" s="1" t="s">
+      <c r="D403" s="29"/>
+      <c r="E403" s="28"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A404" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="C404" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D389" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E389" s="24">
+      <c r="D404" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E404" s="24">
         <v>43555</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A390" s="1" t="s">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A405" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C405" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D390" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E390" s="24">
+      <c r="D405" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E405" s="24">
         <v>43568</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A391" s="1" t="s">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A406" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C406" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D391" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E391" s="24">
+      <c r="D406" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E406" s="24">
         <v>43568</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A392" s="1" t="s">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A407" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C407" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D392" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E392" s="24">
+      <c r="D407" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E407" s="24">
         <v>43568</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A393" s="1" t="s">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A408" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C408" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D393" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E393" s="24">
+      <c r="D408" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" s="24">
         <v>43568</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A394" s="1" t="s">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A409" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C409" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D394" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E394" s="24">
+      <c r="D409" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E409" s="24">
         <v>43569</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A395" s="1" t="s">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A410" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C410" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D395" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E395" s="24">
+      <c r="D410" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E410" s="24">
         <v>43569</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A396" s="1" t="s">
+    <row r="411" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A411" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C411" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A397" s="1" t="s">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A412" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C412" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D397" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E397" s="24">
+      <c r="D412" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E412" s="24">
         <v>43569</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A398" s="1" t="s">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A413" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C413" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="D398" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E398" s="24">
+      <c r="D413" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" s="24">
         <v>43569</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A399" s="1" t="s">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A414" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C414" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D399" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E399" s="24">
+      <c r="D414" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E414" s="24">
         <v>43569</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A400" s="1" t="s">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A415" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C415" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D400" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E400" s="24">
+      <c r="D415" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E415" s="24">
         <v>43569</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A401" s="1" t="s">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A416" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C401" s="2" t="s">
+      <c r="C416" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="D401" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E401" s="24">
+      <c r="D416" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E416" s="24">
         <v>43569</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A402" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E402" s="24">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A403" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D403" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E403" s="24">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A404" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A405" s="70" t="s">
-        <v>805</v>
-      </c>
-      <c r="B405" s="70"/>
-      <c r="C405" s="54" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A406" s="70" t="s">
-        <v>807</v>
-      </c>
-      <c r="B406" s="70"/>
-      <c r="C406" s="54" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A408" s="28"/>
-      <c r="B408" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C408" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="D408" s="29"/>
-      <c r="E408" s="38"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A409" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A410" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A411" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A412" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="B412" s="63"/>
-      <c r="C412" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="F412" s="36" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A413" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="B413" s="63"/>
-      <c r="C413" s="64" t="s">
-        <v>354</v>
-      </c>
-      <c r="F413" s="36" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A414" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A415" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A416" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C416" s="54" t="s">
-        <v>736</v>
-      </c>
-      <c r="D416" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E416" s="24">
-        <v>43568</v>
-      </c>
-      <c r="F416" s="40"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C417" s="62" t="s">
-        <v>738</v>
+        <v>799</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E417" s="24">
-        <v>43528</v>
-      </c>
-      <c r="F417" s="40"/>
+        <v>43569</v>
+      </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>66</v>
+        <v>801</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>67</v>
+        <v>802</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E418" s="24">
+        <v>43569</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>68</v>
+        <v>803</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>7</v>
+        <v>804</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A420" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A421" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A422" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>7</v>
+      <c r="A420" s="70" t="s">
+        <v>805</v>
+      </c>
+      <c r="B420" s="70"/>
+      <c r="C420" s="54" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A421" s="70" t="s">
+        <v>807</v>
+      </c>
+      <c r="B421" s="70"/>
+      <c r="C421" s="54" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A423" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B423" s="3"/>
-      <c r="C423" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="3"/>
-      <c r="B424" s="3"/>
-      <c r="C424" s="62" t="s">
-        <v>482</v>
-      </c>
-      <c r="D424" s="1"/>
+      <c r="A423" s="28"/>
+      <c r="B423" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C423" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D423" s="29"/>
+      <c r="E423" s="38"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A424" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>7</v>
@@ -9161,43 +9188,45 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A427" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>7</v>
+      <c r="A427" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B427" s="63"/>
+      <c r="C427" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="F427" s="36" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A428" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>7</v>
+      <c r="A428" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B428" s="63"/>
+      <c r="C428" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="F428" s="36" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>7</v>
@@ -9205,551 +9234,728 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>355</v>
+        <v>65</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E430" s="24">
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="431" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D431" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C431" s="54" t="s">
+        <v>736</v>
+      </c>
+      <c r="D431" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E431" s="24">
-        <v>43554</v>
-      </c>
+        <v>43568</v>
+      </c>
+      <c r="F431" s="40"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C432" s="62" t="s">
+        <v>738</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E432" s="24">
+        <v>43528</v>
+      </c>
+      <c r="F432" s="40"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A436" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A437" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A438" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B438" s="3"/>
+      <c r="C438" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="3"/>
+      <c r="B439" s="3"/>
+      <c r="C439" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="D439" s="1"/>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A442" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A444" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A445" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E445" s="24">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A446" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E446" s="24">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A447" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="C447" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D432" s="2" t="s">
+      <c r="D447" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E432" s="24">
+      <c r="E447" s="24">
         <v>43554</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A433" s="1" t="s">
+    <row r="448" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A448" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C448" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A434" s="58" t="s">
+    <row r="449" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A449" s="58" t="s">
         <v>777</v>
       </c>
-      <c r="B434" s="58"/>
-      <c r="C434" s="55" t="s">
+      <c r="B449" s="58"/>
+      <c r="C449" s="55" t="s">
         <v>484</v>
       </c>
-      <c r="D434" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E434" s="56">
+      <c r="D449" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E449" s="56">
         <v>43568</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C435" s="5"/>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C436" s="5"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A437" s="1" t="s">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C450" s="5"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C451" s="5"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A452" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C437" s="2" t="s">
+      <c r="C452" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D437" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E437" s="24">
+      <c r="D452" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E452" s="24">
         <v>43554</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A438" s="1" t="s">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A453" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C438" s="2" t="s">
+      <c r="C453" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D438" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E438" s="24">
+      <c r="D453" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E453" s="24">
         <v>43554</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A439" s="78" t="s">
+    <row r="454" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A454" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="B439" s="78"/>
-      <c r="C439" s="5" t="s">
+      <c r="B454" s="78"/>
+      <c r="C454" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D439" s="5" t="s">
+      <c r="D454" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E439" s="78"/>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A440" s="1" t="s">
+      <c r="E454" s="78"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A455" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="C455" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="D455" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E440" s="24">
+      <c r="E455" s="24">
         <v>43554</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A441" s="1" t="s">
+    <row r="456" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A456" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="C456" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D441" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E441" s="24">
+      <c r="D456" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E456" s="24">
         <v>43559</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A442" s="1" t="s">
+    <row r="457" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A457" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C442" s="31" t="s">
+      <c r="C457" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="D442" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E442" s="24">
+      <c r="D457" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E457" s="24">
         <v>43554</v>
       </c>
-      <c r="F442" s="36" t="s">
+      <c r="F457" s="36" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A443" s="1" t="s">
+    <row r="458" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A458" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C443" s="31" t="s">
+      <c r="C458" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="D443" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E443" s="24"/>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A444" s="1" t="s">
+      <c r="D458" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458" s="24"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A459" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C444" s="53" t="s">
+      <c r="C459" s="53" t="s">
         <v>770</v>
       </c>
-      <c r="D444" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E444" s="24">
+      <c r="D459" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" s="24">
         <v>43559</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A445" s="1" t="s">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A460" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="C460" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D445" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E445" s="24">
+      <c r="D460" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E460" s="24">
         <v>43559</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A446" s="1" t="s">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A461" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="C461" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D446" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E446" s="24">
+      <c r="D461" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E461" s="24">
         <v>43559</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A447" s="1" t="s">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A462" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C447" s="2" t="s">
+      <c r="C462" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E447" s="24"/>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A448" s="1" t="s">
+      <c r="E462" s="24"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A463" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C448" s="31" t="s">
+      <c r="C463" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="D448" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E448" s="24">
+      <c r="D463" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E463" s="24">
         <v>43559</v>
       </c>
-      <c r="F448" s="36" t="s">
+      <c r="F463" s="36" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A449" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D449" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E449" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A450" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E450" s="24">
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A451" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C451" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="D451" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E451" s="24">
-        <v>43559</v>
-      </c>
-      <c r="F451" s="36" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A452" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C452" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="D452" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E452" s="24">
-        <v>43568</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A453" s="60" t="s">
-        <v>768</v>
-      </c>
-      <c r="B453" s="60"/>
-      <c r="C453" s="74" t="s">
-        <v>769</v>
-      </c>
-      <c r="D453" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E453" s="58">
-        <v>43568</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A454" s="58" t="s">
-        <v>757</v>
-      </c>
-      <c r="B454" s="58"/>
-      <c r="C454" s="54" t="s">
-        <v>758</v>
-      </c>
-      <c r="D454" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E454" s="56">
-        <v>43568</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A455" s="58" t="s">
-        <v>767</v>
-      </c>
-      <c r="C455" s="54" t="s">
-        <v>759</v>
-      </c>
-      <c r="D455" s="31"/>
-      <c r="E455" s="24"/>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C456" s="31"/>
-      <c r="D456" s="31"/>
-      <c r="E456" s="24"/>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C457" s="31"/>
-      <c r="D457" s="31"/>
-      <c r="E457" s="24"/>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C458" s="31"/>
-      <c r="D458" s="31"/>
-      <c r="E458" s="24"/>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C459" s="31"/>
-      <c r="D459" s="31"/>
-      <c r="E459" s="24"/>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C460" s="31"/>
-      <c r="D460" s="31"/>
-      <c r="E460" s="24"/>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C461" s="31"/>
-      <c r="D461" s="31"/>
-      <c r="E461" s="24"/>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A463" s="38"/>
-      <c r="B463" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="C463" s="61"/>
-      <c r="D463" s="61"/>
-      <c r="E463" s="38"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E464" s="24">
-        <v>43554</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E465" s="24">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A466" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C466" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="D466" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E466" s="24">
+        <v>43559</v>
+      </c>
+      <c r="F466" s="36" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A467" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D467" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E467" s="24">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A468" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="B468" s="60"/>
+      <c r="C468" s="74" t="s">
+        <v>769</v>
+      </c>
+      <c r="D468" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E468" s="58">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A469" s="58" t="s">
+        <v>757</v>
+      </c>
+      <c r="B469" s="58"/>
+      <c r="C469" s="54" t="s">
+        <v>758</v>
+      </c>
+      <c r="D469" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" s="56">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A470" s="58" t="s">
+        <v>767</v>
+      </c>
+      <c r="C470" s="54" t="s">
+        <v>759</v>
+      </c>
+      <c r="D470" s="31"/>
+      <c r="E470" s="24"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C471" s="31"/>
+      <c r="D471" s="31"/>
+      <c r="E471" s="24"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C472" s="31"/>
+      <c r="D472" s="31"/>
+      <c r="E472" s="24"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C473" s="31"/>
+      <c r="D473" s="31"/>
+      <c r="E473" s="24"/>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C474" s="31"/>
+      <c r="D474" s="31"/>
+      <c r="E474" s="24"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C475" s="31"/>
+      <c r="D475" s="31"/>
+      <c r="E475" s="24"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C476" s="31"/>
+      <c r="D476" s="31"/>
+      <c r="E476" s="24"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A478" s="38"/>
+      <c r="B478" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C478" s="61"/>
+      <c r="D478" s="61"/>
+      <c r="E478" s="38"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A479" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E479" s="24">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A480" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C480" t="s">
         <v>233</v>
       </c>
-      <c r="D465" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E465" s="24">
+      <c r="D480" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E480" s="24">
         <v>43568</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A466" s="68" t="s">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A481" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="B466" s="68"/>
-      <c r="C466" s="77" t="s">
+      <c r="B481" s="68"/>
+      <c r="C481" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="D466" s="69" t="s">
+      <c r="D481" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="E466" s="24">
+      <c r="E481" s="24">
         <v>43555</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A467" s="58" t="s">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A482" s="58" t="s">
         <v>765</v>
       </c>
-      <c r="B467" s="58"/>
-      <c r="C467" s="54" t="s">
+      <c r="B482" s="58"/>
+      <c r="C482" s="54" t="s">
         <v>766</v>
       </c>
-      <c r="E467" s="24"/>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A468" s="1" t="s">
+      <c r="E482" s="24"/>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A483" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C468" s="62" t="s">
+      <c r="C483" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D468" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E468" s="24">
+      <c r="D483" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E483" s="24">
         <v>43568</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C469" s="62"/>
-      <c r="E469" s="24"/>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A470" s="1" t="s">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C484" s="62"/>
+      <c r="E484" s="24"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A485" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C470" s="62" t="s">
+      <c r="C485" s="62" t="s">
         <v>742</v>
       </c>
-      <c r="D470" s="2" t="s">
+      <c r="D485" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E470" s="24">
+      <c r="E485" s="24">
         <v>43537</v>
       </c>
-      <c r="F470" s="40"/>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A471" s="1" t="s">
+      <c r="F485" s="40"/>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A486" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C471" s="11" t="s">
+      <c r="C486" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="F471" s="40"/>
-    </row>
-    <row r="472" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A472" s="1" t="s">
+      <c r="F486" s="40"/>
+    </row>
+    <row r="487" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A487" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C472" s="57" t="s">
+      <c r="C487" s="57" t="s">
         <v>762</v>
       </c>
-      <c r="D472" s="2" t="s">
+      <c r="D487" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="E472" s="24">
+      <c r="E487" s="24">
         <v>43537</v>
       </c>
-      <c r="F472" s="40"/>
-    </row>
-    <row r="473" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A473" s="22"/>
-      <c r="B473" s="22"/>
-      <c r="C473" s="75" t="s">
+      <c r="F487" s="40"/>
+    </row>
+    <row r="488" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A488" s="22"/>
+      <c r="B488" s="22"/>
+      <c r="C488" s="75" t="s">
         <v>647</v>
       </c>
-      <c r="D473" s="23">
-        <f>COUNTA($D$1:$D470)</f>
-        <v>300</v>
-      </c>
-      <c r="E473" s="26"/>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C474" s="76" t="s">
+      <c r="D488" s="23">
+        <f>COUNTA($A$1:$A492)</f>
+        <v>385</v>
+      </c>
+      <c r="E488" s="26"/>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C489" s="76" t="s">
         <v>648</v>
       </c>
-      <c r="D474" s="20">
-        <f>COUNTIF($D$1:$D470, "=Done")</f>
-        <v>273</v>
-      </c>
-      <c r="E474" s="21">
-        <f>$D474/$D$473</f>
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C475" s="76" t="s">
+      <c r="D489" s="20">
+        <f>COUNTIF($D$1:$D485, "=Done")</f>
+        <v>281</v>
+      </c>
+      <c r="E489" s="21">
+        <f>$D489/$D$488</f>
+        <v>0.72987012987012989</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C490" s="76" t="s">
         <v>650</v>
       </c>
-      <c r="D475" s="20"/>
-      <c r="E475" s="21"/>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C476" s="76" t="s">
+      <c r="D490" s="20"/>
+      <c r="E490" s="21"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C491" s="76" t="s">
         <v>649</v>
       </c>
-      <c r="D476" s="20">
-        <f>COUNTIF($D$1:$D473, "=In process")</f>
+      <c r="D491" s="20">
+        <f>COUNTIF($D$1:$D488, "=In process")</f>
         <v>1</v>
       </c>
-      <c r="E476" s="21">
-        <f>$D476/($D$473 - $D$474)</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C477" s="76" t="s">
+      <c r="E491" s="21">
+        <f>$D491/($D$488 - $D$489)</f>
+        <v>9.6153846153846159E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C492" s="76" t="s">
         <v>651</v>
       </c>
-      <c r="D477" s="20">
-        <f>COUNTIF($D$1:$D474, "=Pending")</f>
-        <v>7</v>
-      </c>
-      <c r="E477" s="21">
-        <f>$D477/($D$473 - $D$474)</f>
-        <v>0.25925925925925924</v>
+      <c r="D492" s="20">
+        <f>COUNTIF($D$1:$D489, "=Pending")</f>
+        <v>7</v>
+      </c>
+      <c r="E492" s="21">
+        <f>$D492/($D$488 - $D$489)</f>
+        <v>6.7307692307692304E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14527,10 +14733,10 @@
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="102" t="s">
         <v>482</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="103"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">

--- a/BDC_V1/BDC_V1/Documents/Tasks.xlsx
+++ b/BDC_V1/BDC_V1/Documents/Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hagga\source\repos\BDC\BDC_V1\BDC_V1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125436B-2189-4DFE-8350-F7127148D0E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F9EE2-4C92-4F5C-8A32-8CCB6B100E6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="15" windowWidth="18270" windowHeight="31770" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
+    <workbookView xWindow="-28095" yWindow="1305" windowWidth="26580" windowHeight="13485" xr2:uid="{DACDA871-CB87-4368-8EE2-A4303C9959DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <sheet name="Shell" sheetId="24" r:id="rId22"/>
     <sheet name="Toolbar" sheetId="21" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -867,7 +873,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="890">
   <si>
     <t>ID</t>
   </si>
@@ -3534,9 +3540,6 @@
     <t>Done?</t>
   </si>
   <si>
-    <t>I know what it is, being left for release version.</t>
-  </si>
-  <si>
     <t>CP7</t>
   </si>
   <si>
@@ -3604,12 +3607,6 @@
   </si>
   <si>
     <t>Relabel System &gt; System Type</t>
-  </si>
-  <si>
-    <t>Needs content, in process</t>
-  </si>
-  <si>
-    <t>Need clarification</t>
   </si>
   <si>
     <t>CN1FB4</t>
@@ -3764,6 +3761,12 @@
   </si>
   <si>
     <t xml:space="preserve">The tooltips are correct as they are now. </t>
+  </si>
+  <si>
+    <t>data rows not selected: white Backgrounds (for contrast)</t>
+  </si>
+  <si>
+    <t>Will be implemented in release version.</t>
   </si>
 </sst>
 </file>
@@ -4008,7 +4011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4111,15 +4114,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
@@ -4135,7 +4129,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4352,28 +4346,13 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -4418,26 +4397,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4486,6 +4447,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4811,20 +4781,20 @@
   <dimension ref="A1:F498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C506" sqref="C506"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84:E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="84.85546875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="84.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -4844,7 +4814,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="27"/>
       <c r="B3" s="27" t="s">
         <v>641</v>
@@ -4855,7 +4825,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="76" t="s">
         <v>643</v>
       </c>
@@ -4864,7 +4834,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="78" t="s">
         <v>644</v>
       </c>
@@ -4874,21 +4844,21 @@
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="E6" s="82">
+      <c r="E6" s="80">
         <v>43570</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
       <c r="B8" s="25" t="s">
         <v>325</v>
@@ -4899,7 +4869,7 @@
       <c r="D8" s="26"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>327</v>
       </c>
@@ -4913,7 +4883,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>328</v>
       </c>
@@ -4927,50 +4897,54 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D12" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="85">
+      <c r="D12" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="82">
         <v>43563</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="87">
+      <c r="D13" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="82">
         <v>43563</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="25" t="s">
         <v>312</v>
@@ -4981,7 +4955,7 @@
       <c r="D15" s="26"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>313</v>
       </c>
@@ -4995,7 +4969,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
@@ -5009,35 +4983,35 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="89">
+      <c r="D18" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="84">
         <v>43563</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="89">
+      <c r="D19" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="84">
         <v>43563</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="25" t="s">
         <v>98</v>
@@ -5048,7 +5022,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -5059,7 +5033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>154</v>
       </c>
@@ -5070,7 +5044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>155</v>
       </c>
@@ -5081,7 +5055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>156</v>
       </c>
@@ -5092,7 +5066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>157</v>
       </c>
@@ -5103,12 +5077,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="29"/>
       <c r="B28" s="30" t="s">
         <v>86</v>
@@ -5117,50 +5091,54 @@
       <c r="D28" s="32"/>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>487</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="91">
+      <c r="E29" s="86">
         <v>43555</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>488</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D30" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="89">
+      <c r="D30" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="84">
         <v>43563</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="90"/>
+      <c r="D31" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="85"/>
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="25" t="s">
         <v>258</v>
@@ -5171,7 +5149,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="25"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>259</v>
       </c>
@@ -5185,145 +5163,149 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C35" s="85" t="s">
         <v>653</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="91"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="85" t="s">
         <v>655</v>
       </c>
-      <c r="D36" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="89">
+      <c r="D36" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="85" t="s">
         <v>657</v>
       </c>
-      <c r="D37" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="89">
+      <c r="D37" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="85" t="s">
         <v>659</v>
       </c>
-      <c r="D38" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="89">
+      <c r="D38" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C39" s="90" t="s">
+      <c r="C39" s="85" t="s">
         <v>661</v>
       </c>
-      <c r="D39" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="89">
+      <c r="D39" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C40" s="90" t="s">
-        <v>663</v>
-      </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="91"/>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="85" t="s">
+        <v>888</v>
+      </c>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+    </row>
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="85" t="s">
         <v>665</v>
       </c>
-      <c r="D41" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="89">
+      <c r="D41" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="85" t="s">
         <v>667</v>
       </c>
-      <c r="D42" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="89">
+      <c r="D42" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+      <c r="D43" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>260</v>
       </c>
@@ -5337,16 +5319,21 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="D45" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>261</v>
       </c>
@@ -5360,16 +5347,21 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>264</v>
       </c>
@@ -5383,7 +5375,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>266</v>
       </c>
@@ -5397,7 +5389,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>268</v>
       </c>
@@ -5411,7 +5403,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>270</v>
       </c>
@@ -5425,21 +5417,21 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D52" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="89">
+      <c r="D52" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>780</v>
       </c>
@@ -5454,7 +5446,7 @@
         <v>43568</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="57" t="s">
         <v>782</v>
       </c>
@@ -5463,16 +5455,16 @@
         <v>783</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="25" t="s">
         <v>251</v>
@@ -5483,7 +5475,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="25"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>253</v>
       </c>
@@ -5497,7 +5489,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>273</v>
       </c>
@@ -5511,77 +5503,77 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C61" s="90" t="s">
+      <c r="C61" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="D61" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="89">
+      <c r="D61" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C62" s="90" t="s">
+      <c r="C62" s="85" t="s">
         <v>668</v>
       </c>
-      <c r="D62" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="89">
+      <c r="D62" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="85" t="s">
         <v>670</v>
       </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="92"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="85"/>
+      <c r="E63" s="87"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C64" s="90" t="s">
+      <c r="C64" s="85" t="s">
         <v>334</v>
       </c>
-      <c r="D64" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="89">
+      <c r="D64" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="84">
         <v>43563</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="94" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="89" t="s">
         <v>631</v>
       </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="93" t="s">
+      <c r="B65" s="89"/>
+      <c r="C65" s="88" t="s">
         <v>632</v>
       </c>
-      <c r="D65" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="89">
+      <c r="D65" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="25"/>
       <c r="B67" s="25" t="s">
         <v>243</v>
@@ -5592,7 +5584,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="25"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>244</v>
       </c>
@@ -5606,7 +5598,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>246</v>
       </c>
@@ -5620,7 +5612,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>248</v>
       </c>
@@ -5628,142 +5620,142 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D71" s="88" t="s">
+      <c r="D71" s="83" t="s">
         <v>510</v>
       </c>
-      <c r="E71" s="95"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="90"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D72" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="92"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="87"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D73" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="89">
+      <c r="D73" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>603</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="96" t="s">
         <v>604</v>
       </c>
-      <c r="D74" s="90"/>
-      <c r="E74" s="92"/>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D74" s="85"/>
+      <c r="E74" s="87"/>
+    </row>
+    <row r="75" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C75" s="101" t="s">
+      <c r="C75" s="96" t="s">
         <v>672</v>
       </c>
-      <c r="D75" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="89">
+      <c r="D75" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="84">
         <v>43570</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="101" t="s">
+      <c r="C76" s="96" t="s">
         <v>606</v>
       </c>
-      <c r="D76" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="92"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D76" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="87"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>673</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="101" t="s">
+      <c r="C77" s="96" t="s">
         <v>674</v>
       </c>
-      <c r="D77" s="97" t="s">
+      <c r="D77" s="92" t="s">
         <v>814</v>
       </c>
-      <c r="E77" s="98"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E77" s="93"/>
+    </row>
+    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C78" s="101" t="s">
+      <c r="C78" s="96" t="s">
         <v>608</v>
       </c>
-      <c r="D78" s="99" t="s">
-        <v>815</v>
-      </c>
-      <c r="E78" s="100">
+      <c r="D78" s="94" t="s">
+        <v>889</v>
+      </c>
+      <c r="E78" s="95">
         <v>43570</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C79" s="90" t="s">
+      <c r="C79" s="85" t="s">
         <v>676</v>
       </c>
-      <c r="D79" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="89">
+      <c r="D79" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="84">
         <v>43572</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C80" s="54"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="25"/>
       <c r="B81" s="25" t="s">
         <v>276</v>
@@ -5774,7 +5766,7 @@
       <c r="D81" s="26"/>
       <c r="E81" s="25"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>277</v>
       </c>
@@ -5788,174 +5780,214 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>677</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="85" t="s">
         <v>678</v>
       </c>
-      <c r="D83" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="89">
+      <c r="D83" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C84" s="90" t="s">
+      <c r="C84" s="85" t="s">
         <v>680</v>
       </c>
-      <c r="D84" s="90"/>
-      <c r="E84" s="91"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C85" s="90" t="s">
+      <c r="C85" s="85" t="s">
         <v>682</v>
       </c>
-      <c r="D85" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="89">
+      <c r="D85" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="84">
         <v>43569</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="D86" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="104" t="s">
+      <c r="C87" s="97" t="s">
         <v>279</v>
       </c>
-      <c r="D87" s="105" t="s">
-        <v>839</v>
-      </c>
-      <c r="E87" s="106"/>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="92" t="s">
+      <c r="D87" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="87" t="s">
         <v>778</v>
       </c>
-      <c r="B88" s="92"/>
-      <c r="C88" s="104" t="s">
+      <c r="B88" s="87"/>
+      <c r="C88" s="97" t="s">
         <v>779</v>
       </c>
-      <c r="D88" s="105" t="s">
+      <c r="D88" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E88" s="106"/>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="C89" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="D89" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" s="87"/>
+      <c r="C90" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="D91" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B92" s="87"/>
+      <c r="C92" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D89" s="105"/>
-      <c r="E89" s="106"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="B90" s="92"/>
-      <c r="C90" s="104" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" s="107"/>
-      <c r="E90" s="106"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="C93" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="D93" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="87"/>
+      <c r="C94" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C95" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="D91" s="102"/>
-      <c r="E91" s="106"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="104" t="s">
-        <v>283</v>
-      </c>
-      <c r="D92" s="105" t="s">
-        <v>839</v>
-      </c>
-      <c r="E92" s="106"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="D93" s="102"/>
-      <c r="E93" s="106"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="B94" s="92"/>
-      <c r="C94" s="104" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="105"/>
-      <c r="E94" s="106"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="D95" s="102"/>
-      <c r="E95" s="106"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="92" t="s">
+      <c r="D95" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="B96" s="92"/>
-      <c r="C96" s="104" t="s">
+      <c r="B96" s="87"/>
+      <c r="C96" s="97" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="105" t="s">
-        <v>839</v>
-      </c>
-      <c r="E96" s="108"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>636</v>
       </c>
@@ -5963,36 +5995,44 @@
       <c r="C97" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="D97" s="102" t="s">
-        <v>225</v>
-      </c>
-      <c r="E97" s="106"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="92" t="s">
+      <c r="D97" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="B98" s="92"/>
-      <c r="C98" s="104" t="s">
+      <c r="B98" s="87"/>
+      <c r="C98" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="D98" s="105" t="s">
-        <v>839</v>
-      </c>
-      <c r="E98" s="108"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="92" t="s">
+      <c r="D98" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="92"/>
-      <c r="C99" s="90" t="s">
+      <c r="B99" s="87"/>
+      <c r="C99" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="D99" s="103"/>
-      <c r="E99" s="95"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="22">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="25"/>
       <c r="B102" s="25" t="s">
         <v>300</v>
@@ -6003,150 +6043,150 @@
       <c r="D102" s="26"/>
       <c r="E102" s="25"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C103" s="90" t="s">
+      <c r="C103" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="D103" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="91">
+      <c r="D103" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="86">
         <v>43555</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C104" s="90" t="s">
+      <c r="C104" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="D104" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="91">
+      <c r="D104" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="86">
         <v>43555</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>683</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="90" t="s">
+      <c r="C105" s="85" t="s">
         <v>684</v>
       </c>
-      <c r="D105" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="89">
+      <c r="D105" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="84">
         <v>43570</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="90" t="s">
+      <c r="C106" s="85" t="s">
         <v>686</v>
       </c>
-      <c r="D106" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="89">
+      <c r="D106" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="84">
         <v>43570</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C107" s="90" t="s">
+      <c r="C107" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="D107" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="91">
+      <c r="D107" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="86">
         <v>43555</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C108" s="90" t="s">
+      <c r="C108" s="85" t="s">
         <v>688</v>
       </c>
-      <c r="D108" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="89">
+      <c r="D108" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="84">
         <v>43570</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C109" s="90" t="s">
+      <c r="C109" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="D109" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="95"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="90"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C110" s="90" t="s">
+      <c r="C110" s="85" t="s">
         <v>310</v>
       </c>
-      <c r="D110" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="95"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="90"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C111" s="90" t="s">
+      <c r="C111" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="D111" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="95"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="90"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C112" s="85" t="s">
         <v>816</v>
       </c>
-      <c r="C112" s="90" t="s">
-        <v>817</v>
-      </c>
-      <c r="D112" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="89">
+      <c r="D112" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="84">
         <v>43570</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="25"/>
       <c r="B114" s="25" t="s">
         <v>90</v>
@@ -6155,7 +6195,7 @@
       <c r="D114" s="26"/>
       <c r="E114" s="25"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>89</v>
       </c>
@@ -6169,7 +6209,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>158</v>
       </c>
@@ -6183,16 +6223,16 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E117" s="21"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>159</v>
       </c>
@@ -6206,7 +6246,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>160</v>
       </c>
@@ -6220,7 +6260,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>163</v>
       </c>
@@ -6235,7 +6275,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -6249,16 +6289,16 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E122" s="21"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>162</v>
       </c>
@@ -6272,7 +6312,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>179</v>
       </c>
@@ -6286,7 +6326,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>188</v>
       </c>
@@ -6300,7 +6340,7 @@
         <v>43555</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>189</v>
       </c>
@@ -6314,7 +6354,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>190</v>
       </c>
@@ -6328,7 +6368,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>342</v>
       </c>
@@ -6342,7 +6382,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>344</v>
       </c>
@@ -6359,7 +6399,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>346</v>
       </c>
@@ -6373,11 +6413,11 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C131" s="109" t="s">
+      <c r="C131" s="98" t="s">
         <v>348</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -6385,7 +6425,7 @@
       </c>
       <c r="E131" s="21"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>500</v>
       </c>
@@ -6400,7 +6440,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>634</v>
       </c>
@@ -6410,17 +6450,17 @@
       </c>
       <c r="E133" s="21"/>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B134" s="12"/>
-      <c r="C134" s="110" t="s">
-        <v>855</v>
+      <c r="C134" s="99" t="s">
+        <v>852</v>
       </c>
       <c r="E134" s="21"/>
     </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>690</v>
       </c>
@@ -6437,10 +6477,10 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C136" s="54"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="25"/>
       <c r="B137" s="25" t="s">
         <v>185</v>
@@ -6451,7 +6491,7 @@
       <c r="D137" s="26"/>
       <c r="E137" s="25"/>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>186</v>
       </c>
@@ -6459,7 +6499,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>549</v>
       </c>
@@ -6467,7 +6507,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="35"/>
       <c r="B142" s="25" t="s">
         <v>104</v>
@@ -6476,7 +6516,7 @@
       <c r="D142" s="26"/>
       <c r="E142" s="25"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>106</v>
       </c>
@@ -6487,7 +6527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>365</v>
       </c>
@@ -6498,15 +6538,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>508</v>
       </c>
@@ -6520,10 +6560,10 @@
         <v>41370</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E147" s="21"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="25"/>
       <c r="B148" s="25" t="s">
         <v>367</v>
@@ -6534,7 +6574,7 @@
       <c r="D148" s="26"/>
       <c r="E148" s="25"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>368</v>
       </c>
@@ -6545,7 +6585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>370</v>
       </c>
@@ -6556,7 +6596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>372</v>
       </c>
@@ -6567,7 +6607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>374</v>
       </c>
@@ -6581,7 +6621,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>376</v>
       </c>
@@ -6592,7 +6632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>377</v>
       </c>
@@ -6606,7 +6646,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>378</v>
       </c>
@@ -6617,7 +6657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>383</v>
       </c>
@@ -6625,7 +6665,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>379</v>
       </c>
@@ -6636,7 +6676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>386</v>
       </c>
@@ -6650,7 +6690,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>388</v>
       </c>
@@ -6661,7 +6701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>390</v>
       </c>
@@ -6669,7 +6709,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>391</v>
       </c>
@@ -6680,7 +6720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>393</v>
       </c>
@@ -6691,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>395</v>
       </c>
@@ -6702,7 +6742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>397</v>
       </c>
@@ -6713,7 +6753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>399</v>
       </c>
@@ -6724,7 +6764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>401</v>
       </c>
@@ -6735,7 +6775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>403</v>
       </c>
@@ -6746,7 +6786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>405</v>
       </c>
@@ -6757,7 +6797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>407</v>
       </c>
@@ -6768,7 +6808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>409</v>
       </c>
@@ -6779,7 +6819,7 @@
         <